--- a/Disign/Monster .xlsx
+++ b/Disign/Monster .xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a3997\Documents\GitHub\Hyo_swEngineering10\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E1676AA-0444-4B0E-AC8E-872C1AF67302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CB1A91-9211-4B3E-9B0B-5A3189EE95EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VerControl" sheetId="1" r:id="rId1"/>
+    <sheet name="몬스터 능력치" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,13 +37,514 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="121">
+  <si>
+    <t>몬스터 기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21101199 양효정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.6.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1] 몬스터 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 몬스터 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯 타입별 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적이 가지고 있는 마나로, 몬스터가 스킬을 쓸 때마다 닳는다. 마나 0이 되면 몬스터가 일반 공격만을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적이 가지고 있는 생명력으로,  체력이 0이 되면 사망한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적이 받는 피해 감소량을 의미한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">적을 처치했을 때 플레이어가 얻을 수 있는 경험치이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 몬스터 속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">적의 레벨로, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="메이플스토리"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플레이어와 몬스터 레벨 차이에 따라 데미지, 획득 경험치가 달라질 수 있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적이 플레이어에게 공격시, 플레이어에게 피해를 주는 상수값이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동 속도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 몬스터 속성에 따라 데미지가 다르게 들어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 몬스터의 기본 스탯에 대한 항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>성(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>聖)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 타입별 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불속성의 공격: 데미지가 50% 덜 들어옴, 물속성의 공격: 데미지가 50% 더 들어옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물속성의 공격: 데미지가 50% 덜 들어옴, 불속성의 공격: 데미지가 50% 더 들어옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성속성의 공격: 데미지가 50% 덜 들어옴, 암흑속성의 공격: 데미지가 50% 더 들어옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑속성의 공격: 데미지가 50% 덜 들어옴, 성속성의 공격: 데미지가 50% 더 들어옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 몬스터 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선공형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후공형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 타입별 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격모션 없이 몸박 데미지만 있으며, 공격을 당하면 추적을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 젠 되었을때부터 플레이어를 추적하여 먼저 공격을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격을 당한 후에야 플레이어를 추적하여 공격을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 공격 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headbutt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preemptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inpreemptive</t>
+  </si>
+  <si>
+    <t>melee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeattack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statuseffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 방식별 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 몬스터에게 닿으면 데미지를 입는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 사거리가 짧다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 향해 투사체를 발사한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 몬스터 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 잔몹들에 해당한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이즈, 4페이즈, 6페이즈마다 등장하는 몬스터로, 기존 몬스터들에 비해 지능이 가장 좋고,
+특정 패턴들을 가지고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 몬스터는 어떤 분류에 속하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹독의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리트 몬스터 특성별 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 3초동안 움직이거나 스킬을 쓸 수 없는 상태로 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어에게 10초동안 독이라는 상태이상을 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 10초동안 맵을 볼 수 있는 시야를 축소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느릿한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 속도를 10초동안 느리게 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 상태이상 종류엔 무엇이 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 몬스터의 공격 이벤트 발생 조건은 어떠한가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 몬스터가 어떤식으로 공격을 하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petrification</t>
+  </si>
+  <si>
+    <t>마비의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) 상태이상 특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 몬스터에 비해 지능이 좀 더 좋고, 체력또한 15배이며, 6)와 같은 상태이상을 플레이어에게 건다.
+일반몬스터를 20마리 잡을때마다 엘리트 몬스터가 한마리씩 나온다.
+또한 모든 엘리트 몬스터는 선공형(preemptive)이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어에게 독(플레이어의 hp 감소), 좌우 반전과 같은 상태이상을 부여한다.
+해당 상태이상은 6) 참고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌우반전의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 좌측키와 우측키를 10초간 반전시킨다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +552,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +568,75 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="메이플스토리"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="메이플스토리"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="메이플스토리"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="메이플스토리"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gulim"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -83,15 +644,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,23 +1120,791 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552CA949-F9A7-4535-9843-0E60E5A91FBB}">
-  <dimension ref="C3:C15"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="2.8984375" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+    <row r="2" spans="1:8" ht="23.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="F10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911D75D5-C37F-4264-AD75-0873F200AFCB}">
+  <dimension ref="B3:G80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="1"/>
+    <col min="6" max="6" width="13.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="21">
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="12">
+        <v>6</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="15">
+        <v>7</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="12">
+        <v>3</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="15">
+        <v>4</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="12">
+        <v>2</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="15">
+        <v>3</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="12">
+        <v>2</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="12">
+        <v>3</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="28.8">
+      <c r="B50" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="15">
+        <v>4</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="12">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="43.2">
+      <c r="B60" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="12">
+        <v>2</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="28.8">
+      <c r="B61" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="15">
+        <v>3</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="12">
+        <v>1</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="12">
+        <v>2</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="12">
+        <v>3</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="12">
+        <v>4</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="15">
+        <v>5</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="15">
+      <c r="B80" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Disign/Monster .xlsx
+++ b/Disign/Monster .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a3997\Documents\GitHub\Hyo_swEngineering10\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5530C47-8B20-4A74-B50B-11E24C90EA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20017F46-1775-4032-8E2C-5C0BC4CED126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
   </bookViews>
   <sheets>
     <sheet name="VerControl" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="153">
   <si>
     <t>몬스터 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,22 +192,6 @@
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">적의 레벨로, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="메이플스토리"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>플레이어와 몬스터 레벨 차이에 따라 데미지, 획득 경험치가 달라질 수 있다.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -531,48 +515,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>* 몬스터 레벨에 따라 상태이상 레벨이 높게 붙을 확률이 높다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nomal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 속성을 가지고 있지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 몬스터에 비해 지능과 공격력, 보상이 좀 더 좋고, 체력또한 15배이며, 6)와 같은 상태이상을 플레이어에게 건다.
+일정 확률에 따라 엘리트 몬스터가 한마리씩 나온다.
+또한 모든 엘리트 몬스터는 선공형(preemptive)이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">일반 몬스터에 비해 지능과 공격력, 보상이 좀 더 좋고, 체력또한 15배이며, 6)와 같은 상태이상을 플레이어에게 건다.
-일반몬스터를 20마리 잡을때마다 엘리트 몬스터가 한마리씩 나온다.
-또한 모든 엘리트 몬스터는 선공형(preemptive)이다.
-</t>
+      <t xml:space="preserve">적의 레벨로, </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="메이플스토리"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>확률형</t>
+      <t>플레이어와 몬스터 레벨 차이에 따라 데미지, 획득 경험치가 달라질 수 있다.</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="메이플스토리"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 몬스터 레벨에 따라 상태이상 레벨이 높게 붙을 확률이 높다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nomal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무 속성을 가지고 있지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2] 몬스터 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 일반 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋스토어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/characters/slime-enemy-pixel-art-228568</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/characters/the-legend-of-slim-245855</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젤리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/characters/bolt-2d-jellyfarm-assets-pack-188722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레트로풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/characters/retro-act-rpg-sprite-pack-01-71965</t>
+  </si>
+  <si>
+    <t>괴물풍 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/characters/100-fantasy-characters-mega-pack-222143</t>
+  </si>
+  <si>
+    <t>1) 전체 몬스터 에셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 3, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐1(몸박하쥐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐2(선빵때리쥐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐3(탄환날리쥐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">날리는 탄환
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리 공격
+(캐릭터에게 할퀴기 효과)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸박
+(부비적 거림)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 공격
+(탄환 발사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥냥펀치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥냥박치기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +686,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,13 +725,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="메이플스토리"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Gulim"/>
       <family val="3"/>
@@ -636,6 +735,21 @@
       <color rgb="FF040C28"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="메이플스토리"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -759,12 +873,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,10 +936,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -831,9 +948,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -846,6 +970,550 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3861777</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1935480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D43D79B-D882-2395-72D6-CDEB60EE9BDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="1318260"/>
+          <a:ext cx="3412197" cy="1798320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4434840</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3321308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BBB216-0B14-A577-A58E-E58F3771ED1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1882140" y="3261360"/>
+          <a:ext cx="4274820" cy="3275588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4500749</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1577340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E72DF2-1C3C-A452-7DA3-AC486136EF05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="7056120"/>
+          <a:ext cx="4394069" cy="1226820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4053840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2960059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FE42F9-A7DC-9386-FE14-AC79DA0AEE22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2270760" y="8869680"/>
+          <a:ext cx="3505200" cy="2853379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1546861</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2979421</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1659696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6AF7D3-33A6-E45F-7A80-19940394CA87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3268981" y="12077701"/>
+          <a:ext cx="1432560" cy="1553015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1748673</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>840018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0243771-BA32-2E11-8742-39E69C76606D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2583180" y="1143000"/>
+          <a:ext cx="933333" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1786773</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>763818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCF2196-33A8-49A4-8DC9-CA2A7421400B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2621280" y="2011680"/>
+          <a:ext cx="933333" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>868680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1802013</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>740958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5432478A-A0A2-422E-A24E-4FEB59123AC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2636520" y="2804160"/>
+          <a:ext cx="933333" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>655258</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>748611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D710C55A-A550-0D01-3B54-E0BAA6732433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8336280" y="3078480"/>
+          <a:ext cx="495238" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>710492</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>702868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93635932-6607-49C9-A8F8-F4FBAE061BBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8694420" y="4434840"/>
+          <a:ext cx="580952" cy="619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1043940</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1634416</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>617168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE25913-7ED2-BA97-3659-92B1EB7FB181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2811780" y="3764280"/>
+          <a:ext cx="590476" cy="419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1619176</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>571448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7A1ACC-314D-4CD3-9661-71464A010D9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2796540" y="4503420"/>
+          <a:ext cx="590476" cy="419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1148,7 +1816,7 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1217,22 +1885,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="F9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="F10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1246,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911D75D5-C37F-4264-AD75-0873F200AFCB}">
   <dimension ref="B3:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1272,7 +1940,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -1320,7 +1988,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -1354,7 +2022,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -1388,7 +2056,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -1422,7 +2090,7 @@
         <v>26</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -1430,12 +2098,12 @@
         <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>13</v>
@@ -1444,7 +2112,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -1466,100 +2134,100 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="11">
         <v>1</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="11">
         <v>3</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="14">
         <v>4</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>13</v>
@@ -1568,7 +2236,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -1590,66 +2258,66 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="11">
         <v>1</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="11">
         <v>2</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="14">
         <v>3</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>13</v>
@@ -1658,7 +2326,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="2:7">
@@ -1680,89 +2348,89 @@
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="11">
         <v>3</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="28.8">
       <c r="B50" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="14">
         <v>4</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -1781,57 +2449,57 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="11">
         <v>1</v>
       </c>
       <c r="F59" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="43.2">
+      <c r="B60" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="57.6">
-      <c r="B60" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="C60" s="11">
         <v>2</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="28.8">
       <c r="B61" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="14">
         <v>3</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>13</v>
@@ -1840,7 +2508,7 @@
         <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="2:7">
@@ -1862,92 +2530,92 @@
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D71" s="11">
         <v>2</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" s="11">
         <v>3</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="11">
         <v>4</v>
       </c>
       <c r="F73" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G73" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D74" s="14">
         <v>5</v>
       </c>
       <c r="F74" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G74" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="15">
@@ -1961,27 +2629,271 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F0760-9FC6-4129-BA82-812BD600FFC5}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="13.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.09765625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="21">
+      <c r="B3" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="160.19999999999999" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="274.8" customHeight="1">
+      <c r="D8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="162" customHeight="1">
+      <c r="B9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="252.6" customHeight="1">
+      <c r="B10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="136.80000000000001" customHeight="1">
+      <c r="B11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{7CA8E68B-8C7A-4A07-A666-798366D12EDF}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{32E2FEF5-C190-4DE8-BCA5-C9E14996B7B0}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{03D0B271-E6EA-463D-A8FF-54AB2F691D09}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1140001-3FAE-4C6F-B699-3D284F71E393}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="14.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.3984375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.796875" style="1"/>
+    <col min="7" max="7" width="21.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="21">
+      <c r="B2" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="74.400000000000006" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="64.2" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="63.6" customHeight="1">
+      <c r="B8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="61.8" customHeight="1">
+      <c r="B9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="58.8" customHeight="1">
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2002,7 +2914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F67ADF-6ECE-42D2-810E-91F2C6B663D2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>

--- a/Disign/Monster .xlsx
+++ b/Disign/Monster .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a3997\Documents\GitHub\Hyo_swEngineering10\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20017F46-1775-4032-8E2C-5C0BC4CED126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7D5A65-9527-42E8-A32A-9E6EDCCAD196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="210">
   <si>
     <t>몬스터 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,9 +611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://assetstore.unity.com/packages/2d/characters/100-fantasy-characters-mega-pack-222143</t>
-  </si>
-  <si>
     <t>1) 전체 몬스터 에셋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -631,10 +628,6 @@
   </si>
   <si>
     <t>등장장소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 3, 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -679,6 +672,238 @@
   </si>
   <si>
     <t>냥냥박치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/characters/monsters-creatures-fantasy-167949</t>
+  </si>
+  <si>
+    <t>도트형 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/characters/cute-pets-2d-free-239180</t>
+  </si>
+  <si>
+    <t>통통 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 후보 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/creatures/dragon-for-boss-monster-hp-79398</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/characters/furball-2d-v1-2-mobile-optimized-40588</t>
+  </si>
+  <si>
+    <t>원한체</t>
+  </si>
+  <si>
+    <t>원한체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/characters/pet-cats-pixel-art-pack-248340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹냥이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 모음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸박, 원거리 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/characters/100-fantasy-characters-mega-pack-222143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입장시 대기모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자가 치유 모션[자힐]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그루기[그루밍]상태: 패턴 파훼시 해당 그루기 상태에 빠진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat-1-Laying</t>
+  </si>
+  <si>
+    <t>cat-1-Licking</t>
+  </si>
+  <si>
+    <t>cat-1-Licking 2_0</t>
+  </si>
+  <si>
+    <t>2) 보스 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat-1-Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat-1-sleeping 2_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat-1-walk_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat-1-Stretching_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어에게 대쉬스킬을 쓰는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할퀴기 자세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어에게 다가오는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 모션 후 흐리기 처리로 점점 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥냥펀치(탄환) 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저 피하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨 처음에는 한마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 플레이어가 죽은 횟수만큼 비례하여 잡몹이 나온다.
+- 잡몹들이 레이저를 쏴서 플레이어를 괴롭힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이 몬스터들의 수에 따라 보스몬스터의 보스몬스터의 공격력이 증가한다.
+플레이어는 이 몬스터에게 공격을 해서 수를 줄일 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 공격(탄환 발사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그루기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할퀴기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젤리 던지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광폭화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임이 한번에 10마리로 분열한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 맵 상의 분열된 슬라임을 제거하고, 제거된 수 만큼 보스몬스터의 공격력을 증가시킨다. 
+- 일정 마리 수 이상이 남아있던 상태에서 흡수가 된다면, 바로 광폭화 패턴으로 넘어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열된 슬라임, 혹은 킹슬라임 본캐가 젤리를 포물선으로 던진다.
+ 플레이어가 이 젤리 위에 서있으면 hp가 닳고, 이동속도가 느려지며 점프를 쓸 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 슬라임이 던졌던 젤리들이 한번에 폭발된다. 주변에 있는 플레이어는 hp가 닳으며, [마비] 패턴에 걸린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡몹: 레이저</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,7 +977,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,6 +999,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +1112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,6 +1185,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1192,6 +1435,226 @@
         <a:xfrm>
           <a:off x="3268981" y="12077701"/>
           <a:ext cx="1432560" cy="1553015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1043940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3322320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2055091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42120A4D-912E-69D5-4D8A-AE799863D246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2766060" y="13830300"/>
+          <a:ext cx="2278380" cy="1933171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>145486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4974306</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2240280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7733D454-567B-B61C-6DE3-05732F301C1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2087880" y="16017946"/>
+          <a:ext cx="4608546" cy="2094794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1341121</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4015740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1816653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B888CFA-AF25-2114-872A-46C9C161FD62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3063241" y="18396964"/>
+          <a:ext cx="2674619" cy="1677209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4961864</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2194012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF60C56-86A7-7DCB-C4DE-BAE31C094F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="20299680"/>
+          <a:ext cx="4588484" cy="2140672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3728155</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2292664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F984127F-B887-49F7-8245-86121FA4F7F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2331720" y="22593300"/>
+          <a:ext cx="3118555" cy="2269804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1505,6 +1968,594 @@
         <a:xfrm>
           <a:off x="2796540" y="4503420"/>
           <a:ext cx="590476" cy="419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>947877</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>158137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1585972</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>748613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CB8C6C-4A00-061F-42B3-5879AF26F61E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2917090" y="21999283"/>
+          <a:ext cx="638095" cy="590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>861060</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1828021</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>796247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631835B8-0AD3-45CC-26BA-ABDC645D81B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="5958840"/>
+          <a:ext cx="966961" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>847618</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1892157</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>801874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A8AF86-0842-B83F-B70B-09740F34D78A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2611348" y="5959012"/>
+          <a:ext cx="1044539" cy="716255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>958922</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1815102</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>877836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159A2763-0D8D-DF21-935E-1D271FB13265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2928135" y="16250292"/>
+          <a:ext cx="856180" cy="843589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>856179</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>607886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1994898</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1330001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E761DA-8114-BA71-A10C-8BEEFF5C04F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619909" y="8219324"/>
+          <a:ext cx="1138719" cy="722115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1250023</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1695236</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>496584</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="생각 풍선: 구름 모양 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8B000D-D642-0616-AF82-259E717E04A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3013753" y="7774112"/>
+          <a:ext cx="445213" cy="333910"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloudCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>950359</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>222606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1740835</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>803558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3043E2F9-2CEA-E9AB-AE04-A5100C5F864A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2919572" y="15402673"/>
+          <a:ext cx="790476" cy="580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>864742</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>530831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1981499</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1172966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7475A3EF-DA86-5964-8470-3BCBE8FD053A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2833955" y="19717820"/>
+          <a:ext cx="1116757" cy="642135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228378</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>77057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1258584</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>809373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B141CF7-B641-E71C-CAA7-EB5FB9512977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2197591" y="20120226"/>
+          <a:ext cx="1030206" cy="732316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>924674</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1934198</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>742665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBDF05D-61E5-4144-5391-2B3709AAB4A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2893887" y="21079146"/>
+          <a:ext cx="1009524" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1404136</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>59932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2363057</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>834445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{928F0C46-2FB7-A7AE-8A8C-ABE3F09F021E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3595956" y="20103101"/>
+          <a:ext cx="958921" cy="774513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>51370</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>625011</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>706013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93024880-7B75-2B36-DFD2-2244D1144132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12311864" y="20181110"/>
+          <a:ext cx="573641" cy="568072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>42809</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>214045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623761</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>833093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0691F443-35BB-430E-BB49-D0CB01361929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12303303" y="15394112"/>
+          <a:ext cx="580952" cy="619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1914,7 +2965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911D75D5-C37F-4264-AD75-0873F200AFCB}">
   <dimension ref="B3:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
@@ -2629,17 +3680,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F0760-9FC6-4129-BA82-812BD600FFC5}">
-  <dimension ref="B3:E11"/>
+  <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="13.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.69921875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
@@ -2650,12 +3701,12 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>125</v>
@@ -2712,10 +3763,65 @@
       <c r="B11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>136</v>
+      <c r="D11" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="170.4" customHeight="1">
+      <c r="B12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="187.8" customHeight="1">
+      <c r="B13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="156.6" customHeight="1">
+      <c r="B14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="183" customHeight="1">
+      <c r="B15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="192" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2725,43 +3831,45 @@
     <hyperlink ref="D7" r:id="rId1" xr:uid="{7CA8E68B-8C7A-4A07-A666-798366D12EDF}"/>
     <hyperlink ref="D8" r:id="rId2" xr:uid="{32E2FEF5-C190-4DE8-BCA5-C9E14996B7B0}"/>
     <hyperlink ref="D9" r:id="rId3" xr:uid="{03D0B271-E6EA-463D-A8FF-54AB2F691D09}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{CB1347BD-1FA7-49F1-ACF1-729F1CC95B92}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{C2DD2BD4-055B-48B7-A420-E60F2E3E9DAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1140001-3FAE-4C6F-B699-3D284F71E393}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="89" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="14.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.3984375" style="1" customWidth="1"/>
     <col min="4" max="6" width="8.796875" style="1"/>
     <col min="7" max="7" width="21.59765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.796875" style="1"/>
-    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="50.69921875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="21">
+    <row r="2" spans="2:11" ht="21">
       <c r="B2" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2769,27 +3877,30 @@
         <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="74.400000000000006" customHeight="1">
+      <c r="B6" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="74.400000000000006" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>133</v>
@@ -2801,15 +3912,18 @@
         <v>62</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="64.2" customHeight="1">
+      <c r="B7" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="64.2" customHeight="1">
-      <c r="B7" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>133</v>
@@ -2821,15 +3935,18 @@
         <v>61</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="63.6" customHeight="1">
+        <v>152</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="63.6" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>133</v>
@@ -2841,53 +3958,294 @@
         <v>61</v>
       </c>
       <c r="G8" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="61.8" customHeight="1">
+      <c r="B9" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="61.8" customHeight="1">
-      <c r="B9" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="58.8" customHeight="1">
+      <c r="B10" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="58.8" customHeight="1">
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="62.4" customHeight="1"/>
+    <row r="12" spans="2:11" ht="67.2" customHeight="1"/>
+    <row r="13" spans="2:11" ht="69.599999999999994" customHeight="1"/>
+    <row r="14" spans="2:11" ht="119.4" customHeight="1"/>
+    <row r="15" spans="2:11" ht="75" customHeight="1"/>
+    <row r="16" spans="2:11" ht="80.400000000000006" customHeight="1"/>
+    <row r="27" spans="2:9">
+      <c r="B27" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="81" customHeight="1">
+      <c r="B29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>142</v>
+      <c r="G29" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="70.8" customHeight="1">
+      <c r="B30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="81.599999999999994" customHeight="1">
+      <c r="I31" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="77.400000000000006" customHeight="1">
+      <c r="B32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="111.6" customHeight="1">
+      <c r="B33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="111.6" customHeight="1">
+      <c r="B34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="68.400000000000006" customHeight="1">
+      <c r="B35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="67.2" customHeight="1">
+      <c r="B36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="69.599999999999994" customHeight="1">
+      <c r="B37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="78" customHeight="1">
+      <c r="G38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="79.8" customHeight="1">
+      <c r="B42" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="79.2" customHeight="1">
+      <c r="G43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="83.4" customHeight="1">
+      <c r="G44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="69.599999999999994" customHeight="1">
+      <c r="G45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="85.8" customHeight="1">
+      <c r="G46" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="81.599999999999994" customHeight="1"/>
+    <row r="54" spans="2:10" ht="91.2" customHeight="1">
+      <c r="B54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H54" s="1">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="98.4" customHeight="1">
+      <c r="G55" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="101.4" customHeight="1">
+      <c r="I56" s="26" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Disign/Monster .xlsx
+++ b/Disign/Monster .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a3997\Documents\GitHub\Hyo_swEngineering10\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7D5A65-9527-42E8-A32A-9E6EDCCAD196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F63AC36-91E4-4EBD-903F-0F935A9CE4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="221">
   <si>
     <t>몬스터 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -823,11 +823,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 플레이어가 죽은 횟수만큼 비례하여 잡몹이 나온다.
-- 잡몹들이 레이저를 쏴서 플레이어를 괴롭힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 이 몬스터들의 수에 따라 보스몬스터의 보스몬스터의 공격력이 증가한다.
 플레이어는 이 몬스터에게 공격을 해서 수를 줄일 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -904,6 +899,58 @@
   </si>
   <si>
     <t>잡몹: 레이저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐기(3D 유니티용임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 후보 2
+원한체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 원한체의 내면세계가 오픈된다
+- 맵이 완전히 까매지고 내면방 1, 2, 3이 오픈된다.
+- 내면방 1, 2, 3에 있는 모든 기믹을 작동시켜야 보스방에서의 생존을 가능하게끔 한다. (실패시 플레이어의 hp가 50% 닳는다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1페이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발악 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 플레이어가 클리어한 횟수만큼 비례하여 잡몹이 나온다. (최대 10마리)
+- 잡몹들이 레이저를 쏴서 플레이어를 괴롭힌다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,6 +958,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1112,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,6 +1245,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2522,16 +2575,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>42809</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1087348</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>214045</xdr:rowOff>
+      <xdr:rowOff>231168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>623761</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1668300</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>833093</xdr:rowOff>
+      <xdr:rowOff>850216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2554,8 +2607,159 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12303303" y="15394112"/>
+          <a:off x="3279168" y="15411235"/>
           <a:ext cx="580952" cy="619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419529</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>544727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>839057</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>932947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02173C31-5E4B-41A3-A41B-6CF3790A924B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2611349" y="33036749"/>
+          <a:ext cx="419528" cy="388220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>941798</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>719191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2354495</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>796248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="직사각형 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB7CCB9-9F18-7749-1DD9-CBF2981EDEDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3133618" y="33211213"/>
+          <a:ext cx="1412697" cy="77057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51371</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>297209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3296292</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2738725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598F6A67-1142-85AB-BD71-FDF75CC27978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2243191" y="35323524"/>
+          <a:ext cx="3244921" cy="2441516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2965,7 +3169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911D75D5-C37F-4264-AD75-0873F200AFCB}">
   <dimension ref="B3:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
@@ -3680,10 +3884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F0760-9FC6-4129-BA82-812BD600FFC5}">
-  <dimension ref="B3:E16"/>
+  <dimension ref="B3:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3694,17 +3898,17 @@
     <col min="4" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="21">
+    <row r="3" spans="2:6" ht="21">
       <c r="B3" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
         <v>137</v>
       </c>
@@ -3718,7 +3922,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="160.19999999999999" customHeight="1">
+    <row r="7" spans="2:6" ht="160.19999999999999" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
@@ -3729,7 +3933,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="274.8" customHeight="1">
+    <row r="8" spans="2:6" ht="274.8" customHeight="1">
       <c r="D8" s="22" t="s">
         <v>130</v>
       </c>
@@ -3737,7 +3941,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="162" customHeight="1">
+    <row r="9" spans="2:6" ht="162" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>131</v>
       </c>
@@ -3748,7 +3952,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="252.6" customHeight="1">
+    <row r="10" spans="2:6" ht="252.6" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>133</v>
       </c>
@@ -3759,7 +3963,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="136.80000000000001" customHeight="1">
+    <row r="11" spans="2:6" ht="136.80000000000001" customHeight="1">
       <c r="B11" s="1" t="s">
         <v>135</v>
       </c>
@@ -3770,7 +3974,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="170.4" customHeight="1">
+    <row r="12" spans="2:6" ht="170.4" customHeight="1">
       <c r="B12" s="1" t="s">
         <v>154</v>
       </c>
@@ -3781,7 +3985,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="187.8" customHeight="1">
+    <row r="13" spans="2:6" ht="187.8" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>167</v>
       </c>
@@ -3792,7 +3996,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="156.6" customHeight="1">
+    <row r="14" spans="2:6" ht="156.6" customHeight="1">
       <c r="B14" s="1" t="s">
         <v>156</v>
       </c>
@@ -3803,20 +4007,24 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="183" customHeight="1">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:6" ht="183" customHeight="1">
+      <c r="B15" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="24" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="192" customHeight="1">
-      <c r="B16" s="1" t="s">
-        <v>161</v>
+      <c r="F15" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="192" customHeight="1">
+      <c r="B16" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>159</v>
@@ -3841,20 +4049,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1140001-3FAE-4C6F-B699-3D284F71E393}">
-  <dimension ref="B2:K56"/>
+  <dimension ref="B2:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44" style="1" customWidth="1"/>
     <col min="4" max="6" width="8.796875" style="1"/>
     <col min="7" max="7" width="21.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="1"/>
+    <col min="8" max="8" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="50.69921875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
@@ -4027,12 +4235,12 @@
     <row r="14" spans="2:11" ht="119.4" customHeight="1"/>
     <row r="15" spans="2:11" ht="75" customHeight="1"/>
     <row r="16" spans="2:11" ht="80.400000000000006" customHeight="1"/>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:10">
       <c r="B27" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:10">
       <c r="B28" s="1" t="s">
         <v>123</v>
       </c>
@@ -4057,8 +4265,11 @@
       <c r="I28" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" ht="81" customHeight="1">
+      <c r="J28" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="81" customHeight="1">
       <c r="B29" s="1" t="s">
         <v>165</v>
       </c>
@@ -4078,7 +4289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="70.8" customHeight="1">
+    <row r="30" spans="2:10" ht="70.8" customHeight="1">
       <c r="B30" s="1" t="s">
         <v>174</v>
       </c>
@@ -4086,17 +4297,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="81.599999999999994" customHeight="1">
+    <row r="31" spans="2:10" ht="81.599999999999994" customHeight="1">
       <c r="I31" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="77.400000000000006" customHeight="1">
+    <row r="32" spans="2:10" ht="77.400000000000006" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>172</v>
@@ -4107,7 +4318,7 @@
         <v>176</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>173</v>
@@ -4118,7 +4329,7 @@
         <v>180</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>186</v>
@@ -4129,7 +4340,7 @@
         <v>182</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>184</v>
@@ -4140,7 +4351,7 @@
         <v>181</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>68</v>
@@ -4154,7 +4365,7 @@
         <v>179</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>68</v>
@@ -4165,7 +4376,7 @@
     </row>
     <row r="38" spans="2:9" ht="78" customHeight="1">
       <c r="G38" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>188</v>
@@ -4173,39 +4384,39 @@
     </row>
     <row r="42" spans="2:9" ht="79.8" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="79.2" customHeight="1">
       <c r="G43" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="83.4" customHeight="1">
       <c r="G44" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="69.599999999999994" customHeight="1">
       <c r="G45" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="85.8" customHeight="1">
       <c r="G46" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="81.599999999999994" customHeight="1"/>
@@ -4223,29 +4434,64 @@
         <v>61</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H54" s="1">
-        <v>5</v>
+        <v>191</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>189</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="98.4" customHeight="1">
       <c r="G55" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="101.4" customHeight="1">
       <c r="I56" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="238.8" customHeight="1">
+      <c r="G57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="155.4" customHeight="1">
+      <c r="G58" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="153.6" customHeight="1">
+      <c r="G59" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="154.19999999999999" customHeight="1">
+      <c r="G60" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4259,7 +4505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B6EC63-51D3-4E8F-A432-2479B939F804}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>

--- a/Disign/Monster .xlsx
+++ b/Disign/Monster .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a3997\Documents\GitHub\Hyo_swEngineering10\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F63AC36-91E4-4EBD-903F-0F935A9CE4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6BAE5C-D70A-47E7-8DFF-04FC5794E546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
   </bookViews>
   <sheets>
     <sheet name="VerControl" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="몬스터 종류" sheetId="4" r:id="rId4"/>
     <sheet name="몬스터 생성 규칙" sheetId="5" r:id="rId5"/>
     <sheet name="몬스터 재화" sheetId="6" r:id="rId6"/>
+    <sheet name="몬스터 데이터" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="270">
   <si>
     <t>몬스터 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,10 +676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3, 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -889,11 +886,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분열된 슬라임, 혹은 킹슬라임 본캐가 젤리를 포물선으로 던진다.
- 플레이어가 이 젤리 위에 서있으면 hp가 닳고, 이동속도가 느려지며 점프를 쓸 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 슬라임이 던졌던 젤리들이 한번에 폭발된다. 주변에 있는 플레이어는 hp가 닳으며, [마비] 패턴에 걸린다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -915,42 +907,249 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1페이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발악 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 플레이어가 클리어한 횟수만큼 비례하여 잡몹이 나온다. (최대 10마리)
+- 잡몹들이 레이저를 쏴서 플레이어를 괴롭힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴물풍 몬스터</t>
+  </si>
+  <si>
+    <t>5, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character 78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character (71)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charater 96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charater 44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸박
+(기믹맵에서 쓰임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character 83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔젤슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸박(부비적 거림),
+상태이상 스턴 3초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 획득가능한 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 레벨-유저 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4] 몬스터 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 몬스터 처치시 유저가 획득 가능한 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 유저가 레벨대에 맞는 몬스터를 잡도록 유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 몬스터 처치시 유저가 획득 가능한 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 몬스터 자체의 경험치가 100이며, (몬스터 레벨-유저 레벨) = 0이라면 100이라는 경험치가 들어온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹슬라임이 엔젤슬라임을 소환해, 킹슬라임의 체력을 힐하려고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망한 자리에 3초동안 흔적을 남긴다. 플레이어가 위에 서 있으면 hp를 깎도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            ,,, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡수된 마릿수에 비례하여 크기가 커진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle/Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death/Blue</t>
+  </si>
+  <si>
+    <t>Death/Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열된 슬라임, 혹은 킹슬라임 본캐가 젤리를 포물선으로 던진다.
+ 플레이어가 이 젤리 장판 위에 서있으면 hp가 닳고, 이동속도가 느려지며 점프를 쓸 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump/Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹슬라임이 크게 점프를 한다. 점지 착지시 플레이어가 땅에 붙어있다면 50% 피해 데미지를 입는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸박, 원거리 공격(탄환발사)
+(기믹맵에서 쓰임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5] 몬스터 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 1스테이지 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 2스테이지 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 3스테이지 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 4스테이지 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 5스테이지 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) 6스테이지 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원한체 잡몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원한체 1페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원한체 2페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 원한체의 내면세계가 오픈된다
 - 맵이 완전히 까매지고 내면방 1, 2, 3이 오픈된다.
-- 내면방 1, 2, 3에 있는 모든 기믹을 작동시켜야 보스방에서의 생존을 가능하게끔 한다. (실패시 플레이어의 hp가 50% 닳는다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1페이즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발악 패턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내면1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내면2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내면3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 플레이어가 클리어한 횟수만큼 비례하여 잡몹이 나온다. (최대 10마리)
-- 잡몹들이 레이저를 쏴서 플레이어를 괴롭힌다.</t>
+- 내면방 1, 2, 3에 있는 모든 기믹을 작동시켜야 보스방에서의 생존을 가능하게끔 한다. (실패시 플레이어의 hp가 50% 닳는다.)
+- 반복플레이를 많이해서 공격력 스탯이 엄청 높은경우 깡딜을 하여 패턴을 파훼할 수도 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 엘리트 몬스터는 레벨+3, 경험치*5, 공격력*3, hp*10이 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,7 +1361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1248,6 +1447,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2760,6 +2980,1057 @@
         <a:xfrm>
           <a:off x="2243191" y="35323524"/>
           <a:ext cx="3244921" cy="2441516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1087348</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>77839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1626742</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>747284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB137AA-5F1E-5D28-DDC2-A7D97A460047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3279168" y="5154985"/>
+          <a:ext cx="539394" cy="669445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>924676</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1732288</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>854450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F663B6A-2283-3791-DC8E-382615BA14A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3116496" y="5950448"/>
+          <a:ext cx="807612" cy="777395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1190089</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2007155</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>893602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C3041BC-6E6D-4466-A332-4558D30AFC02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11301572" y="12953999"/>
+          <a:ext cx="817066" cy="730929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>967485</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1639745</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>838196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF4CDEE-A579-D8C0-633E-E495BFD257A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3159305" y="6780944"/>
+          <a:ext cx="672260" cy="786825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>804810</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1866472</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>868111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21175AA4-7E75-5494-F39C-F23BF19E5378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2996630" y="7773856"/>
+          <a:ext cx="1061662" cy="705693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>856181</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1797979</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>898723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA425EA-E3A0-7F53-474E-860344BEE571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048001" y="8664539"/>
+          <a:ext cx="941798" cy="813105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>916112</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1703798</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>683713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD9E413-7CC4-0E6D-29BC-FE4A2F503A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3107932" y="5145640"/>
+          <a:ext cx="787686" cy="615219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>873305</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1806541</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>740289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11A859D-F47F-EA01-3110-D58928CE79A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3065125" y="5984698"/>
+          <a:ext cx="933236" cy="628984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>898990</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>145550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1834924</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>744876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB79CE7D-48AB-6860-104C-C1CD4239450A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3090810" y="6875123"/>
+          <a:ext cx="935934" cy="599326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>770562</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2012023</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>833478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124F781B-DC5E-A7CE-A475-E6E007C052B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962382" y="7747053"/>
+          <a:ext cx="1241461" cy="697863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>830495</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>111302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1993592</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>887927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBFB29B-3F3F-FEB6-D696-98FA906237BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3022315" y="8690223"/>
+          <a:ext cx="1163097" cy="776625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>924675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1943529</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>848294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD4AAE0-F70D-2FED-C7EC-5FB7D4EE5302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3116495" y="9615017"/>
+          <a:ext cx="1018854" cy="762558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>924675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85736</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1018854" cy="762558"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="그림 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB497B1-479A-4E69-A672-BA339F12C650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3116495" y="9615017"/>
+          <a:ext cx="1018854" cy="762558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>94180</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>188360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3102897</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1070225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25068144-67AC-9172-2C96-A0B098229ABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="36190720"/>
+          <a:ext cx="3008717" cy="881865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1035978</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>78495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2020585</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>954594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="그림 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B928855-318A-1621-6327-59C3EB51645E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3227798" y="30001978"/>
+          <a:ext cx="984607" cy="876099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>486310</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>539394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>816299</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>833017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="그림 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77DFFA9-A30A-43EF-A11C-EA3B78A7F949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2678130" y="31473169"/>
+          <a:ext cx="329989" cy="293623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>869879</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>511997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1199868</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>805620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="그림 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5FF75D4-56CA-40EA-87A5-702CD2C9F6CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3061699" y="31445772"/>
+          <a:ext cx="329989" cy="293623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1849348</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>513709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2179337</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>807332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B8FA7A5-9C84-43FC-A272-FBA33F512394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4041168" y="31447484"/>
+          <a:ext cx="329989" cy="293623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2309972</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>503435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2639961</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>797058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="그림 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABB014A-88E1-4B4D-9A47-AFA8FF3EC0E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4501792" y="31437210"/>
+          <a:ext cx="329989" cy="293623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2327097</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3311704</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>918634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964E3B0B-2105-4863-B110-FC4B64D560F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4518917" y="31978041"/>
+          <a:ext cx="984607" cy="876099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>126715</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>135277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3135432</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1017142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="그림 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC022093-AF06-44FF-BB40-1D0486BAB47F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2318535" y="34014311"/>
+          <a:ext cx="3008717" cy="881865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68496</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>188359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3304856</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1026930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="그림 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F627ABD-5F99-F55F-0925-A6FB23C24E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260316" y="36190719"/>
+          <a:ext cx="3236360" cy="838571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>154113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>709023</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>650697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="그림 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CAEB57C-FCAC-D1E8-1CBA-577842966EF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10308403" y="5231259"/>
+          <a:ext cx="512103" cy="496584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>186648</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>317869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>582202</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>584465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A86717-688A-45CC-8B71-35C62E9513B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10298131" y="6191262"/>
+          <a:ext cx="395554" cy="266596"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3167,10 +4438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911D75D5-C37F-4264-AD75-0873F200AFCB}">
-  <dimension ref="B3:G80"/>
+  <dimension ref="B3:K80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3182,15 +4453,18 @@
     <col min="5" max="5" width="8.796875" style="1"/>
     <col min="6" max="6" width="13.8984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="83.19921875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="8.796875" style="1"/>
+    <col min="9" max="9" width="19.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="21">
+    <row r="3" spans="2:11" ht="21">
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3198,7 +4472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:11">
       <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
@@ -3212,7 +4486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:11">
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
@@ -3229,7 +4503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:11">
       <c r="B9" s="10" t="s">
         <v>36</v>
       </c>
@@ -3245,8 +4519,9 @@
       <c r="G9" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
@@ -3262,8 +4537,9 @@
       <c r="G10" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
@@ -3279,8 +4555,9 @@
       <c r="G11" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
@@ -3296,8 +4573,9 @@
       <c r="G12" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -3313,8 +4591,9 @@
       <c r="G13" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
@@ -3330,8 +4609,9 @@
       <c r="G14" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
@@ -3347,16 +4627,33 @@
       <c r="G15" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
@@ -3369,8 +4666,9 @@
       <c r="F22" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
@@ -3387,7 +4685,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:11">
       <c r="B24" s="10" t="s">
         <v>43</v>
       </c>
@@ -3404,7 +4702,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:11">
       <c r="B25" s="10" t="s">
         <v>44</v>
       </c>
@@ -3421,7 +4719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:11">
       <c r="B26" s="10" t="s">
         <v>46</v>
       </c>
@@ -3438,7 +4736,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:11">
       <c r="B27" s="12" t="s">
         <v>45</v>
       </c>
@@ -3455,7 +4753,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:11">
       <c r="B28" s="1" t="s">
         <v>116</v>
       </c>
@@ -3472,7 +4770,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:11">
       <c r="B32" s="1" t="s">
         <v>57</v>
       </c>
@@ -3887,7 +5185,7 @@
   <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3968,7 +5266,7 @@
         <v>135</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>129</v>
@@ -3976,10 +5274,10 @@
     </row>
     <row r="12" spans="2:6" ht="170.4" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>129</v>
@@ -3987,10 +5285,10 @@
     </row>
     <row r="13" spans="2:6" ht="187.8" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>129</v>
@@ -3998,10 +5296,10 @@
     </row>
     <row r="14" spans="2:6" ht="156.6" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>129</v>
@@ -4009,25 +5307,25 @@
     </row>
     <row r="15" spans="2:6" ht="183" customHeight="1">
       <c r="B15" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="192" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>129</v>
@@ -4051,8 +5349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1140001-3FAE-4C6F-B699-3D284F71E393}">
   <dimension ref="B2:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView topLeftCell="A57" zoomScale="89" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4060,7 +5358,8 @@
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="1"/>
+    <col min="4" max="4" width="10.8984375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.796875" style="1"/>
     <col min="7" max="7" width="21.59765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="50.69921875" style="1" customWidth="1"/>
@@ -4103,7 +5402,7 @@
         <v>144</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="74.400000000000006" customHeight="1">
@@ -4123,10 +5422,10 @@
         <v>147</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="64.2" customHeight="1">
@@ -4146,10 +5445,10 @@
         <v>146</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="63.6" customHeight="1">
@@ -4169,13 +5468,13 @@
         <v>148</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>145</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="61.8" customHeight="1">
@@ -4198,7 +5497,7 @@
         <v>151</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="58.8" customHeight="1">
@@ -4223,21 +5522,245 @@
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="62.4" customHeight="1"/>
-    <row r="12" spans="2:11" ht="67.2" customHeight="1"/>
-    <row r="13" spans="2:11" ht="69.599999999999994" customHeight="1"/>
-    <row r="14" spans="2:11" ht="119.4" customHeight="1"/>
-    <row r="15" spans="2:11" ht="75" customHeight="1"/>
-    <row r="16" spans="2:11" ht="80.400000000000006" customHeight="1"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="62.4" customHeight="1">
+      <c r="B11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="67.2" customHeight="1">
+      <c r="B12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="69.599999999999994" customHeight="1">
+      <c r="B13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="76.2" customHeight="1">
+      <c r="B14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="75" customHeight="1">
+      <c r="B15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="80.400000000000006" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="89.4" customHeight="1"/>
+    <row r="18" spans="2:10" ht="87" customHeight="1">
+      <c r="B18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="106.2" customHeight="1">
+      <c r="B19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="96.6" customHeight="1">
+      <c r="B20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="95.4" customHeight="1">
+      <c r="B21" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="105" customHeight="1">
+      <c r="B22" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
     <row r="27" spans="2:10">
       <c r="B27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -4263,7 +5786,7 @@
         <v>140</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>144</v>
@@ -4271,10 +5794,10 @@
     </row>
     <row r="29" spans="2:10" ht="81" customHeight="1">
       <c r="B29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>44</v>
@@ -4283,7 +5806,7 @@
         <v>61</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
@@ -4291,141 +5814,183 @@
     </row>
     <row r="30" spans="2:10" ht="70.8" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="81.599999999999994" customHeight="1">
       <c r="I31" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="77.400000000000006" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="111.6" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="111.6" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="68.400000000000006" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="67.2" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="69.599999999999994" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="78" customHeight="1">
       <c r="G38" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="79.8" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="79.2" customHeight="1">
+      <c r="C43" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="G43" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="83.4" customHeight="1">
+      <c r="B44" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I44" s="26" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="83.4" customHeight="1">
-      <c r="G44" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="69.599999999999994" customHeight="1">
       <c r="G45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="85.8" customHeight="1">
+      <c r="B46" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I45" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="85.8" customHeight="1">
-      <c r="G46" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="I46" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="81.599999999999994" customHeight="1"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="81.599999999999994" customHeight="1">
+      <c r="B47" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="I47" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="94.2" customHeight="1">
+      <c r="B48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="105" customHeight="1">
+      <c r="B49" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="114" customHeight="1"/>
+    <row r="51" spans="2:10" ht="97.8" customHeight="1"/>
+    <row r="52" spans="2:10" ht="121.8" customHeight="1"/>
     <row r="54" spans="2:10" ht="91.2" customHeight="1">
       <c r="B54" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>45</v>
@@ -4434,64 +5999,64 @@
         <v>61</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="98.4" customHeight="1">
       <c r="G55" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="101.4" customHeight="1">
       <c r="I56" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="238.8" customHeight="1">
       <c r="G57" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="155.4" customHeight="1">
       <c r="G58" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="153.6" customHeight="1">
       <c r="G59" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="154.19999999999999" customHeight="1">
       <c r="G60" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4506,7 +6071,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4518,12 +6083,776 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F67ADF-6ECE-42D2-810E-91F2C6B663D2}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="17.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="21">
+      <c r="B2" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="29">
+        <v>5</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="29">
+        <v>4</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="29">
+        <v>3</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="29">
+        <v>2</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="29">
+        <v>0</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="29">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="29">
+        <v>-2</v>
+      </c>
+      <c r="C16" s="30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="29">
+        <v>-3</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="29">
+        <v>-4</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="29">
+        <v>-5</v>
+      </c>
+      <c r="C19" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA372257-7371-4C17-A5CE-9F0820FB482A}">
+  <dimension ref="B2:M47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="17.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.796875" style="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="21">
+      <c r="B2" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="10"/>
+      <c r="C8" s="35">
+        <v>1</v>
+      </c>
+      <c r="D8" s="35">
+        <v>10</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="I8" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" s="13">
+        <v>12</v>
+      </c>
+      <c r="K8" s="13">
+        <v>300</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="10"/>
+      <c r="C9" s="35">
+        <v>2</v>
+      </c>
+      <c r="D9" s="35">
+        <v>12</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="10"/>
+      <c r="C10" s="35">
+        <v>3</v>
+      </c>
+      <c r="D10" s="35">
+        <v>15</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="10"/>
+      <c r="C11" s="35">
+        <v>4</v>
+      </c>
+      <c r="D11" s="35">
+        <v>17</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="10"/>
+      <c r="C12" s="35">
+        <v>5</v>
+      </c>
+      <c r="D12" s="35">
+        <v>20</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="10"/>
+      <c r="C13" s="35">
+        <v>6</v>
+      </c>
+      <c r="D13" s="35">
+        <v>23</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="10"/>
+      <c r="C14" s="35">
+        <v>7</v>
+      </c>
+      <c r="D14" s="35">
+        <v>26</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="10"/>
+      <c r="C15" s="35">
+        <v>8</v>
+      </c>
+      <c r="D15" s="35">
+        <v>30</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="10"/>
+      <c r="C16" s="35">
+        <v>9</v>
+      </c>
+      <c r="D16" s="35">
+        <v>33</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13">
+        <v>10</v>
+      </c>
+      <c r="D17" s="13">
+        <v>35</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="10"/>
+      <c r="C23" s="35">
+        <v>9</v>
+      </c>
+      <c r="D23" s="35">
+        <v>35</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="I23" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" s="13">
+        <v>20</v>
+      </c>
+      <c r="K23" s="13">
+        <v>600</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="10"/>
+      <c r="C24" s="35">
+        <v>10</v>
+      </c>
+      <c r="D24" s="35">
+        <v>37</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="10"/>
+      <c r="C25" s="35">
+        <v>11</v>
+      </c>
+      <c r="D25" s="35">
+        <v>40</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="10"/>
+      <c r="C26" s="35">
+        <v>12</v>
+      </c>
+      <c r="D26" s="35">
+        <v>43</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="10"/>
+      <c r="C27" s="35">
+        <v>13</v>
+      </c>
+      <c r="D27" s="35">
+        <v>45</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="10"/>
+      <c r="C28" s="35">
+        <v>14</v>
+      </c>
+      <c r="D28" s="35">
+        <v>47</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="10"/>
+      <c r="C29" s="35">
+        <v>15</v>
+      </c>
+      <c r="D29" s="35">
+        <v>50</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="10"/>
+      <c r="C30" s="35">
+        <v>16</v>
+      </c>
+      <c r="D30" s="35">
+        <v>53</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="10"/>
+      <c r="C31" s="35">
+        <v>17</v>
+      </c>
+      <c r="D31" s="35">
+        <v>57</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13">
+        <v>18</v>
+      </c>
+      <c r="D32" s="13">
+        <v>60</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="10"/>
+      <c r="C38" s="35">
+        <v>17</v>
+      </c>
+      <c r="D38" s="35">
+        <v>60</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="I38" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38" s="35">
+        <v>30</v>
+      </c>
+      <c r="K38" s="35">
+        <v>0</v>
+      </c>
+      <c r="L38" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="10"/>
+      <c r="C39" s="35">
+        <v>18</v>
+      </c>
+      <c r="D39" s="35">
+        <v>62</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="I39" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="J39" s="35">
+        <v>28</v>
+      </c>
+      <c r="K39" s="35">
+        <v>90</v>
+      </c>
+      <c r="L39" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="10"/>
+      <c r="C40" s="35">
+        <v>19</v>
+      </c>
+      <c r="D40" s="35">
+        <v>65</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="I40" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="J40" s="13">
+        <v>40</v>
+      </c>
+      <c r="K40" s="13">
+        <v>850</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="10"/>
+      <c r="C41" s="35">
+        <v>20</v>
+      </c>
+      <c r="D41" s="35">
+        <v>68</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="10"/>
+      <c r="C42" s="35">
+        <v>21</v>
+      </c>
+      <c r="D42" s="35">
+        <v>70</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="10"/>
+      <c r="C43" s="35">
+        <v>22</v>
+      </c>
+      <c r="D43" s="35">
+        <v>72</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="10"/>
+      <c r="C44" s="35">
+        <v>23</v>
+      </c>
+      <c r="D44" s="35">
+        <v>75</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="10"/>
+      <c r="C45" s="35">
+        <v>24</v>
+      </c>
+      <c r="D45" s="35">
+        <v>78</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="10"/>
+      <c r="C46" s="35">
+        <v>25</v>
+      </c>
+      <c r="D46" s="35">
+        <v>81</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="12"/>
+      <c r="C47" s="13">
+        <v>26</v>
+      </c>
+      <c r="D47" s="13">
+        <v>85</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="14"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Disign/Monster .xlsx
+++ b/Disign/Monster .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a3997\Documents\GitHub\Hyo_swEngineering10\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6BAE5C-D70A-47E7-8DFF-04FC5794E546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D44FAE-0185-4F41-B3AD-693DFE0065AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{1740B3E5-C21A-4463-BF62-6B49BC0C2B60}"/>
   </bookViews>
   <sheets>
     <sheet name="VerControl" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="282">
   <si>
     <t>몬스터 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -532,12 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일반 몬스터에 비해 지능과 공격력, 보상이 좀 더 좋고, 체력또한 15배이며, 6)와 같은 상태이상을 플레이어에게 건다.
-일정 확률에 따라 엘리트 몬스터가 한마리씩 나온다.
-또한 모든 엘리트 몬스터는 선공형(preemptive)이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">적의 레벨로, </t>
     </r>
@@ -1081,10 +1075,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>킹슬라임이 크게 점프를 한다. 점지 착지시 플레이어가 땅에 붙어있다면 50% 피해 데미지를 입는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>몸박, 원거리 공격(탄환발사)
 (기믹맵에서 쓰임)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1150,6 +1140,64 @@
   </si>
   <si>
     <t>* 엘리트 몬스터는 레벨+3, 경험치*5, 공격력*3, hp*10이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹슬라임이 크게 점프를 한다. 점프 착지시 플레이어가 땅에 붙어있다면 50% 피해 데미지를 입는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마릿수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3] 몬스터 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 맵에 들어가면 해당 위치에서 몬스터가 나온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 엘리트 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 몬스터에 비해 지능과 공격력, 보상이 좀 더 좋고, 체력또한 10배이며, 6)와 같은 상태이상을 플레이어에게 건다.
+일정 확률에 따라 엘리트 몬스터가 한마리씩 나온다.
+또한 모든 엘리트 몬스터는 선공형(preemptive)이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 엘리트 몬스터는 해당 몬스터종류에서 레벨+3, 경험치*5, 공격력*3, hp*10이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 몬스터 처치시 일정 확률(10%)에 따라 랜덤한 위치에서 엘리트 몬스터가 한마리씩 나온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 모든 엘리트 몬스터는 선공형(preemptive)이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 일반 몬스터에 비해 지능과 공격력, 보상이 좀 더 좋고, 체력또한 10배이며, 6)와 같은 상태이상을 플레이어에게 건다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 엘리터 몬스터의 크기는 기존 몬스터의 5배이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하려고했는데 레벨이 낮은데 계정특성 + 무기 좋다고 보스를 저렙때 패는 경우가 있지 않을까…??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 몬스터를 죽인후, 일정시간마다(15초) 젠이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1361,7 +1409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1449,25 +1497,37 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4440,8 +4500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911D75D5-C37F-4264-AD75-0873F200AFCB}">
   <dimension ref="B3:K80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4517,7 +4577,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -5025,7 +5085,7 @@
         <v>86</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>119</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="28.8">
@@ -5185,7 +5245,7 @@
   <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5198,137 +5258,137 @@
   <sheetData>
     <row r="3" spans="2:6" ht="21">
       <c r="B3" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="160.19999999999999" customHeight="1">
       <c r="B7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="274.8" customHeight="1">
       <c r="D8" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="162" customHeight="1">
       <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>132</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="252.6" customHeight="1">
       <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="136.80000000000001" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="170.4" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="187.8" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="156.6" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="183" customHeight="1">
       <c r="B15" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="192" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5349,8 +5409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1140001-3FAE-4C6F-B699-3D284F71E393}">
   <dimension ref="B2:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5368,49 +5428,49 @@
   <sheetData>
     <row r="2" spans="2:11" ht="21">
       <c r="B2" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="74.400000000000006" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>45</v>
@@ -5419,21 +5479,21 @@
         <v>62</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="64.2" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
@@ -5442,21 +5502,21 @@
         <v>61</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="63.6" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>45</v>
@@ -5465,24 +5525,24 @@
         <v>61</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="61.8" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
@@ -5491,22 +5551,22 @@
         <v>62</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="58.8" customHeight="1">
       <c r="B10" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>44</v>
@@ -5515,25 +5575,25 @@
         <v>61</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="62.4" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>43</v>
@@ -5542,21 +5602,21 @@
         <v>62</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="67.2" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
@@ -5565,18 +5625,18 @@
         <v>61</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="69.599999999999994" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>43</v>
@@ -5585,18 +5645,18 @@
         <v>62</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="76.2" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
@@ -5605,18 +5665,18 @@
         <v>61</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="75" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>44</v>
@@ -5625,18 +5685,18 @@
         <v>61</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="80.400000000000006" customHeight="1">
       <c r="B16" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>52</v>
@@ -5645,19 +5705,19 @@
         <v>61</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="89.4" customHeight="1"/>
     <row r="18" spans="2:10" ht="87" customHeight="1">
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>43</v>
@@ -5666,21 +5726,21 @@
         <v>62</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="106.2" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>43</v>
@@ -5689,21 +5749,21 @@
         <v>61</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="96.6" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>44</v>
@@ -5712,18 +5772,18 @@
         <v>61</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="95.4" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>43</v>
@@ -5732,18 +5792,18 @@
         <v>62</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="105" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>45</v>
@@ -5752,52 +5812,52 @@
         <v>61</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="81" customHeight="1">
       <c r="B29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>44</v>
@@ -5806,7 +5866,7 @@
         <v>61</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
@@ -5814,172 +5874,172 @@
     </row>
     <row r="30" spans="2:10" ht="70.8" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="81.599999999999994" customHeight="1">
       <c r="I31" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="77.400000000000006" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="111.6" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="111.6" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="68.400000000000006" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="67.2" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="69.599999999999994" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="78" customHeight="1">
       <c r="G38" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="79.8" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="79.2" customHeight="1">
       <c r="C43" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="83.4" customHeight="1">
       <c r="B44" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="69.599999999999994" customHeight="1">
       <c r="G45" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="85.8" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="81.599999999999994" customHeight="1">
       <c r="B47" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G47" s="23"/>
       <c r="I47" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="94.2" customHeight="1">
       <c r="B48" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="105" customHeight="1">
       <c r="B49" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="114" customHeight="1"/>
@@ -5987,10 +6047,10 @@
     <row r="52" spans="2:10" ht="121.8" customHeight="1"/>
     <row r="54" spans="2:10" ht="91.2" customHeight="1">
       <c r="B54" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>45</v>
@@ -5999,64 +6059,64 @@
         <v>61</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="98.4" customHeight="1">
       <c r="G55" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="101.4" customHeight="1">
       <c r="I56" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="238.8" customHeight="1">
       <c r="G57" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="155.4" customHeight="1">
       <c r="G58" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="153.6" customHeight="1">
       <c r="G59" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="154.19999999999999" customHeight="1">
       <c r="G60" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6068,14 +6128,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B6EC63-51D3-4E8F-A432-2479B939F804}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="91.296875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="21">
+      <c r="B2" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6083,10 +6199,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F67ADF-6ECE-42D2-810E-91F2C6B663D2}">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6097,139 +6213,226 @@
     <col min="4" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21">
+    <row r="2" spans="2:9" ht="21">
       <c r="B2" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="24" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="31">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="31">
+        <v>4</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="31">
+        <v>3</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="31">
+        <v>2</v>
+      </c>
+      <c r="C12" s="32">
+        <v>1.2</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="31">
+        <v>1</v>
+      </c>
+      <c r="C13" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="31">
+        <v>0</v>
+      </c>
+      <c r="C14" s="32">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="31">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0.95</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="31">
+        <v>-2</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="31">
+        <v>-3</v>
+      </c>
+      <c r="C17" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="31">
+        <v>-4</v>
+      </c>
+      <c r="C18" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="31">
+        <v>-5</v>
+      </c>
+      <c r="C19" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="30">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="29">
-        <v>5</v>
-      </c>
-      <c r="C9" s="30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="29">
-        <v>4</v>
-      </c>
-      <c r="C10" s="30">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="29">
-        <v>3</v>
-      </c>
-      <c r="C11" s="30">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="29">
-        <v>2</v>
-      </c>
-      <c r="C12" s="30">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="29">
-        <v>1</v>
-      </c>
-      <c r="C13" s="30">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="29">
-        <v>0</v>
-      </c>
-      <c r="C14" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="29">
-        <v>-1</v>
-      </c>
-      <c r="C15" s="30">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="29">
-        <v>-2</v>
-      </c>
-      <c r="C16" s="30">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="29">
-        <v>-3</v>
-      </c>
-      <c r="C17" s="30">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="29">
-        <v>-4</v>
-      </c>
-      <c r="C18" s="30">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="29">
-        <v>-5</v>
-      </c>
-      <c r="C19" s="30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C20" s="32">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6242,8 +6445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA372257-7371-4C17-A5CE-9F0820FB482A}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6260,47 +6463,47 @@
   <sheetData>
     <row r="2" spans="2:13" ht="21">
       <c r="B2" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>36</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M7" s="17" t="s">
         <v>26</v>
@@ -6308,190 +6511,210 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="10"/>
-      <c r="C8" s="35">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="11">
+        <v>3</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" s="13">
         <v>10</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="I8" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8" s="13">
-        <v>12</v>
       </c>
       <c r="K8" s="13">
         <v>300</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="10"/>
-      <c r="C9" s="35">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="35">
-        <v>12</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F9" s="11"/>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="10"/>
-      <c r="C10" s="35">
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="35">
-        <v>15</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F10" s="11"/>
+      <c r="D10" s="1">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="10"/>
-      <c r="C11" s="35">
+      <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="35">
-        <v>17</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" s="11"/>
+      <c r="D11" s="1">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="10"/>
-      <c r="C12" s="35">
+      <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="35">
-        <v>20</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="11"/>
+      <c r="D12" s="1">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="10"/>
-      <c r="C13" s="35">
+      <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="35">
-        <v>23</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="11"/>
+      <c r="D13" s="1">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="10"/>
-      <c r="C14" s="35">
+      <c r="C14" s="1">
         <v>7</v>
       </c>
-      <c r="D14" s="35">
-        <v>26</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="11"/>
+      <c r="D14" s="1">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="10"/>
-      <c r="C15" s="35">
+      <c r="B15" s="35"/>
+      <c r="C15" s="24">
         <v>8</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="24">
         <v>30</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F15" s="11"/>
+      <c r="E15" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="10"/>
-      <c r="C16" s="35">
+      <c r="B16" s="35"/>
+      <c r="C16" s="24">
         <v>9</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="24">
         <v>33</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F16" s="11"/>
+      <c r="E16" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38">
         <v>10</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="38">
         <v>35</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="F17" s="14"/>
+      <c r="E17" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>36</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M22" s="17" t="s">
         <v>26</v>
@@ -6499,358 +6722,387 @@
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="10"/>
-      <c r="C23" s="35">
+      <c r="C23" s="1">
         <v>9</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="1">
         <v>35</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F23" s="11"/>
+      <c r="E23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="11">
+        <v>4</v>
+      </c>
       <c r="I23" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J23" s="13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K23" s="13">
         <v>600</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M23" s="14"/>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="10"/>
-      <c r="C24" s="35">
+      <c r="C24" s="1">
         <v>10</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="1">
         <v>37</v>
       </c>
-      <c r="E24" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="11"/>
+      <c r="E24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F24" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="10"/>
-      <c r="C25" s="35">
+      <c r="C25" s="1">
         <v>11</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="1">
         <v>40</v>
       </c>
-      <c r="E25" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F25" s="11"/>
+      <c r="E25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="10"/>
-      <c r="C26" s="35">
+      <c r="C26" s="1">
         <v>12</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="1">
         <v>43</v>
       </c>
-      <c r="E26" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F26" s="11"/>
+      <c r="E26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="10"/>
-      <c r="C27" s="35">
+      <c r="C27" s="1">
         <v>13</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="1">
         <v>45</v>
       </c>
-      <c r="E27" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F27" s="11"/>
+      <c r="E27" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F27" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="10"/>
-      <c r="C28" s="35">
+      <c r="C28" s="1">
         <v>14</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="1">
         <v>47</v>
       </c>
-      <c r="E28" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F28" s="11"/>
+      <c r="E28" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F28" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="10"/>
-      <c r="C29" s="35">
+      <c r="C29" s="1">
         <v>15</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="1">
         <v>50</v>
       </c>
-      <c r="E29" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F29" s="11"/>
+      <c r="E29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="10"/>
-      <c r="C30" s="35">
+      <c r="B30" s="35"/>
+      <c r="C30" s="24">
         <v>16</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="24">
         <v>53</v>
       </c>
-      <c r="E30" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F30" s="11"/>
+      <c r="E30" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="10"/>
-      <c r="C31" s="35">
+      <c r="B31" s="35"/>
+      <c r="C31" s="24">
         <v>17</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="24">
         <v>57</v>
       </c>
-      <c r="E31" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="11"/>
+      <c r="E31" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13">
+      <c r="B32" s="37"/>
+      <c r="C32" s="38">
         <v>18</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="38">
         <v>60</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="F32" s="14"/>
+      <c r="E32" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" s="39"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>36</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="10"/>
-      <c r="C38" s="35">
+      <c r="C38" s="1">
         <v>17</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="1">
         <v>60</v>
       </c>
-      <c r="E38" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F38" s="11"/>
+      <c r="E38" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="11">
+        <v>4</v>
+      </c>
       <c r="I38" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="J38" s="35">
-        <v>30</v>
-      </c>
-      <c r="K38" s="35">
-        <v>0</v>
-      </c>
-      <c r="L38" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="J38" s="1">
+        <v>27</v>
+      </c>
+      <c r="K38" s="1">
+        <v>600</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="M38" s="11"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="10"/>
-      <c r="C39" s="35">
+      <c r="C39" s="1">
         <v>18</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="1">
         <v>62</v>
       </c>
-      <c r="E39" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F39" s="11"/>
+      <c r="E39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="11">
+        <v>6</v>
+      </c>
       <c r="I39" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="J39" s="35">
-        <v>28</v>
-      </c>
-      <c r="K39" s="35">
+        <v>262</v>
+      </c>
+      <c r="J39" s="1">
+        <v>30</v>
+      </c>
+      <c r="K39" s="1">
         <v>90</v>
       </c>
-      <c r="L39" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="M39" s="11"/>
+      <c r="L39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="10"/>
-      <c r="C40" s="35">
+      <c r="C40" s="1">
         <v>19</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="1">
         <v>65</v>
       </c>
-      <c r="E40" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F40" s="11"/>
+      <c r="E40" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F40" s="11">
+        <v>7</v>
+      </c>
       <c r="I40" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J40" s="13">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K40" s="13">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="M40" s="14"/>
+        <v>263</v>
+      </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="10"/>
-      <c r="C41" s="35">
+      <c r="C41" s="1">
         <v>20</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="1">
         <v>68</v>
       </c>
-      <c r="E41" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F41" s="11"/>
+      <c r="E41" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="10"/>
-      <c r="C42" s="35">
+      <c r="C42" s="1">
         <v>21</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="1">
         <v>70</v>
       </c>
-      <c r="E42" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F42" s="11"/>
+      <c r="E42" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="10"/>
-      <c r="C43" s="35">
+      <c r="C43" s="1">
         <v>22</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="1">
         <v>72</v>
       </c>
-      <c r="E43" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F43" s="11"/>
+      <c r="E43" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="10"/>
-      <c r="C44" s="35">
+      <c r="C44" s="1">
         <v>23</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="1">
         <v>75</v>
       </c>
-      <c r="E44" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" s="11"/>
+      <c r="E44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F44" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="10"/>
-      <c r="C45" s="35">
+      <c r="B45" s="35"/>
+      <c r="C45" s="24">
         <v>24</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="24">
         <v>78</v>
       </c>
-      <c r="E45" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F45" s="11"/>
+      <c r="E45" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="36"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="10"/>
-      <c r="C46" s="35">
+      <c r="B46" s="35"/>
+      <c r="C46" s="24">
         <v>25</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="24">
         <v>81</v>
       </c>
-      <c r="E46" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F46" s="11"/>
+      <c r="E46" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" s="36"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="12"/>
-      <c r="C47" s="13">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38">
         <v>26</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="38">
         <v>85</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="F47" s="14"/>
+      <c r="E47" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Disign/Monster .xlsx
+++ b/Disign/Monster .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a3997\Documents\GitHub\Hyo_swEngineering10\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8DC7C4-2C27-43A5-AD6B-4555CCB24316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8092DC1-B106-4CD5-99AF-D18F9C221B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VerControl" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="몬스터 생성 규칙" sheetId="5" r:id="rId5"/>
     <sheet name="몬스터 재화" sheetId="6" r:id="rId6"/>
     <sheet name="몬스터 데이터" sheetId="7" r:id="rId7"/>
+    <sheet name="메모장" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="402">
   <si>
     <t>일반 몬스터에 비해 지능과 공격력, 보상이 좀 더 좋고, 체력또한 10배이며, 6)와 같은 상태이상을 플레이어에게 건다.
 일정 확률에 따라 엘리트 몬스터가 한마리씩 나온다.
@@ -810,9 +811,6 @@
     <t>상태이상</t>
   </si>
   <si>
-    <t>최대 10</t>
-  </si>
-  <si>
     <t>꽃슬라임</t>
   </si>
   <si>
@@ -866,6 +864,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Gulim"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>聖)</t>
     </r>
@@ -933,6 +933,440 @@
   </si>
   <si>
     <t>탄환형</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>tag0</t>
+  </si>
+  <si>
+    <t>tag2</t>
+  </si>
+  <si>
+    <t>dagger / 단검</t>
+  </si>
+  <si>
+    <t>베기</t>
+  </si>
+  <si>
+    <t>검</t>
+  </si>
+  <si>
+    <t>long sword / 롱소드</t>
+  </si>
+  <si>
+    <t>hatchet / 손 도끼</t>
+  </si>
+  <si>
+    <t>도끼</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> battleaxe / 전투도끼</t>
+  </si>
+  <si>
+    <t>two handed sword / 양손검</t>
+  </si>
+  <si>
+    <t>spear / 창</t>
+  </si>
+  <si>
+    <t>찌르기</t>
+  </si>
+  <si>
+    <t>창</t>
+  </si>
+  <si>
+    <t>katar / 카타르</t>
+  </si>
+  <si>
+    <t>주먹</t>
+  </si>
+  <si>
+    <t>battering / 난타</t>
+  </si>
+  <si>
+    <t>rapier / 레이피어</t>
+  </si>
+  <si>
+    <t>pile bunker / 파일 벙커</t>
+  </si>
+  <si>
+    <t>slug shotgun / 슬러그 샷건</t>
+  </si>
+  <si>
+    <t>투사체</t>
+  </si>
+  <si>
+    <t>총</t>
+  </si>
+  <si>
+    <t>sniper rifle / 저격소총</t>
+  </si>
+  <si>
+    <t>derringer / 데린저</t>
+  </si>
+  <si>
+    <t>shortbow / 숏보우</t>
+  </si>
+  <si>
+    <t>활</t>
+  </si>
+  <si>
+    <t>fire ball / 파이어볼</t>
+  </si>
+  <si>
+    <t>마법</t>
+  </si>
+  <si>
+    <t>magic missile / 매직미사일</t>
+  </si>
+  <si>
+    <t>longbow / 롱보우</t>
+  </si>
+  <si>
+    <t>crossbow / 석궁</t>
+  </si>
+  <si>
+    <t>thunderbolt / 썬더볼트</t>
+  </si>
+  <si>
+    <t>지역</t>
+  </si>
+  <si>
+    <t>buddha's hand / 여래신장</t>
+  </si>
+  <si>
+    <t>halberd / 할버드</t>
+  </si>
+  <si>
+    <t>just hand / 맨주먹 (default)</t>
+  </si>
+  <si>
+    <t>b: 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l: 15 </t>
+  </si>
+  <si>
+    <t>h: 35</t>
+  </si>
+  <si>
+    <t>기본값</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯에 분배된 포인트</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 가중치</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 공격력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 공격력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ETC] 무기 공격력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 데미지
+= (무기 공격력 + 캐릭터 공격력) * (1 - (몬스터 방어력 / 100+몬스터 방어력)</t>
+  </si>
+  <si>
+    <t>[ETC] 캐릭터 공격력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최솟값</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 수치(누적)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>일몹 23렙까지 있는데 게임내에서 최대 가능한 캐릭터 레벨이 총 15렙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이래도 되는 건가??</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 몇스테이지?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2스테이지</t>
+  </si>
+  <si>
+    <t>3스테이지</t>
+  </si>
+  <si>
+    <t>2스테이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3스테이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정이 필요할 것 같음</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 공격력은 1000~2000 이러는데 캐릭터 공격력은 10~40.. 근데 공식이 무기공격력 + 캐릭터공격력???</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 데미지</t>
+  </si>
+  <si>
+    <t>B / 공격력, 공격속도, 공격횟수, 사거리</t>
+  </si>
+  <si>
+    <t>L / 공격력, 공격속도, 공격횟수, 사거리</t>
+  </si>
+  <si>
+    <t>H / 공격력, 공격속도, 공격횟수, 사거리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무기의 스탯은 [ 스탯에 분배된 포인트 * 가중치 + 기본 값] </t>
+  </si>
+  <si>
+    <t>최소 가중치</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>: (무기 공격력 + 캐릭터 공격력 *10 ) * (1 - (몬스터 방어력 / 100+몬스터 방어력)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>로 좀더 붙여야 할듯</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터 방어력이 50이라고 하면 저기 공식대로 했을때 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기공격력 + 캐릭터공격력*10 = 520이라고 했을 때</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>-49.5가 나옴.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종데미지 공식에 괄호가 하나 빠진듯??</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(무기 공격력 + 캐릭터 공격력 *10 ) * (1 - 몬스터 방어력 / (100+몬스터 방어력))</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 고치겠음!!!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 방어율 60</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 방어율 80</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 방어율 50</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 방어율 40</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균값</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 포인트</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기포인트</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력 18</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 방어율 30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력이 14</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 15</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력 22</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 방어율 35</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2 스테이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력 26</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 방어율 45</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력 30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 25</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 20~25</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력 34</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력 38</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 방어율 55</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력 42</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력 45</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 35</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지 보스</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20번</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2스테이지 보스</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3스테이지 보스</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 40</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력 46</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스: 20번</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡몹: 10번</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 글씨: 해당 무기 포인트에 맞는 최소 공격력 예시</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성은 고려x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>도트딜(3초에 한번씩 해당 공격력이 깎임)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +1377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -988,10 +1422,39 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Gulim"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="메이플스토리"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="메이플스토리"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1028,7 +1491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1122,6 +1585,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1131,7 +1722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1250,6 +1841,120 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2225,13 +2930,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1592580</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>754380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2269,13 +2974,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>861060</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>800100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2313,13 +3018,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>853440</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1897380</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>807719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2357,13 +3062,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1821180</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>883920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2401,13 +3106,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>861060</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1988820</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1333500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2445,13 +3150,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1699260</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>502920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2512,13 +3217,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1744980</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>807719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2556,13 +3261,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>868679</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1988820</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>1173480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2600,13 +3305,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1264920</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>815340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2644,13 +3349,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>929639</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1935480</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>746759</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2688,13 +3393,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2369820</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>838200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2732,13 +3437,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>708660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2776,13 +3481,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1089660</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>236220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1668780</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>853440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2820,13 +3525,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>548640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>845820</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>937260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2864,13 +3569,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>723900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2354580</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>800100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2931,13 +3636,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>297180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3299460</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>2743199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2975,13 +3680,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1089660</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1630680</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>754380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3019,13 +3724,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>929639</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1729740</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>861060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3063,13 +3768,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1196340</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2011680</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>899160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3107,13 +3812,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1645920</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>838200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3151,13 +3856,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>807719</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1859279</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>876300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3195,13 +3900,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>861060</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1798320</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>899160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3239,13 +3944,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>922020</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1706880</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>685799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3283,13 +3988,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1813560</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>746759</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3327,13 +4032,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>899160</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1836420</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>746759</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3371,13 +4076,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2019300</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>838200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3415,13 +4120,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>830580</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1988820</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>891540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3459,13 +4164,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>929639</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1950720</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>853440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3503,13 +4208,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>929639</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1950720</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>853440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3547,13 +4252,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3108960</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>1074420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3591,13 +4296,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1036320</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2026920</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>960120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3635,13 +4340,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>541020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>822960</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>838200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3679,13 +4384,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>518160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1203960</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>815340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3723,13 +4428,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1851660</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>518160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2179320</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>815340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3767,13 +4472,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2316480</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>510540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2644140</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>800100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3811,13 +4516,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2331720</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3314700</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>922020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3855,13 +4560,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3139440</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>1013460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3899,13 +4604,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3307080</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>1028700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3943,13 +4648,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>655320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3987,13 +4692,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>320040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>586740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4631,7 +5336,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -4706,7 +5411,7 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>225</v>
@@ -4760,7 +5465,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -4850,7 +5555,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -4898,7 +5603,7 @@
         <v>74</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -5131,7 +5836,7 @@
         <v>111</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="2:7">
@@ -5148,7 +5853,7 @@
         <v>228</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="2:7">
@@ -5336,10 +6041,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:K60"/>
+  <dimension ref="B2:K70"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
@@ -5431,7 +6136,7 @@
         <v>84</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>232</v>
@@ -5517,202 +6222,42 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="62.4" customHeight="1">
-      <c r="B11" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="11" spans="2:11" ht="58.8" customHeight="1">
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:11" ht="58.8" customHeight="1">
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:11" ht="58.8" customHeight="1">
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="2:11" ht="58.8" customHeight="1">
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:11" ht="58.8" customHeight="1">
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="2:11" ht="58.8" customHeight="1">
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:10" ht="58.8" customHeight="1">
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" ht="58.8" customHeight="1">
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" ht="58.8" customHeight="1">
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" ht="58.8" customHeight="1">
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:10" ht="62.4" customHeight="1">
+      <c r="B21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="67.2" customHeight="1">
-      <c r="B12" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="69.599999999999994" customHeight="1">
-      <c r="B13" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="76.2" customHeight="1">
-      <c r="B14" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="75" customHeight="1">
-      <c r="B15" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="80.400000000000006" customHeight="1">
-      <c r="B16" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="89.4" customHeight="1"/>
-    <row r="18" spans="2:10" ht="87" customHeight="1">
-      <c r="B18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="106.2" customHeight="1">
-      <c r="B19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="96.6" customHeight="1">
-      <c r="B20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="95.4" customHeight="1">
-      <c r="B21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>71</v>
@@ -5721,330 +6266,520 @@
         <v>85</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="105" customHeight="1">
+        <v>232</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="67.2" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="69.599999999999994" customHeight="1">
+      <c r="B23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="76.2" customHeight="1">
+      <c r="B24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="75" customHeight="1">
+      <c r="B25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="80.400000000000006" customHeight="1">
+      <c r="B26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="89.4" customHeight="1"/>
+    <row r="28" spans="2:10" ht="87" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>217</v>
+        <v>85</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="81" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="106.2" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G29" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="96.6" customHeight="1">
+      <c r="B30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="95.4" customHeight="1">
+      <c r="B31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="105" customHeight="1">
+      <c r="B32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="81" customHeight="1">
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H39" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="70.8" customHeight="1">
-      <c r="B30" s="1" t="s">
+    <row r="40" spans="2:10" ht="70.8" customHeight="1">
+      <c r="B40" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="81.599999999999994" customHeight="1">
-      <c r="I31" s="23" t="s">
+    <row r="41" spans="2:10" ht="81.599999999999994" customHeight="1">
+      <c r="I41" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="77.400000000000006" customHeight="1">
-      <c r="B32" s="1" t="s">
+    <row r="42" spans="2:10" ht="77.400000000000006" customHeight="1">
+      <c r="B42" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="111.6" customHeight="1">
-      <c r="B33" s="1" t="s">
+    <row r="43" spans="2:10" ht="111.6" customHeight="1">
+      <c r="B43" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="111.6" customHeight="1">
-      <c r="B34" s="1" t="s">
+    <row r="44" spans="2:10" ht="111.6" customHeight="1">
+      <c r="B44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="68.400000000000006" customHeight="1">
-      <c r="B35" s="1" t="s">
+      <c r="I44" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="68.400000000000006" customHeight="1">
+      <c r="B45" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="67.2" customHeight="1">
-      <c r="B36" s="1" t="s">
+    <row r="46" spans="2:10" ht="67.2" customHeight="1">
+      <c r="B46" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="69.599999999999994" customHeight="1">
-      <c r="B37" s="1" t="s">
+    <row r="47" spans="2:10" ht="69.599999999999994" customHeight="1">
+      <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="78" customHeight="1">
-      <c r="G38" s="1" t="s">
+    <row r="48" spans="2:10" ht="78" customHeight="1">
+      <c r="G48" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="79.8" customHeight="1">
-      <c r="B42" s="1" t="s">
+    <row r="52" spans="2:10" ht="79.8" customHeight="1">
+      <c r="B52" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="79.2" customHeight="1">
-      <c r="C43" s="1" t="s">
+    <row r="53" spans="2:10" ht="79.2" customHeight="1">
+      <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="83.4" customHeight="1">
-      <c r="B44" s="1" t="s">
+    <row r="54" spans="2:10" ht="83.4" customHeight="1">
+      <c r="B54" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I44" s="26" t="s">
+      <c r="I54" s="26" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="69.599999999999994" customHeight="1">
-      <c r="G45" s="1" t="s">
+    <row r="55" spans="2:10" ht="69.599999999999994" customHeight="1">
+      <c r="G55" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="I55" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="85.8" customHeight="1">
-      <c r="B46" s="1" t="s">
+    <row r="56" spans="2:10" ht="85.8" customHeight="1">
+      <c r="B56" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I46" s="27" t="s">
+      <c r="I56" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="81.599999999999994" customHeight="1">
-      <c r="B47" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G47" s="23"/>
-      <c r="I47" s="1" t="s">
+    <row r="57" spans="2:10" ht="81.599999999999994" customHeight="1">
+      <c r="B57" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="I57" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="94.2" customHeight="1">
-      <c r="B48" s="1" t="s">
+    <row r="58" spans="2:10" ht="94.2" customHeight="1">
+      <c r="B58" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="105" customHeight="1">
-      <c r="B49" s="1" t="s">
+    <row r="59" spans="2:10" ht="105" customHeight="1">
+      <c r="B59" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="114" customHeight="1"/>
-    <row r="51" spans="2:10" ht="97.8" customHeight="1"/>
-    <row r="52" spans="2:10" ht="121.8" customHeight="1"/>
-    <row r="54" spans="2:10" ht="91.2" customHeight="1">
-      <c r="B54" s="1" t="s">
+    <row r="60" spans="2:10" ht="114" customHeight="1"/>
+    <row r="61" spans="2:10" ht="97.8" customHeight="1"/>
+    <row r="62" spans="2:10" ht="121.8" customHeight="1"/>
+    <row r="64" spans="2:10" ht="91.2" customHeight="1">
+      <c r="B64" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G64" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="H54" s="28" t="s">
+      <c r="H64" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="98.4" customHeight="1">
-      <c r="G55" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H55" s="28" t="s">
+      <c r="J64" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" ht="98.4" customHeight="1">
+      <c r="G65" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H65" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="I65" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="101.4" customHeight="1">
-      <c r="I56" s="26" t="s">
+    <row r="66" spans="7:10" ht="101.4" customHeight="1">
+      <c r="I66" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="238.8" customHeight="1">
-      <c r="G57" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H57" s="27" t="s">
+    <row r="67" spans="7:10" ht="238.8" customHeight="1">
+      <c r="G67" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H67" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I57" s="26" t="s">
+      <c r="I67" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="155.4" customHeight="1">
-      <c r="G58" s="1" t="s">
+      <c r="J67" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" ht="155.4" customHeight="1">
+      <c r="G68" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="H68" s="28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="153.6" customHeight="1">
-      <c r="G59" s="1" t="s">
+    <row r="69" spans="7:10" ht="153.6" customHeight="1">
+      <c r="G69" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="154.19999999999999" customHeight="1">
-      <c r="G60" s="1" t="s">
+    <row r="70" spans="7:10" ht="154.19999999999999" customHeight="1">
+      <c r="G70" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6062,7 +6797,7 @@
   <dimension ref="B2:B19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
@@ -6089,12 +6824,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -6158,11 +6893,11 @@
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -6347,7 +7082,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="34">
         <v>0.2</v>
@@ -6377,7 +7112,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -6390,38 +7125,47 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B2:M47"/>
+  <dimension ref="B2:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="D10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="17.69921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.3984375" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.796875" style="1"/>
-    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.69921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="1"/>
+    <col min="4" max="9" width="8.796875" style="1"/>
+    <col min="11" max="11" width="10.3984375" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.69921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21">
+    <row r="2" spans="2:19" ht="21">
       <c r="B2" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:19">
       <c r="B5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="6" spans="2:19">
+      <c r="J6" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="14.4">
       <c r="B7" s="15" t="s">
         <v>125</v>
       </c>
@@ -6440,23 +7184,41 @@
       <c r="G7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="H7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="N7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="O7" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="P7" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="Q7" s="17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="2:13">
+      <c r="R7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="14.4">
       <c r="B8" s="10"/>
       <c r="C8" s="1">
         <v>1</v>
@@ -6470,21 +7232,44 @@
       <c r="F8" s="11">
         <v>3</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="G8" s="1">
+        <v>220</v>
+      </c>
+      <c r="H8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>14</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="13">
+      <c r="N8" s="13">
         <v>10</v>
       </c>
-      <c r="K8" s="13">
+      <c r="O8" s="13">
         <v>300</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="P8" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="2:13">
+      <c r="Q8" s="14">
+        <v>500</v>
+      </c>
+      <c r="R8" s="1">
+        <v>80</v>
+      </c>
+      <c r="S8" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="14.4">
       <c r="B9" s="10"/>
       <c r="C9" s="1">
         <v>2</v>
@@ -6498,8 +7283,23 @@
       <c r="F9" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="G9" s="1">
+        <v>600</v>
+      </c>
+      <c r="H9" s="1">
+        <v>150</v>
+      </c>
+      <c r="I9" s="1">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="14.4">
       <c r="B10" s="10"/>
       <c r="C10" s="1">
         <v>3</v>
@@ -6513,8 +7313,23 @@
       <c r="F10" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="G10" s="1">
+        <v>610</v>
+      </c>
+      <c r="H10" s="1">
+        <v>200</v>
+      </c>
+      <c r="I10" s="1">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="14.4">
       <c r="B11" s="10"/>
       <c r="C11" s="1">
         <v>4</v>
@@ -6528,8 +7343,23 @@
       <c r="F11" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:13">
+      <c r="G11" s="1">
+        <v>890</v>
+      </c>
+      <c r="H11" s="1">
+        <v>250</v>
+      </c>
+      <c r="I11" s="1">
+        <v>35</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="14.4">
       <c r="B12" s="10"/>
       <c r="C12" s="1">
         <v>5</v>
@@ -6543,8 +7373,23 @@
       <c r="F12" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="G12" s="1">
+        <v>1170</v>
+      </c>
+      <c r="H12" s="1">
+        <v>270</v>
+      </c>
+      <c r="I12" s="1">
+        <v>35</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="14.4">
       <c r="B13" s="10"/>
       <c r="C13" s="1">
         <v>6</v>
@@ -6558,8 +7403,23 @@
       <c r="F13" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="2:13">
+      <c r="G13" s="1">
+        <v>666</v>
+      </c>
+      <c r="H13" s="1">
+        <v>300</v>
+      </c>
+      <c r="I13" s="1">
+        <v>35</v>
+      </c>
+      <c r="J13" s="1">
+        <v>15</v>
+      </c>
+      <c r="K13" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="14.4">
       <c r="B14" s="10"/>
       <c r="C14" s="1">
         <v>7</v>
@@ -6573,8 +7433,23 @@
       <c r="F14" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:13">
+      <c r="G14" s="1">
+        <v>640</v>
+      </c>
+      <c r="H14" s="1">
+        <v>322</v>
+      </c>
+      <c r="I14" s="1">
+        <v>40</v>
+      </c>
+      <c r="J14" s="1">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
       <c r="B15" s="35"/>
       <c r="C15" s="24">
         <v>8</v>
@@ -6589,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:19">
       <c r="B16" s="35"/>
       <c r="C16" s="24">
         <v>9</v>
@@ -6604,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:19">
       <c r="B17" s="37"/>
       <c r="C17" s="38">
         <v>10</v>
@@ -6619,20 +7494,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:19">
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:19">
       <c r="B20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="21" spans="2:19">
+      <c r="S21" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="14.4">
       <c r="B22" s="15" t="s">
         <v>125</v>
       </c>
@@ -6652,25 +7532,43 @@
         <v>76</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I22" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M22" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="N22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="O22" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="P22" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="Q22" s="17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="2:13">
+      <c r="R22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="14.4">
       <c r="B23" s="10"/>
       <c r="C23" s="1">
         <v>9</v>
@@ -6684,21 +7582,44 @@
       <c r="F23" s="11">
         <v>4</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="G23" s="1">
+        <v>960</v>
+      </c>
+      <c r="H23" s="1">
+        <v>330</v>
+      </c>
+      <c r="I23" s="1">
+        <v>40</v>
+      </c>
+      <c r="J23" s="1">
+        <v>15</v>
+      </c>
+      <c r="K23" s="1">
+        <v>22</v>
+      </c>
+      <c r="M23" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="J23" s="13">
+      <c r="N23" s="13">
         <v>19</v>
       </c>
-      <c r="K23" s="13">
+      <c r="O23" s="13">
         <v>600</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="P23" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="M23" s="14"/>
-    </row>
-    <row r="24" spans="2:13">
+      <c r="Q23" s="14">
+        <v>700</v>
+      </c>
+      <c r="R23" s="1">
+        <v>80</v>
+      </c>
+      <c r="S23" s="1">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="14.4">
       <c r="B24" s="10"/>
       <c r="C24" s="1">
         <v>10</v>
@@ -6712,8 +7633,23 @@
       <c r="F24" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="2:13">
+      <c r="G24" s="1">
+        <v>1100</v>
+      </c>
+      <c r="H24" s="1">
+        <v>350</v>
+      </c>
+      <c r="I24" s="1">
+        <v>40</v>
+      </c>
+      <c r="J24" s="1">
+        <v>20</v>
+      </c>
+      <c r="K24" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="14.4">
       <c r="B25" s="10"/>
       <c r="C25" s="1">
         <v>11</v>
@@ -6727,8 +7663,23 @@
       <c r="F25" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="2:13">
+      <c r="G25" s="1">
+        <v>1700</v>
+      </c>
+      <c r="H25" s="1">
+        <v>400</v>
+      </c>
+      <c r="I25" s="1">
+        <v>40</v>
+      </c>
+      <c r="J25" s="1">
+        <v>20</v>
+      </c>
+      <c r="K25" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="14.4">
       <c r="B26" s="10"/>
       <c r="C26" s="1">
         <v>12</v>
@@ -6742,8 +7693,23 @@
       <c r="F26" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="2:13">
+      <c r="G26" s="1">
+        <v>1700</v>
+      </c>
+      <c r="H26" s="1">
+        <v>440</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45</v>
+      </c>
+      <c r="J26" s="1">
+        <v>20</v>
+      </c>
+      <c r="K26" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="14.4">
       <c r="B27" s="10"/>
       <c r="C27" s="1">
         <v>13</v>
@@ -6757,11 +7723,26 @@
       <c r="F27" s="11">
         <v>5</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
+      <c r="G27" s="1">
+        <v>1300</v>
+      </c>
+      <c r="H27" s="1">
+        <v>500</v>
+      </c>
+      <c r="I27" s="1">
+        <v>45</v>
+      </c>
+      <c r="J27" s="1">
+        <v>25</v>
+      </c>
+      <c r="K27" s="1">
+        <v>30</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="14.4">
       <c r="B28" s="10"/>
       <c r="C28" s="1">
         <v>14</v>
@@ -6775,8 +7756,23 @@
       <c r="F28" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="2:13">
+      <c r="G28" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H28" s="1">
+        <v>550</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45</v>
+      </c>
+      <c r="J28" s="1">
+        <v>25</v>
+      </c>
+      <c r="K28" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="14.4">
       <c r="B29" s="10"/>
       <c r="C29" s="1">
         <v>15</v>
@@ -6790,11 +7786,26 @@
       <c r="F29" s="11">
         <v>4</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
+      <c r="G29" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H29" s="1">
+        <v>600</v>
+      </c>
+      <c r="I29" s="1">
+        <v>50</v>
+      </c>
+      <c r="J29" s="1">
+        <v>25</v>
+      </c>
+      <c r="K29" s="1">
+        <v>34</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
       <c r="B30" s="35"/>
       <c r="C30" s="24">
         <v>16</v>
@@ -6807,7 +7818,7 @@
       </c>
       <c r="F30" s="36"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:19">
       <c r="B31" s="35"/>
       <c r="C31" s="24">
         <v>17</v>
@@ -6820,7 +7831,7 @@
       </c>
       <c r="F31" s="36"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:19">
       <c r="B32" s="37"/>
       <c r="C32" s="38">
         <v>18</v>
@@ -6833,15 +7844,23 @@
       </c>
       <c r="F32" s="39"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:21">
       <c r="B35" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="37" spans="2:13">
+      <c r="R35" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="R36" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" ht="14.4">
       <c r="B37" s="15" t="s">
         <v>125</v>
       </c>
@@ -6860,23 +7879,47 @@
       <c r="G37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="H37" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M37" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="N37" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="O37" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="P37" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="M37" s="17" t="s">
+      <c r="Q37" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="T37" s="17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="38" spans="2:13">
+      <c r="U37" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" ht="14.4">
       <c r="B38" s="10"/>
       <c r="C38" s="1">
         <v>17</v>
@@ -6890,21 +7933,47 @@
       <c r="F38" s="11">
         <v>4</v>
       </c>
-      <c r="I38" s="10" t="s">
-        <v>249</v>
+      <c r="G38" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H38" s="1">
+        <v>630</v>
+      </c>
+      <c r="I38" s="1">
+        <v>50</v>
       </c>
       <c r="J38" s="1">
+        <v>30</v>
+      </c>
+      <c r="K38" s="1">
+        <v>38</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="N38" s="1">
         <v>27</v>
       </c>
-      <c r="K38" s="1">
+      <c r="O38" s="1">
         <v>600</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M38" s="11"/>
-    </row>
-    <row r="39" spans="2:13">
+      <c r="Q38" s="1">
+        <v>1500</v>
+      </c>
+      <c r="R38" s="1">
+        <v>80</v>
+      </c>
+      <c r="S38" s="1">
+        <v>21000</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" ht="14.4">
       <c r="B39" s="10"/>
       <c r="C39" s="1">
         <v>18</v>
@@ -6918,23 +7987,47 @@
       <c r="F39" s="11">
         <v>6</v>
       </c>
-      <c r="I39" s="10" t="s">
-        <v>253</v>
+      <c r="G39" s="1">
+        <v>2200</v>
+      </c>
+      <c r="H39" s="1">
+        <v>670</v>
+      </c>
+      <c r="I39" s="1">
+        <v>50</v>
       </c>
       <c r="J39" s="1">
         <v>30</v>
       </c>
       <c r="K39" s="1">
+        <v>38</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="N39" s="1">
+        <v>30</v>
+      </c>
+      <c r="O39" s="1">
         <v>90</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M39" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13">
+      <c r="Q39" s="1">
+        <v>800</v>
+      </c>
+      <c r="R39" s="1">
+        <v>60</v>
+      </c>
+      <c r="S39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" ht="14.4">
       <c r="B40" s="10"/>
       <c r="C40" s="1">
         <v>19</v>
@@ -6948,20 +8041,47 @@
       <c r="F40" s="11">
         <v>7</v>
       </c>
-      <c r="I40" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="J40" s="13">
+      <c r="G40" s="1">
+        <v>1600</v>
+      </c>
+      <c r="H40" s="1">
+        <v>700</v>
+      </c>
+      <c r="I40" s="1">
+        <v>55</v>
+      </c>
+      <c r="J40" s="1">
+        <v>30</v>
+      </c>
+      <c r="K40" s="1">
+        <v>42</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="N40" s="13">
         <v>32</v>
       </c>
-      <c r="K40" s="13">
+      <c r="O40" s="13">
         <v>1000</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="P40" s="13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="2:13">
+      <c r="Q40" s="1">
+        <v>150</v>
+      </c>
+      <c r="S40" s="1">
+        <v>21000</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" ht="14.4">
       <c r="B41" s="10"/>
       <c r="C41" s="1">
         <v>20</v>
@@ -6975,8 +8095,23 @@
       <c r="F41" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="2:13">
+      <c r="G41" s="1">
+        <v>1700</v>
+      </c>
+      <c r="H41" s="1">
+        <v>720</v>
+      </c>
+      <c r="I41" s="1">
+        <v>55</v>
+      </c>
+      <c r="J41" s="1">
+        <v>35</v>
+      </c>
+      <c r="K41" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" ht="14.4">
       <c r="B42" s="10"/>
       <c r="C42" s="1">
         <v>21</v>
@@ -6990,8 +8125,23 @@
       <c r="F42" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:13">
+      <c r="G42" s="1">
+        <v>2600</v>
+      </c>
+      <c r="H42" s="1">
+        <v>740</v>
+      </c>
+      <c r="I42" s="1">
+        <v>55</v>
+      </c>
+      <c r="J42" s="1">
+        <v>35</v>
+      </c>
+      <c r="K42" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" ht="14.4">
       <c r="B43" s="10"/>
       <c r="C43" s="1">
         <v>22</v>
@@ -7005,8 +8155,23 @@
       <c r="F43" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:13">
+      <c r="G43" s="1">
+        <v>1700</v>
+      </c>
+      <c r="H43" s="1">
+        <v>760</v>
+      </c>
+      <c r="I43" s="1">
+        <v>60</v>
+      </c>
+      <c r="J43" s="1">
+        <v>35</v>
+      </c>
+      <c r="K43" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" ht="14.4">
       <c r="B44" s="10"/>
       <c r="C44" s="1">
         <v>23</v>
@@ -7020,8 +8185,23 @@
       <c r="F44" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:13">
+      <c r="G44" s="1">
+        <v>2400</v>
+      </c>
+      <c r="H44" s="1">
+        <v>800</v>
+      </c>
+      <c r="I44" s="1">
+        <v>60</v>
+      </c>
+      <c r="J44" s="1">
+        <v>40</v>
+      </c>
+      <c r="K44" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21">
       <c r="B45" s="35"/>
       <c r="C45" s="24">
         <v>24</v>
@@ -7034,7 +8214,7 @@
       </c>
       <c r="F45" s="36"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:21">
       <c r="B46" s="35"/>
       <c r="C46" s="24">
         <v>25</v>
@@ -7047,7 +8227,7 @@
       </c>
       <c r="F46" s="36"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:21">
       <c r="B47" s="37"/>
       <c r="C47" s="38">
         <v>26</v>
@@ -7065,4 +8245,2506 @@
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5A7DB6-7184-4677-90B8-10A2A9783656}">
+  <dimension ref="C5:AF93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="4" width="8.796875" style="1"/>
+    <col min="5" max="5" width="8.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="1"/>
+    <col min="7" max="7" width="18.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.59765625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.796875" style="1"/>
+    <col min="14" max="14" width="9.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.3984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.19921875" style="1" customWidth="1"/>
+    <col min="18" max="19" width="11.19921875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="16" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.3984375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.296875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="14.796875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.19921875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.69921875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.8984375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="16.59765625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.19921875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.8984375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" style="1" customWidth="1"/>
+    <col min="32" max="32" width="16.09765625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:32" ht="21">
+      <c r="D5" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="3:32" ht="21">
+      <c r="D6" s="9"/>
+      <c r="T6" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="3:32" ht="21">
+      <c r="D7" s="9"/>
+      <c r="G7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="3:32" ht="21">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="3:32" ht="17.399999999999999">
+      <c r="G9" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+    </row>
+    <row r="10" spans="3:32" ht="17.399999999999999">
+      <c r="G10" s="40">
+        <v>25</v>
+      </c>
+      <c r="H10" s="40">
+        <v>25</v>
+      </c>
+      <c r="I10" s="40">
+        <v>25</v>
+      </c>
+      <c r="J10" s="40">
+        <v>25</v>
+      </c>
+      <c r="K10" s="40">
+        <v>15</v>
+      </c>
+      <c r="L10" s="40">
+        <v>35</v>
+      </c>
+      <c r="M10" s="40">
+        <v>35</v>
+      </c>
+      <c r="N10" s="40">
+        <v>15</v>
+      </c>
+      <c r="O10" s="40">
+        <v>35</v>
+      </c>
+      <c r="P10" s="40">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>15</v>
+      </c>
+      <c r="R10" s="40">
+        <v>35</v>
+      </c>
+      <c r="T10" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="U10" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="V10" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="W10" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="X10" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y10" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z10" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA10" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB10" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC10" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD10" s="74" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE10" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF10" s="74" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="3:32" ht="17.399999999999999">
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="T11" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="U11" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="V11" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y11" s="63" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB11" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD11" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE11" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="AF11" s="75" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="3:32">
+      <c r="T12" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="U12" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="V12" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y12" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB12" s="63" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD12" s="75" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE12" s="75" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF12" s="75" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="3:32">
+      <c r="T13" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="U13" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="V13" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y13" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB13" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD13" s="75" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE13" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF13" s="75" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="3:32" ht="15" thickBot="1">
+      <c r="C14" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="I14" s="59"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="N14" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="T14" s="12"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+    </row>
+    <row r="15" spans="3:32" ht="15" thickBot="1">
+      <c r="C15" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G15" s="43">
+        <v>1</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="I15" s="59"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="L15" s="47">
+        <v>15</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="N15" s="55">
+        <v>10</v>
+      </c>
+      <c r="O15" s="56"/>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" ref="R15:R35" si="0">N15*L15*P15</f>
+        <v>150</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" ref="S15:S35" si="1">N15*Q15*L15</f>
+        <v>300</v>
+      </c>
+      <c r="T15" s="64">
+        <f>14*10+R15*(1-30/(100+30))</f>
+        <v>255.38461538461536</v>
+      </c>
+      <c r="U15" s="65">
+        <f>18*10+R15*(1-30/(100+30))</f>
+        <v>295.38461538461536</v>
+      </c>
+      <c r="V15" s="63">
+        <f>(R15+22*10)*(1-35/(100+35))</f>
+        <v>274.07407407407408</v>
+      </c>
+      <c r="W15" s="11">
+        <f>(R15+22*10)*(1-40/(100+40))</f>
+        <v>264.28571428571428</v>
+      </c>
+      <c r="X15" s="60">
+        <f>(R15+26*10)*(1-40/(100+40))</f>
+        <v>292.85714285714289</v>
+      </c>
+      <c r="Y15" s="61">
+        <f>(R15+30*10)*(1-45/(100+45))</f>
+        <v>310.34482758620692</v>
+      </c>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+    </row>
+    <row r="16" spans="3:32" ht="15" thickBot="1">
+      <c r="C16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="43">
+        <v>2</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="I16" s="59"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="L16" s="47">
+        <v>25</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="N16" s="55">
+        <v>25</v>
+      </c>
+      <c r="O16" s="56"/>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+      <c r="T16" s="64"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="63">
+        <f>(R16+30*10)*(1-45/(100+45))</f>
+        <v>637.93103448275872</v>
+      </c>
+      <c r="Z16" s="68">
+        <f t="shared" ref="Z16:Z31" si="2">(R16+34*10)*(1-50/(100+50))</f>
+        <v>643.33333333333337</v>
+      </c>
+      <c r="AA16" s="10">
+        <f>(R16+38*10)*(1-50/(100+50))</f>
+        <v>670.00000000000011</v>
+      </c>
+      <c r="AB16" s="63">
+        <f>(R16+42*10)*(1-55/(100+55))</f>
+        <v>674.19354838709671</v>
+      </c>
+      <c r="AC16" s="11">
+        <f>(R16+45*10)*(1-60/(100+60))</f>
+        <v>671.875</v>
+      </c>
+      <c r="AD16" s="75">
+        <f>(R16+22*10)*(1-80/(100+80))</f>
+        <v>469.44444444444446</v>
+      </c>
+      <c r="AE16" s="76">
+        <f>(R16+34*10)*(1-80/(100+80))</f>
+        <v>536.11111111111109</v>
+      </c>
+      <c r="AF16" s="75">
+        <f>(R16+46*10)*(1-80/(100+80))</f>
+        <v>602.77777777777783</v>
+      </c>
+    </row>
+    <row r="17" spans="7:32" ht="15" thickBot="1">
+      <c r="G17" s="43">
+        <v>3</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" s="59"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="L17" s="47">
+        <v>25</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="N17" s="55">
+        <v>35</v>
+      </c>
+      <c r="O17" s="56"/>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+      <c r="T17" s="64"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="65">
+        <f t="shared" ref="AB17:AB35" si="3">(R17+42*10)*(1-55/(100+55))</f>
+        <v>835.48387096774195</v>
+      </c>
+      <c r="AC17" s="68">
+        <f t="shared" ref="AC17:AC35" si="4">(R17+45*10)*(1-60/(100+60))</f>
+        <v>828.125</v>
+      </c>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75">
+        <f t="shared" ref="AE17:AE35" si="5">(R17+34*10)*(1-80/(100+80))</f>
+        <v>675</v>
+      </c>
+      <c r="AF17" s="75">
+        <f t="shared" ref="AF17:AF35" si="6">(R17+46*10)*(1-80/(100+80))</f>
+        <v>741.66666666666674</v>
+      </c>
+    </row>
+    <row r="18" spans="7:32" ht="15" thickBot="1">
+      <c r="G18" s="43">
+        <v>4</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="L18" s="47">
+        <v>35</v>
+      </c>
+      <c r="M18" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="N18" s="55">
+        <v>45</v>
+      </c>
+      <c r="O18" s="56"/>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="0"/>
+        <v>1575</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="1"/>
+        <v>3150</v>
+      </c>
+      <c r="T18" s="64"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="63">
+        <f t="shared" si="3"/>
+        <v>1287.0967741935483</v>
+      </c>
+      <c r="AC18" s="68">
+        <f t="shared" si="4"/>
+        <v>1265.625</v>
+      </c>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75">
+        <f t="shared" si="5"/>
+        <v>1063.8888888888889</v>
+      </c>
+      <c r="AF18" s="75">
+        <f t="shared" si="6"/>
+        <v>1130.5555555555557</v>
+      </c>
+    </row>
+    <row r="19" spans="7:32" ht="15" thickBot="1">
+      <c r="G19" s="43">
+        <v>5</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="I19" s="59"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="47">
+        <v>35</v>
+      </c>
+      <c r="M19" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="N19" s="55">
+        <v>35</v>
+      </c>
+      <c r="O19" s="56"/>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="0"/>
+        <v>1225</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="1"/>
+        <v>2450</v>
+      </c>
+      <c r="T19" s="64"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="65">
+        <f t="shared" si="3"/>
+        <v>1061.2903225806451</v>
+      </c>
+      <c r="AC19" s="68">
+        <f t="shared" si="4"/>
+        <v>1046.875</v>
+      </c>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75">
+        <f t="shared" si="5"/>
+        <v>869.44444444444446</v>
+      </c>
+      <c r="AF19" s="75">
+        <f t="shared" si="6"/>
+        <v>936.1111111111112</v>
+      </c>
+    </row>
+    <row r="20" spans="7:32" ht="15" thickBot="1">
+      <c r="G20" s="43">
+        <v>6</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="I20" s="59"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="L20" s="47">
+        <v>25</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="N20" s="55">
+        <v>20</v>
+      </c>
+      <c r="O20" s="56"/>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="T20" s="64"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="11">
+        <f t="shared" ref="W20:W30" si="7">(R20+22*10)*(1-40/(100+40))</f>
+        <v>514.28571428571433</v>
+      </c>
+      <c r="X20" s="67">
+        <f t="shared" ref="X20:X30" si="8">(R20+26*10)*(1-40/(100+40))</f>
+        <v>542.85714285714289</v>
+      </c>
+      <c r="Y20" s="65">
+        <f t="shared" ref="Y20:Y31" si="9">(R20+30*10)*(1-45/(100+45))</f>
+        <v>551.72413793103453</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" si="2"/>
+        <v>560.00000000000011</v>
+      </c>
+      <c r="AA20" s="10">
+        <f t="shared" ref="AA20:AA33" si="10">(R20+38*10)*(1-50/(100+50))</f>
+        <v>586.66666666666674</v>
+      </c>
+      <c r="AB20" s="63">
+        <f t="shared" si="3"/>
+        <v>593.54838709677415</v>
+      </c>
+      <c r="AC20" s="11">
+        <f t="shared" si="4"/>
+        <v>593.75</v>
+      </c>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75">
+        <f t="shared" si="5"/>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="AF20" s="75">
+        <f t="shared" si="6"/>
+        <v>533.33333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="7:32" ht="15" thickBot="1">
+      <c r="G21" s="43">
+        <v>7</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="I21" s="59"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="L21" s="47">
+        <v>25</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="N21" s="55">
+        <v>20</v>
+      </c>
+      <c r="O21" s="56"/>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="T21" s="64"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="11">
+        <f t="shared" si="7"/>
+        <v>514.28571428571433</v>
+      </c>
+      <c r="X21" s="67">
+        <f t="shared" si="8"/>
+        <v>542.85714285714289</v>
+      </c>
+      <c r="Y21" s="65">
+        <f t="shared" si="9"/>
+        <v>551.72413793103453</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="2"/>
+        <v>560.00000000000011</v>
+      </c>
+      <c r="AA21" s="10">
+        <f t="shared" si="10"/>
+        <v>586.66666666666674</v>
+      </c>
+      <c r="AB21" s="63">
+        <f t="shared" si="3"/>
+        <v>593.54838709677415</v>
+      </c>
+      <c r="AC21" s="11">
+        <f t="shared" si="4"/>
+        <v>593.75</v>
+      </c>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75">
+        <f t="shared" si="5"/>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="AF21" s="75">
+        <f t="shared" si="6"/>
+        <v>533.33333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="7:32" ht="15" thickBot="1">
+      <c r="G22" s="43">
+        <v>8</v>
+      </c>
+      <c r="H22" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="I22" s="59"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="L22" s="47">
+        <v>15</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="N22" s="55">
+        <v>5</v>
+      </c>
+      <c r="O22" s="56"/>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>2</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="T22" s="67">
+        <f>14*10+R22*(1-30/(100+30))</f>
+        <v>197.69230769230768</v>
+      </c>
+      <c r="U22" s="66">
+        <f t="shared" ref="U22:U28" si="11">18*10+R22*(1-30/(100+30))</f>
+        <v>237.69230769230768</v>
+      </c>
+      <c r="V22" s="63">
+        <f t="shared" ref="V22:V28" si="12">(R22+22*10)*(1-35/(100+35))</f>
+        <v>218.5185185185185</v>
+      </c>
+      <c r="W22" s="11">
+        <f t="shared" si="7"/>
+        <v>210.71428571428572</v>
+      </c>
+      <c r="X22" s="10">
+        <f t="shared" si="8"/>
+        <v>239.28571428571428</v>
+      </c>
+      <c r="Y22" s="63">
+        <f t="shared" si="9"/>
+        <v>258.62068965517244</v>
+      </c>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="11">
+        <f t="shared" si="4"/>
+        <v>328.125</v>
+      </c>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75">
+        <f t="shared" si="5"/>
+        <v>230.55555555555557</v>
+      </c>
+      <c r="AF22" s="75">
+        <f t="shared" si="6"/>
+        <v>297.22222222222223</v>
+      </c>
+    </row>
+    <row r="23" spans="7:32" ht="15" thickBot="1">
+      <c r="G23" s="43">
+        <v>9</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="I23" s="59"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="L23" s="47">
+        <v>25</v>
+      </c>
+      <c r="M23" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="N23" s="55">
+        <v>20</v>
+      </c>
+      <c r="O23" s="56"/>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="T23" s="64"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="11">
+        <f t="shared" si="7"/>
+        <v>514.28571428571433</v>
+      </c>
+      <c r="X23" s="67">
+        <f t="shared" si="8"/>
+        <v>542.85714285714289</v>
+      </c>
+      <c r="Y23" s="65">
+        <f t="shared" si="9"/>
+        <v>551.72413793103453</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="2"/>
+        <v>560.00000000000011</v>
+      </c>
+      <c r="AA23" s="10">
+        <f t="shared" si="10"/>
+        <v>586.66666666666674</v>
+      </c>
+      <c r="AB23" s="63">
+        <f t="shared" si="3"/>
+        <v>593.54838709677415</v>
+      </c>
+      <c r="AC23" s="11">
+        <f t="shared" si="4"/>
+        <v>593.75</v>
+      </c>
+      <c r="AD23" s="75">
+        <f t="shared" ref="AD17:AD35" si="13">(R23+22*10)*(1-80/(100+80))</f>
+        <v>400</v>
+      </c>
+      <c r="AE23" s="75">
+        <f t="shared" si="5"/>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="AF23" s="75">
+        <f t="shared" si="6"/>
+        <v>533.33333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="7:32" ht="15" thickBot="1">
+      <c r="G24" s="43">
+        <v>10</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="I24" s="59"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="L24" s="47">
+        <v>35</v>
+      </c>
+      <c r="M24" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="N24" s="55">
+        <v>70</v>
+      </c>
+      <c r="O24" s="56"/>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="0"/>
+        <v>2450</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="1"/>
+        <v>4900</v>
+      </c>
+      <c r="T24" s="64"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="68">
+        <f t="shared" si="4"/>
+        <v>1812.5</v>
+      </c>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75">
+        <f t="shared" si="5"/>
+        <v>1550</v>
+      </c>
+      <c r="AF24" s="75">
+        <f t="shared" si="6"/>
+        <v>1616.6666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="7:32" ht="15" thickBot="1">
+      <c r="G25" s="43">
+        <v>11</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="I25" s="59"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L25" s="47">
+        <v>35</v>
+      </c>
+      <c r="M25" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="N25" s="55">
+        <v>50</v>
+      </c>
+      <c r="O25" s="56"/>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+      <c r="T25" s="64"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="68">
+        <f t="shared" si="4"/>
+        <v>1375</v>
+      </c>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75">
+        <f t="shared" si="5"/>
+        <v>1161.1111111111111</v>
+      </c>
+      <c r="AF25" s="75">
+        <f t="shared" si="6"/>
+        <v>1227.7777777777778</v>
+      </c>
+    </row>
+    <row r="26" spans="7:32" ht="15" thickBot="1">
+      <c r="G26" s="43">
+        <v>13</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="I26" s="59"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L26" s="47">
+        <v>35</v>
+      </c>
+      <c r="M26" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="N26" s="55">
+        <v>40</v>
+      </c>
+      <c r="O26" s="56"/>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="T26" s="64"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="68">
+        <f t="shared" si="4"/>
+        <v>1156.25</v>
+      </c>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75">
+        <f t="shared" si="5"/>
+        <v>966.66666666666674</v>
+      </c>
+      <c r="AF26" s="76">
+        <f t="shared" si="6"/>
+        <v>1033.3333333333335</v>
+      </c>
+    </row>
+    <row r="27" spans="7:32" ht="15" thickBot="1">
+      <c r="G27" s="43">
+        <v>14</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="I27" s="59"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L27" s="47">
+        <v>15</v>
+      </c>
+      <c r="M27" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="N27" s="55">
+        <v>10</v>
+      </c>
+      <c r="O27" s="56"/>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="T27" s="64">
+        <f>14*10+R27*(1-30/(100+30))</f>
+        <v>255.38461538461536</v>
+      </c>
+      <c r="U27" s="65">
+        <f t="shared" si="11"/>
+        <v>295.38461538461536</v>
+      </c>
+      <c r="V27" s="63">
+        <f t="shared" si="12"/>
+        <v>274.07407407407408</v>
+      </c>
+      <c r="W27" s="11">
+        <f t="shared" si="7"/>
+        <v>264.28571428571428</v>
+      </c>
+      <c r="X27" s="10">
+        <f t="shared" si="8"/>
+        <v>292.85714285714289</v>
+      </c>
+      <c r="Y27" s="63">
+        <f t="shared" si="9"/>
+        <v>310.34482758620692</v>
+      </c>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="11">
+        <f t="shared" si="4"/>
+        <v>375</v>
+      </c>
+      <c r="AD27" s="75">
+        <f t="shared" si="13"/>
+        <v>205.55555555555557</v>
+      </c>
+      <c r="AE27" s="75">
+        <f t="shared" si="5"/>
+        <v>272.22222222222223</v>
+      </c>
+      <c r="AF27" s="75">
+        <f t="shared" si="6"/>
+        <v>338.88888888888891</v>
+      </c>
+    </row>
+    <row r="28" spans="7:32" ht="15" thickBot="1">
+      <c r="G28" s="43">
+        <v>15</v>
+      </c>
+      <c r="H28" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="I28" s="59"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L28" s="47">
+        <v>15</v>
+      </c>
+      <c r="M28" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="N28" s="55">
+        <v>15</v>
+      </c>
+      <c r="O28" s="56"/>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="T28" s="64">
+        <f>14*10+R28*(1-30/(100+30))</f>
+        <v>313.07692307692309</v>
+      </c>
+      <c r="U28" s="66">
+        <f t="shared" si="11"/>
+        <v>353.07692307692309</v>
+      </c>
+      <c r="V28" s="65">
+        <f t="shared" si="12"/>
+        <v>329.62962962962962</v>
+      </c>
+      <c r="W28" s="68">
+        <f t="shared" si="7"/>
+        <v>317.85714285714289</v>
+      </c>
+      <c r="X28" s="10">
+        <f t="shared" si="8"/>
+        <v>346.42857142857144</v>
+      </c>
+      <c r="Y28" s="63">
+        <f t="shared" si="9"/>
+        <v>362.06896551724139</v>
+      </c>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="11">
+        <f t="shared" si="4"/>
+        <v>421.875</v>
+      </c>
+      <c r="AD28" s="76">
+        <f t="shared" si="13"/>
+        <v>247.22222222222223</v>
+      </c>
+      <c r="AE28" s="75">
+        <f t="shared" si="5"/>
+        <v>313.88888888888891</v>
+      </c>
+      <c r="AF28" s="75">
+        <f t="shared" si="6"/>
+        <v>380.5555555555556</v>
+      </c>
+    </row>
+    <row r="29" spans="7:32" ht="15" thickBot="1">
+      <c r="G29" s="43">
+        <v>16</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="I29" s="59"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L29" s="47">
+        <v>35</v>
+      </c>
+      <c r="M29" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="N29" s="55">
+        <v>35</v>
+      </c>
+      <c r="O29" s="56"/>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="0"/>
+        <v>1225</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="1"/>
+        <v>2450</v>
+      </c>
+      <c r="T29" s="64"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="65">
+        <f t="shared" si="3"/>
+        <v>1061.2903225806451</v>
+      </c>
+      <c r="AC29" s="68">
+        <f t="shared" si="4"/>
+        <v>1046.875</v>
+      </c>
+      <c r="AD29" s="75">
+        <f t="shared" si="13"/>
+        <v>802.77777777777783</v>
+      </c>
+      <c r="AE29" s="75">
+        <f t="shared" si="5"/>
+        <v>869.44444444444446</v>
+      </c>
+      <c r="AF29" s="75">
+        <f t="shared" si="6"/>
+        <v>936.1111111111112</v>
+      </c>
+    </row>
+    <row r="30" spans="7:32" ht="15" thickBot="1">
+      <c r="G30" s="43">
+        <v>17</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="I30" s="59"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L30" s="47">
+        <v>15</v>
+      </c>
+      <c r="M30" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="N30" s="55">
+        <v>20</v>
+      </c>
+      <c r="O30" s="56"/>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>2</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="T30" s="64"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="11">
+        <f t="shared" si="7"/>
+        <v>371.42857142857144</v>
+      </c>
+      <c r="X30" s="67">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="Y30" s="65">
+        <f t="shared" si="9"/>
+        <v>413.79310344827587</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="2"/>
+        <v>426.66666666666674</v>
+      </c>
+      <c r="AA30" s="10">
+        <f t="shared" si="10"/>
+        <v>453.33333333333337</v>
+      </c>
+      <c r="AB30" s="63">
+        <f t="shared" si="3"/>
+        <v>464.51612903225805</v>
+      </c>
+      <c r="AC30" s="11">
+        <f t="shared" si="4"/>
+        <v>468.75</v>
+      </c>
+      <c r="AD30" s="75">
+        <f t="shared" si="13"/>
+        <v>288.88888888888891</v>
+      </c>
+      <c r="AE30" s="75">
+        <f t="shared" si="5"/>
+        <v>355.55555555555554</v>
+      </c>
+      <c r="AF30" s="75">
+        <f t="shared" si="6"/>
+        <v>422.22222222222223</v>
+      </c>
+    </row>
+    <row r="31" spans="7:32" ht="15" thickBot="1">
+      <c r="G31" s="43">
+        <v>18</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="I31" s="59"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L31" s="47">
+        <v>25</v>
+      </c>
+      <c r="M31" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="N31" s="55">
+        <v>25</v>
+      </c>
+      <c r="O31" s="56"/>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>2</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+      <c r="T31" s="64"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="65">
+        <f t="shared" si="9"/>
+        <v>637.93103448275872</v>
+      </c>
+      <c r="Z31" s="68">
+        <f t="shared" si="2"/>
+        <v>643.33333333333337</v>
+      </c>
+      <c r="AA31" s="10">
+        <f t="shared" si="10"/>
+        <v>670.00000000000011</v>
+      </c>
+      <c r="AB31" s="63">
+        <f t="shared" si="3"/>
+        <v>674.19354838709671</v>
+      </c>
+      <c r="AC31" s="11">
+        <f t="shared" si="4"/>
+        <v>671.875</v>
+      </c>
+      <c r="AD31" s="75">
+        <f t="shared" si="13"/>
+        <v>469.44444444444446</v>
+      </c>
+      <c r="AE31" s="75">
+        <f t="shared" si="5"/>
+        <v>536.11111111111109</v>
+      </c>
+      <c r="AF31" s="75">
+        <f t="shared" si="6"/>
+        <v>602.77777777777783</v>
+      </c>
+    </row>
+    <row r="32" spans="7:32" ht="15" thickBot="1">
+      <c r="G32" s="43">
+        <v>19</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="I32" s="59"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" s="47">
+        <v>35</v>
+      </c>
+      <c r="M32" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="N32" s="55">
+        <v>40</v>
+      </c>
+      <c r="O32" s="56"/>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>2</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="T32" s="64"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="68">
+        <f t="shared" si="4"/>
+        <v>1156.25</v>
+      </c>
+      <c r="AD32" s="75">
+        <f t="shared" si="13"/>
+        <v>900</v>
+      </c>
+      <c r="AE32" s="75">
+        <f t="shared" si="5"/>
+        <v>966.66666666666674</v>
+      </c>
+      <c r="AF32" s="76">
+        <f t="shared" si="6"/>
+        <v>1033.3333333333335</v>
+      </c>
+    </row>
+    <row r="33" spans="7:32" ht="15" thickBot="1">
+      <c r="G33" s="43">
+        <v>20</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="I33" s="59"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" s="47">
+        <v>25</v>
+      </c>
+      <c r="M33" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="N33" s="55">
+        <v>30</v>
+      </c>
+      <c r="O33" s="56"/>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>2</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="T33" s="64"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="67">
+        <f t="shared" si="10"/>
+        <v>753.33333333333337</v>
+      </c>
+      <c r="AB33" s="65">
+        <f t="shared" si="3"/>
+        <v>754.83870967741939</v>
+      </c>
+      <c r="AC33" s="11">
+        <f t="shared" si="4"/>
+        <v>750</v>
+      </c>
+      <c r="AD33" s="75">
+        <f t="shared" si="13"/>
+        <v>538.88888888888891</v>
+      </c>
+      <c r="AE33" s="75">
+        <f t="shared" si="5"/>
+        <v>605.55555555555554</v>
+      </c>
+      <c r="AF33" s="75">
+        <f t="shared" si="6"/>
+        <v>672.22222222222229</v>
+      </c>
+    </row>
+    <row r="34" spans="7:32" ht="15" thickBot="1">
+      <c r="G34" s="43">
+        <v>21</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="I34" s="59"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="L34" s="47">
+        <v>35</v>
+      </c>
+      <c r="M34" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="N34" s="55">
+        <v>40</v>
+      </c>
+      <c r="O34" s="56"/>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="T34" s="64"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="68">
+        <f t="shared" si="4"/>
+        <v>1156.25</v>
+      </c>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="75">
+        <f t="shared" si="5"/>
+        <v>966.66666666666674</v>
+      </c>
+      <c r="AF34" s="75">
+        <f t="shared" si="6"/>
+        <v>1033.3333333333335</v>
+      </c>
+    </row>
+    <row r="35" spans="7:32" ht="15" thickBot="1">
+      <c r="G35" s="43">
+        <v>22</v>
+      </c>
+      <c r="H35" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="I35" s="59"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="L35" s="47">
+        <v>25</v>
+      </c>
+      <c r="M35" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="N35" s="55">
+        <v>35</v>
+      </c>
+      <c r="O35" s="56"/>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>2</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+      <c r="T35" s="69"/>
+      <c r="U35" s="70"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="71">
+        <f t="shared" si="3"/>
+        <v>835.48387096774195</v>
+      </c>
+      <c r="AC35" s="72">
+        <f t="shared" si="4"/>
+        <v>828.125</v>
+      </c>
+      <c r="AD35" s="77"/>
+      <c r="AE35" s="77">
+        <f t="shared" si="5"/>
+        <v>675</v>
+      </c>
+      <c r="AF35" s="77">
+        <f t="shared" si="6"/>
+        <v>741.66666666666674</v>
+      </c>
+    </row>
+    <row r="36" spans="7:32" ht="15" thickBot="1">
+      <c r="G36" s="43">
+        <v>23</v>
+      </c>
+      <c r="H36" s="55"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="43"/>
+    </row>
+    <row r="37" spans="7:32" ht="15" thickBot="1">
+      <c r="G37" s="43">
+        <v>24</v>
+      </c>
+      <c r="H37" s="55"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="43"/>
+      <c r="S37" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="T37" s="1">
+        <f>MAX(T15:T35)</f>
+        <v>313.07692307692309</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" ref="V37:Z37" si="14">MAX(V15:V35)</f>
+        <v>329.62962962962962</v>
+      </c>
+      <c r="W37" s="1">
+        <f t="shared" si="14"/>
+        <v>514.28571428571433</v>
+      </c>
+      <c r="X37" s="1">
+        <f t="shared" si="14"/>
+        <v>542.85714285714289</v>
+      </c>
+      <c r="Y37" s="1">
+        <f t="shared" si="14"/>
+        <v>637.93103448275872</v>
+      </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="14"/>
+        <v>643.33333333333337</v>
+      </c>
+    </row>
+    <row r="38" spans="7:32" ht="15" thickBot="1">
+      <c r="G38" s="43">
+        <v>25</v>
+      </c>
+      <c r="H38" s="55"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="43"/>
+      <c r="S38" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="T38" s="1">
+        <f>MIN(T15:T35)</f>
+        <v>197.69230769230768</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" ref="V38:Z38" si="15">MIN(V15:V35)</f>
+        <v>218.5185185185185</v>
+      </c>
+      <c r="W38" s="1">
+        <f t="shared" si="15"/>
+        <v>210.71428571428572</v>
+      </c>
+      <c r="X38" s="1">
+        <f t="shared" si="15"/>
+        <v>239.28571428571428</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" si="15"/>
+        <v>258.62068965517244</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="15"/>
+        <v>426.66666666666674</v>
+      </c>
+    </row>
+    <row r="39" spans="7:32" ht="15" thickBot="1">
+      <c r="G39" s="43">
+        <v>26</v>
+      </c>
+      <c r="H39" s="55"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="43"/>
+      <c r="S39" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="T39" s="1">
+        <f>AVERAGE(T15:T35)</f>
+        <v>255.38461538461536</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" ref="V39:Z39" si="16">AVERAGE(V15:V35)</f>
+        <v>274.07407407407408</v>
+      </c>
+      <c r="W39" s="1">
+        <f t="shared" si="16"/>
+        <v>371.42857142857144</v>
+      </c>
+      <c r="X39" s="1">
+        <f t="shared" si="16"/>
+        <v>400</v>
+      </c>
+      <c r="Y39" s="1">
+        <f t="shared" si="16"/>
+        <v>458.62068965517244</v>
+      </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="16"/>
+        <v>565.55555555555554</v>
+      </c>
+    </row>
+    <row r="40" spans="7:32" ht="15" thickBot="1">
+      <c r="G40" s="43">
+        <v>27</v>
+      </c>
+      <c r="H40" s="55"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="43"/>
+    </row>
+    <row r="41" spans="7:32">
+      <c r="G41" s="43">
+        <v>28</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" s="48">
+        <v>15</v>
+      </c>
+      <c r="M41" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="N41" s="55">
+        <v>5</v>
+      </c>
+      <c r="O41" s="56"/>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>2</v>
+      </c>
+      <c r="R41" s="1">
+        <f>N41*L41*P41</f>
+        <v>75</v>
+      </c>
+      <c r="S41" s="1">
+        <f>N41*Q41*L41</f>
+        <v>150</v>
+      </c>
+      <c r="T41" s="73">
+        <f>14*10+R41*(1-30/(100+30))</f>
+        <v>197.69230769230768</v>
+      </c>
+      <c r="U41" s="52"/>
+      <c r="V41" s="1">
+        <f>14*10+R41*(1-30/(100+30))</f>
+        <v>197.69230769230768</v>
+      </c>
+      <c r="W41" s="1">
+        <f>(R15+22*10)*(1-40/(100+40))</f>
+        <v>264.28571428571428</v>
+      </c>
+    </row>
+    <row r="46" spans="7:32">
+      <c r="H46" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="58"/>
+    </row>
+    <row r="47" spans="7:32">
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="58"/>
+    </row>
+    <row r="48" spans="7:32">
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+    </row>
+    <row r="49" spans="4:17">
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+    </row>
+    <row r="50" spans="4:17">
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="58"/>
+    </row>
+    <row r="55" spans="4:17" ht="21">
+      <c r="D55" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="61" spans="4:17" ht="17.399999999999999">
+      <c r="E61" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F61" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="H61" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J61" s="51" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="62" spans="4:17" ht="17.399999999999999">
+      <c r="E62" s="1">
+        <v>10</v>
+      </c>
+      <c r="F62" s="40">
+        <v>2</v>
+      </c>
+      <c r="G62" s="41">
+        <v>4</v>
+      </c>
+      <c r="H62" s="50">
+        <f t="shared" ref="H62:H75" si="17">E62+G62</f>
+        <v>14</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J62" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="4:17" ht="17.399999999999999">
+      <c r="E63" s="1">
+        <v>10</v>
+      </c>
+      <c r="F63" s="40">
+        <v>3</v>
+      </c>
+      <c r="G63" s="41">
+        <v>4</v>
+      </c>
+      <c r="H63" s="50">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J63" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="4:17" ht="17.399999999999999">
+      <c r="E64" s="1">
+        <v>10</v>
+      </c>
+      <c r="F64" s="40">
+        <v>4</v>
+      </c>
+      <c r="G64" s="41">
+        <v>8</v>
+      </c>
+      <c r="H64" s="50">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J64" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10" ht="17.399999999999999">
+      <c r="E65" s="1">
+        <v>10</v>
+      </c>
+      <c r="F65" s="40">
+        <v>5</v>
+      </c>
+      <c r="G65" s="41">
+        <v>12</v>
+      </c>
+      <c r="H65" s="50">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J65" s="50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10" ht="17.399999999999999">
+      <c r="E66" s="1">
+        <v>10</v>
+      </c>
+      <c r="F66" s="40">
+        <v>6</v>
+      </c>
+      <c r="G66" s="41">
+        <v>12</v>
+      </c>
+      <c r="H66" s="50">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J66" s="50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10" ht="17.399999999999999">
+      <c r="E67" s="1">
+        <v>10</v>
+      </c>
+      <c r="F67" s="40">
+        <v>7</v>
+      </c>
+      <c r="G67" s="41">
+        <v>16</v>
+      </c>
+      <c r="H67" s="50">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J67" s="50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10" ht="17.399999999999999">
+      <c r="E68" s="1">
+        <v>10</v>
+      </c>
+      <c r="F68" s="40">
+        <v>8</v>
+      </c>
+      <c r="G68" s="41">
+        <v>20</v>
+      </c>
+      <c r="H68" s="50">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J68" s="50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="5:10" ht="17.399999999999999">
+      <c r="E69" s="1">
+        <v>10</v>
+      </c>
+      <c r="F69" s="40">
+        <v>9</v>
+      </c>
+      <c r="G69" s="41">
+        <v>20</v>
+      </c>
+      <c r="H69" s="50">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J69" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10" ht="17.399999999999999">
+      <c r="E70" s="1">
+        <v>10</v>
+      </c>
+      <c r="F70" s="40">
+        <v>10</v>
+      </c>
+      <c r="G70" s="41">
+        <v>24</v>
+      </c>
+      <c r="H70" s="50">
+        <f t="shared" si="17"/>
+        <v>34</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J70" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10" ht="17.399999999999999">
+      <c r="E71" s="1">
+        <v>10</v>
+      </c>
+      <c r="F71" s="40">
+        <v>11</v>
+      </c>
+      <c r="G71" s="41">
+        <v>28</v>
+      </c>
+      <c r="H71" s="50">
+        <f t="shared" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J71" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10" ht="17.399999999999999">
+      <c r="E72" s="1">
+        <v>10</v>
+      </c>
+      <c r="F72" s="40">
+        <v>12</v>
+      </c>
+      <c r="G72" s="41">
+        <v>28</v>
+      </c>
+      <c r="H72" s="50">
+        <f t="shared" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J72" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="5:10" ht="17.399999999999999">
+      <c r="E73" s="1">
+        <v>10</v>
+      </c>
+      <c r="F73" s="40">
+        <v>13</v>
+      </c>
+      <c r="G73" s="41">
+        <v>32</v>
+      </c>
+      <c r="H73" s="50">
+        <f t="shared" si="17"/>
+        <v>42</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J73" s="50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="5:10" ht="17.399999999999999">
+      <c r="E74" s="1">
+        <v>10</v>
+      </c>
+      <c r="F74" s="40">
+        <v>14</v>
+      </c>
+      <c r="G74" s="41">
+        <v>36</v>
+      </c>
+      <c r="H74" s="50">
+        <f t="shared" si="17"/>
+        <v>46</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J74" s="50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="5:10" ht="17.399999999999999">
+      <c r="E75" s="1">
+        <v>10</v>
+      </c>
+      <c r="F75" s="40">
+        <v>15</v>
+      </c>
+      <c r="G75" s="41">
+        <v>36</v>
+      </c>
+      <c r="H75" s="50">
+        <f t="shared" si="17"/>
+        <v>46</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J75" s="50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="5:10">
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="79" spans="5:10">
+      <c r="F79" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6">
+      <c r="E81" s="1">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6">
+      <c r="F82" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6">
+      <c r="F83" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6">
+      <c r="F84" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6">
+      <c r="F85" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6">
+      <c r="E87" s="1">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6">
+      <c r="F88" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6">
+      <c r="F89" s="27" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6">
+      <c r="F90" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6">
+      <c r="E92" s="1">
+        <v>4</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6">
+      <c r="F93" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="H46:Q50"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Disign/Monster .xlsx
+++ b/Disign/Monster .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a3997\Documents\GitHub\Hyo_swEngineering10\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8092DC1-B106-4CD5-99AF-D18F9C221B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3383AB1-36D3-4A8D-AF31-84441F1FECEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VerControl" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="416">
   <si>
     <t>일반 몬스터에 비해 지능과 공격력, 보상이 좀 더 좋고, 체력또한 10배이며, 6)와 같은 상태이상을 플레이어에게 건다.
 일정 확률에 따라 엘리트 몬스터가 한마리씩 나온다.
@@ -391,9 +391,6 @@
     <t>내면3</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
     <t>마비의</t>
   </si>
   <si>
@@ -829,13 +826,7 @@
     <t>원한체 잡몹</t>
   </si>
   <si>
-    <t>1페이즈</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -6이하</t>
-  </si>
-  <si>
-    <t>2페이즈</t>
   </si>
   <si>
     <t>어둠슬라임</t>
@@ -1366,7 +1357,82 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>도트딜(3초에 한번씩 해당 공격력이 깎임)</t>
+    <t>4페이즈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3페이즈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 1스테이지 맵탐방을 하면서 스위치를 모두 작동시켜야 한다.
+- 스위치를 모두 작동 시켰다면 2페이즈 광견병 걸린 킹냥이가 나온다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 3스테이지 맵탐방을 하면서 스위치를 모두 작동시켜야 한다.
+- 스위치를 모두 작동 시켰다면 4페이즈 광견병 걸린 슬라임이 나온다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 5스테이지 맵탐방을 하면서 스위치를 모두 작동시켜야 한다.
+- 스위치를 모두 작동 시켰다면 6페이즈 플레이어 분신이 다시 나온다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 원한체가 똘똘 뭉쳐 플레이어의 분신이 된다.
+- 플레이어가 쓰는 공격을 따라 쓰고 대쉬등을 한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 플레이어가 써왔던 무기들이 플레이어 위치에 가불기마냥 꽂힌다.
+- 회피방법: 점프나 대쉬 사용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 의문의 힘이 맵을 붕괴시킨다. 맵이 플레이어를 공격한다.
+- 공격이 모두 끝나면 주인공과 분신은 같이 봉인되는 컨셉이다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만, 의문의 힘이 주인공만을 해당 맵을 빠져나오게 한다.
+의문의 힘에 주인공은 당황하고, 
+to be continued.. 가 나오면서 게임이 마무리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 견디기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임이 버틸 때 맞은 공격력의 * 0.1을 플레이어한테 공격을 반사한다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동하기 전에 대기하는 시간</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkCoolTime</t>
+  </si>
+  <si>
+    <t>공격 대기 시간</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1491,7 +1557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1637,21 +1703,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1722,7 +1773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1861,13 +1912,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1885,23 +1933,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1909,19 +1942,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1945,17 +1969,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3636,13 +3678,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>297180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3299460</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>2743199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4732,6 +4774,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1159213</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>648511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2126953</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>1380031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5819E91-7DC6-4B49-837F-B56A2B4D8CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3356043" y="57887681"/>
+          <a:ext cx="967740" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1094362</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>559340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2084962</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>1435640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0B2601-B4E9-4A6E-A123-4E44D3FB56C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3291192" y="59768361"/>
+          <a:ext cx="990600" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1037618</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>181455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2310320</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1713012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530FAB68-C99C-5C37-EEA0-4637CF26ADEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3234448" y="61344115"/>
+          <a:ext cx="1272702" cy="1531557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1013297</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>36546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2026595</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1255939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039C447D-43A9-42A0-88C7-48E4879AE8B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3210127" y="54243929"/>
+          <a:ext cx="1013298" cy="1219393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5046,14 +5264,14 @@
     <row r="2" spans="1:8" ht="23.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="H2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5061,19 +5279,19 @@
         <v>80</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>46</v>
@@ -5081,13 +5299,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>45</v>
@@ -5115,7 +5333,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="F10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5130,8 +5348,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:K80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
@@ -5159,7 +5377,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -5167,10 +5385,10 @@
         <v>43</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>44</v>
@@ -5178,10 +5396,10 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>65</v>
@@ -5198,7 +5416,7 @@
         <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -5230,19 +5448,20 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="36">
+        <v>3</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="36" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="3"/>
@@ -5252,7 +5471,7 @@
         <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" s="11">
         <v>4</v>
@@ -5261,7 +5480,7 @@
         <v>77</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -5270,7 +5489,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="11">
         <v>5</v>
@@ -5297,7 +5516,7 @@
         <v>69</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -5306,7 +5525,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="14">
         <v>7</v>
@@ -5320,6 +5539,21 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:11">
+      <c r="B16" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:11">
@@ -5336,7 +5570,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -5345,13 +5579,13 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>26</v>
@@ -5360,10 +5594,10 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>65</v>
@@ -5380,7 +5614,7 @@
         <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D24" s="11">
         <v>1</v>
@@ -5397,7 +5631,7 @@
         <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
@@ -5411,10 +5645,10 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="11">
         <v>3</v>
@@ -5448,7 +5682,7 @@
         <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -5457,7 +5691,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -5465,7 +5699,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -5473,10 +5707,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>33</v>
@@ -5484,10 +5718,10 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>65</v>
@@ -5504,7 +5738,7 @@
         <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D36" s="11">
         <v>1</v>
@@ -5538,7 +5772,7 @@
         <v>85</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D38" s="14">
         <v>3</v>
@@ -5547,7 +5781,7 @@
         <v>85</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:7">
@@ -5555,7 +5789,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -5563,10 +5797,10 @@
         <v>36</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>34</v>
@@ -5574,10 +5808,10 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>65</v>
@@ -5603,21 +5837,21 @@
         <v>74</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>35</v>
@@ -5625,7 +5859,7 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>38</v>
@@ -5634,24 +5868,24 @@
         <v>3</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="28.8">
       <c r="B50" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D50" s="14">
         <v>4</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>10</v>
@@ -5662,7 +5896,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -5670,7 +5904,7 @@
         <v>41</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>33</v>
@@ -5678,7 +5912,7 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>65</v>
@@ -5701,7 +5935,7 @@
         <v>61</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="43.2">
@@ -5734,32 +5968,32 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>65</v>
@@ -5776,7 +6010,7 @@
         <v>101</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
@@ -5785,21 +6019,21 @@
         <v>87</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D71" s="11">
         <v>2</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>18</v>
@@ -5824,36 +6058,36 @@
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D73" s="11">
         <v>4</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D74" s="14">
         <v>5</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="2:7">
@@ -5890,23 +6124,23 @@
   <sheetData>
     <row r="3" spans="2:6" ht="21">
       <c r="B3" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>95</v>
@@ -5920,7 +6154,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="274.8" customHeight="1">
@@ -5928,7 +6162,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="162" customHeight="1">
@@ -5939,88 +6173,88 @@
         <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="252.6" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="136.80000000000001" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="170.4" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="187.8" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="156.6" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="183" customHeight="1">
       <c r="B15" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="192" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -6041,10 +6275,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:K70"/>
+  <dimension ref="B2:K74"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A59" zoomScale="94" zoomScaleNormal="94" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
@@ -6062,38 +6296,38 @@
   <sheetData>
     <row r="2" spans="2:11" ht="21">
       <c r="B2" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>99</v>
@@ -6101,10 +6335,10 @@
     </row>
     <row r="6" spans="2:11" ht="74.400000000000006" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
@@ -6113,10 +6347,10 @@
         <v>85</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>104</v>
@@ -6124,10 +6358,10 @@
     </row>
     <row r="7" spans="2:11" ht="64.2" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
@@ -6136,10 +6370,10 @@
         <v>84</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>104</v>
@@ -6147,10 +6381,10 @@
     </row>
     <row r="8" spans="2:11" ht="63.6" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>70</v>
@@ -6159,13 +6393,13 @@
         <v>84</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>104</v>
@@ -6173,7 +6407,7 @@
     </row>
     <row r="9" spans="2:11" ht="61.8" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>91</v>
@@ -6185,10 +6419,10 @@
         <v>85</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>104</v>
@@ -6196,7 +6430,7 @@
     </row>
     <row r="10" spans="2:11" ht="58.8" customHeight="1">
       <c r="B10" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24" t="s">
@@ -6209,10 +6443,10 @@
         <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24" t="s">
@@ -6254,7 +6488,7 @@
     </row>
     <row r="21" spans="2:10" ht="62.4" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>91</v>
@@ -6266,10 +6500,10 @@
         <v>85</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>104</v>
@@ -6277,7 +6511,7 @@
     </row>
     <row r="22" spans="2:10" ht="67.2" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>91</v>
@@ -6289,15 +6523,15 @@
         <v>84</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="69.599999999999994" customHeight="1">
       <c r="B23" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>91</v>
@@ -6309,15 +6543,15 @@
         <v>85</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="76.2" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>91</v>
@@ -6329,15 +6563,15 @@
         <v>84</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="75" customHeight="1">
       <c r="B25" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>91</v>
@@ -6349,15 +6583,15 @@
         <v>84</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="80.400000000000006" customHeight="1">
       <c r="B26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>91</v>
@@ -6369,19 +6603,19 @@
         <v>84</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="89.4" customHeight="1"/>
     <row r="28" spans="2:10" ht="87" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>71</v>
@@ -6390,10 +6624,10 @@
         <v>85</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>104</v>
@@ -6401,10 +6635,10 @@
     </row>
     <row r="29" spans="2:10" ht="106.2" customHeight="1">
       <c r="B29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>71</v>
@@ -6413,21 +6647,21 @@
         <v>84</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="96.6" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>86</v>
@@ -6436,18 +6670,18 @@
         <v>84</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="95.4" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>71</v>
@@ -6456,18 +6690,18 @@
         <v>85</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="105" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>70</v>
@@ -6476,44 +6710,44 @@
         <v>84</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="81" customHeight="1">
@@ -6521,7 +6755,7 @@
         <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>86</v>
@@ -6530,7 +6764,7 @@
         <v>84</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H39" s="1">
         <v>2</v>
@@ -6538,34 +6772,34 @@
     </row>
     <row r="40" spans="2:10" ht="70.8" customHeight="1">
       <c r="B40" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="81.599999999999994" customHeight="1">
       <c r="I41" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="77.400000000000006" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="111.6" customHeight="1">
       <c r="B43" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>58</v>
@@ -6573,29 +6807,29 @@
     </row>
     <row r="44" spans="2:10" ht="111.6" customHeight="1">
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>103</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="68.400000000000006" customHeight="1">
       <c r="B45" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="67.2" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>105</v>
@@ -6604,34 +6838,34 @@
         <v>74</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="69.599999999999994" customHeight="1">
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>74</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="78" customHeight="1">
       <c r="G48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="79.8" customHeight="1">
       <c r="B52" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="79.2" customHeight="1">
@@ -6642,26 +6876,26 @@
         <v>90</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="83.4" customHeight="1">
       <c r="B54" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="69.599999999999994" customHeight="1">
       <c r="G55" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I55" s="23" t="s">
         <v>50</v>
@@ -6669,7 +6903,7 @@
     </row>
     <row r="56" spans="2:10" ht="85.8" customHeight="1">
       <c r="B56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>107</v>
@@ -6680,7 +6914,7 @@
     </row>
     <row r="57" spans="2:10" ht="81.599999999999994" customHeight="1">
       <c r="B57" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G57" s="23"/>
       <c r="I57" s="1" t="s">
@@ -6689,7 +6923,7 @@
     </row>
     <row r="58" spans="2:10" ht="94.2" customHeight="1">
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>15</v>
@@ -6697,7 +6931,7 @@
     </row>
     <row r="59" spans="2:10" ht="105" customHeight="1">
       <c r="B59" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>103</v>
@@ -6706,7 +6940,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="114" customHeight="1"/>
+    <row r="60" spans="2:10" ht="114" customHeight="1">
+      <c r="G60" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
     <row r="61" spans="2:10" ht="97.8" customHeight="1"/>
     <row r="62" spans="2:10" ht="121.8" customHeight="1"/>
     <row r="64" spans="2:10" ht="91.2" customHeight="1">
@@ -6723,21 +6964,21 @@
         <v>84</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H64" s="28" t="s">
         <v>93</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>253</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="7:10" ht="98.4" customHeight="1">
       <c r="G65" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H65" s="28" t="s">
         <v>93</v>
@@ -6751,36 +6992,77 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="7:10" ht="238.8" customHeight="1">
-      <c r="G67" s="1" t="s">
-        <v>259</v>
-      </c>
+    <row r="67" spans="7:10" ht="101.4" customHeight="1">
       <c r="H67" s="27" t="s">
-        <v>109</v>
+        <v>404</v>
       </c>
       <c r="I67" s="26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" ht="101.4" customHeight="1">
+      <c r="I68" s="26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" ht="238.8" customHeight="1">
+      <c r="G69" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="I69" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10" ht="155.4" customHeight="1">
-      <c r="G68" s="1" t="s">
+      <c r="J69" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" ht="155.4" customHeight="1">
+      <c r="G70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H68" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10" ht="153.6" customHeight="1">
-      <c r="G69" s="1" t="s">
+      <c r="H70" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" ht="153.6" customHeight="1">
+      <c r="G71" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="7:10" ht="154.19999999999999" customHeight="1">
-      <c r="G70" s="1" t="s">
+      <c r="H71" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" ht="154.19999999999999" customHeight="1">
+      <c r="G72" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" ht="109.8" customHeight="1">
+      <c r="H73" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10" ht="114" customHeight="1">
+      <c r="I74" s="23" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -6796,7 +7078,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:B19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -6809,32 +7091,32 @@
   <sheetData>
     <row r="2" spans="2:2" ht="21">
       <c r="B2" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -6859,7 +7141,7 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6874,7 +7156,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:P25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="H5" sqref="H5:P5"/>
     </sheetView>
   </sheetViews>
@@ -6888,16 +7170,16 @@
   <sheetData>
     <row r="2" spans="2:16" ht="21">
       <c r="B2" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -6926,10 +7208,10 @@
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -6938,7 +7220,7 @@
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="32">
         <v>0.2</v>
@@ -7082,7 +7364,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C20" s="34">
         <v>0.2</v>
@@ -7112,7 +7394,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7127,8 +7409,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:U47"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView topLeftCell="E23" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -7146,64 +7428,64 @@
   <sheetData>
     <row r="2" spans="2:19" ht="21">
       <c r="B2" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="2:19">
       <c r="J6" s="42" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="14.4">
       <c r="B7" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N7" s="16" t="s">
         <v>68</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P7" s="16" t="s">
         <v>99</v>
@@ -7212,10 +7494,10 @@
         <v>73</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="14.4">
@@ -7227,7 +7509,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="11">
         <v>3</v>
@@ -7257,7 +7539,7 @@
         <v>300</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="14">
         <v>500</v>
@@ -7278,7 +7560,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="11">
         <v>3</v>
@@ -7308,7 +7590,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="11">
         <v>4</v>
@@ -7338,7 +7620,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="11">
         <v>4</v>
@@ -7368,7 +7650,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="11">
         <v>6</v>
@@ -7398,7 +7680,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="11">
         <v>4</v>
@@ -7428,7 +7710,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="11">
         <v>1</v>
@@ -7458,7 +7740,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="36">
         <v>0</v>
@@ -7473,7 +7755,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="36">
         <v>0</v>
@@ -7488,7 +7770,7 @@
         <v>35</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="39">
         <v>0</v>
@@ -7501,59 +7783,59 @@
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="2:19">
       <c r="S21" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="14.4">
       <c r="B22" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>99</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N22" s="16" t="s">
         <v>68</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P22" s="16" t="s">
         <v>99</v>
@@ -7562,10 +7844,10 @@
         <v>73</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="14.4">
@@ -7577,7 +7859,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="11">
         <v>4</v>
@@ -7598,7 +7880,7 @@
         <v>22</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N23" s="13">
         <v>19</v>
@@ -7607,7 +7889,7 @@
         <v>600</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="14">
         <v>700</v>
@@ -7628,7 +7910,7 @@
         <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" s="11">
         <v>5</v>
@@ -7658,7 +7940,7 @@
         <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F25" s="11">
         <v>6</v>
@@ -7688,7 +7970,7 @@
         <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" s="11">
         <v>5</v>
@@ -7718,7 +8000,7 @@
         <v>45</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="11">
         <v>5</v>
@@ -7739,7 +8021,7 @@
         <v>30</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="14.4">
@@ -7751,7 +8033,7 @@
         <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="11">
         <v>4</v>
@@ -7781,7 +8063,7 @@
         <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" s="11">
         <v>4</v>
@@ -7802,7 +8084,7 @@
         <v>34</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="2:19">
@@ -7814,7 +8096,7 @@
         <v>53</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="36"/>
     </row>
@@ -7827,7 +8109,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" s="36"/>
     </row>
@@ -7840,83 +8122,83 @@
         <v>60</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F32" s="39"/>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="2:21">
       <c r="R36" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="2:21" ht="14.4">
       <c r="B37" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>99</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N37" s="16" t="s">
         <v>68</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P37" s="16" t="s">
         <v>99</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="14.4">
@@ -7928,7 +8210,7 @@
         <v>60</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F38" s="11">
         <v>4</v>
@@ -7949,7 +8231,7 @@
         <v>38</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N38" s="1">
         <v>27</v>
@@ -7958,7 +8240,7 @@
         <v>600</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q38" s="1">
         <v>1500</v>
@@ -7982,7 +8264,7 @@
         <v>62</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39" s="11">
         <v>6</v>
@@ -8003,7 +8285,7 @@
         <v>38</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N39" s="1">
         <v>30</v>
@@ -8012,7 +8294,7 @@
         <v>90</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q39" s="1">
         <v>800</v>
@@ -8024,7 +8306,7 @@
         <v>10000</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="14.4">
@@ -8036,7 +8318,7 @@
         <v>65</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F40" s="11">
         <v>7</v>
@@ -8057,7 +8339,7 @@
         <v>42</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N40" s="13">
         <v>32</v>
@@ -8066,7 +8348,7 @@
         <v>1000</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q40" s="1">
         <v>150</v>
@@ -8076,9 +8358,6 @@
       </c>
       <c r="T40" s="1">
         <v>1</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="41" spans="2:21" ht="14.4">
@@ -8090,7 +8369,7 @@
         <v>68</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" s="11">
         <v>7</v>
@@ -8120,7 +8399,7 @@
         <v>70</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F42" s="11">
         <v>6</v>
@@ -8150,7 +8429,7 @@
         <v>72</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43" s="11">
         <v>4</v>
@@ -8180,7 +8459,7 @@
         <v>75</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F44" s="11">
         <v>1</v>
@@ -8210,7 +8489,7 @@
         <v>78</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F45" s="36"/>
     </row>
@@ -8223,7 +8502,7 @@
         <v>81</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F46" s="36"/>
     </row>
@@ -8236,7 +8515,7 @@
         <v>85</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F47" s="39"/>
     </row>
@@ -8251,8 +8530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5A7DB6-7184-4677-90B8-10A2A9783656}">
   <dimension ref="C5:AF93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView topLeftCell="G8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8288,46 +8567,46 @@
   <sheetData>
     <row r="5" spans="3:32" ht="21">
       <c r="D5" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="3:32" ht="21">
       <c r="D6" s="9"/>
       <c r="T6" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="3:32" ht="21">
       <c r="D7" s="9"/>
       <c r="G7" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="3:32" ht="21">
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="3:32" ht="17.399999999999999">
-      <c r="G9" s="54" t="s">
-        <v>345</v>
-      </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54" t="s">
-        <v>347</v>
-      </c>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
+      <c r="G9" s="69" t="s">
+        <v>342</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69" t="s">
+        <v>343</v>
+      </c>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
     </row>
     <row r="10" spans="3:32" ht="17.399999999999999">
       <c r="G10" s="40">
@@ -8366,216 +8645,216 @@
       <c r="R10" s="40">
         <v>35</v>
       </c>
-      <c r="T10" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="U10" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="V10" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="W10" s="62" t="s">
+      <c r="T10" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="U10" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="V10" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="W10" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="X10" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y10" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z10" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA10" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB10" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC10" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD10" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE10" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF10" s="65" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="3:32" ht="17.399999999999999">
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="T11" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="X10" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y10" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z10" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA10" s="60" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB10" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC10" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD10" s="74" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE10" s="74" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF10" s="74" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" spans="3:32" ht="17.399999999999999">
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="T11" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="U11" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="V11" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y11" s="63" t="s">
-        <v>378</v>
-      </c>
       <c r="Z11" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB11" s="63" t="s">
-        <v>385</v>
+        <v>357</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="AC11" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD11" s="75" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE11" s="75" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF11" s="75" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="AD11" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE11" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF11" s="66" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="3:32">
       <c r="T12" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="U12" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="V12" s="63" t="s">
-        <v>372</v>
+        <v>364</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y12" s="63" t="s">
-        <v>381</v>
+        <v>373</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="Z12" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA12" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="AA12" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB12" s="63" t="s">
-        <v>388</v>
+      <c r="AB12" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="AD12" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE12" s="75" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF12" s="75" t="s">
-        <v>394</v>
+        <v>385</v>
+      </c>
+      <c r="AD12" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE12" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF12" s="66" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="3:32">
       <c r="T13" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="U13" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="V13" s="63" t="s">
-        <v>373</v>
+        <v>368</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y13" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z13" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>382</v>
-      </c>
       <c r="AA13" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC13" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="AB13" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="AC13" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AD13" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE13" s="75" t="s">
-        <v>382</v>
-      </c>
-      <c r="AF13" s="75" t="s">
-        <v>395</v>
+      <c r="AD13" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE13" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF13" s="66" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="C14" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="56"/>
+      <c r="H14" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="I14" s="74"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="44" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L14" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="N14" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="M14" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="N14" s="46" t="s">
+      <c r="S14" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="T14" s="12"/>
       <c r="U14" s="13"/>
@@ -8587,35 +8866,35 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="14"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
     </row>
     <row r="15" spans="3:32" ht="15" thickBot="1">
       <c r="C15" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G15" s="43">
         <v>1</v>
       </c>
-      <c r="H15" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="56"/>
+      <c r="H15" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="I15" s="74"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="43" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L15" s="47">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M15" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="N15" s="55">
+        <v>286</v>
+      </c>
+      <c r="N15" s="70">
         <v>10</v>
       </c>
-      <c r="O15" s="56"/>
+      <c r="O15" s="71"/>
       <c r="P15" s="1">
         <v>1</v>
       </c>
@@ -8623,70 +8902,70 @@
         <v>2</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" ref="R15:R35" si="0">N15*L15*P15</f>
-        <v>150</v>
+        <f>N15*P15+L15</f>
+        <v>15</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" ref="S15:S35" si="1">N15*Q15*L15</f>
-        <v>300</v>
-      </c>
-      <c r="T15" s="64">
+        <f t="shared" ref="S15:S35" si="0">N15*Q15*L15</f>
+        <v>100</v>
+      </c>
+      <c r="T15" s="56">
         <f>14*10+R15*(1-30/(100+30))</f>
-        <v>255.38461538461536</v>
-      </c>
-      <c r="U15" s="65">
+        <v>151.53846153846155</v>
+      </c>
+      <c r="U15" s="51">
         <f>18*10+R15*(1-30/(100+30))</f>
-        <v>295.38461538461536</v>
-      </c>
-      <c r="V15" s="63">
+        <v>191.53846153846155</v>
+      </c>
+      <c r="V15" s="1">
         <f>(R15+22*10)*(1-35/(100+35))</f>
-        <v>274.07407407407408</v>
+        <v>174.07407407407408</v>
       </c>
       <c r="W15" s="11">
         <f>(R15+22*10)*(1-40/(100+40))</f>
-        <v>264.28571428571428</v>
-      </c>
-      <c r="X15" s="60">
+        <v>167.85714285714286</v>
+      </c>
+      <c r="X15" s="53">
         <f>(R15+26*10)*(1-40/(100+40))</f>
-        <v>292.85714285714289</v>
-      </c>
-      <c r="Y15" s="61">
+        <v>196.42857142857144</v>
+      </c>
+      <c r="Y15" s="54">
         <f>(R15+30*10)*(1-45/(100+45))</f>
-        <v>310.34482758620692</v>
-      </c>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
+        <v>217.24137931034485</v>
+      </c>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
     </row>
     <row r="16" spans="3:32" ht="15" thickBot="1">
       <c r="C16" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G16" s="43">
         <v>2</v>
       </c>
-      <c r="H16" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="56"/>
+      <c r="H16" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="I16" s="74"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="43" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L16" s="47">
+        <v>5</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="N16" s="70">
         <v>25</v>
       </c>
-      <c r="M16" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="N16" s="55">
-        <v>25</v>
-      </c>
-      <c r="O16" s="56"/>
+      <c r="O16" s="71"/>
       <c r="P16" s="1">
         <v>1</v>
       </c>
@@ -8694,73 +8973,72 @@
         <v>2</v>
       </c>
       <c r="R16" s="1">
+        <f t="shared" ref="R16:R35" si="1">N16*P16+L16</f>
+        <v>30</v>
+      </c>
+      <c r="S16" s="1">
         <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" si="1"/>
-        <v>1250</v>
-      </c>
-      <c r="T16" s="64"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="63"/>
+        <v>250</v>
+      </c>
+      <c r="T16" s="56"/>
+      <c r="U16" s="57"/>
       <c r="W16" s="11"/>
       <c r="X16" s="10"/>
-      <c r="Y16" s="63">
+      <c r="Y16" s="1">
         <f>(R16+30*10)*(1-45/(100+45))</f>
-        <v>637.93103448275872</v>
-      </c>
-      <c r="Z16" s="68">
+        <v>227.58620689655174</v>
+      </c>
+      <c r="Z16" s="59">
         <f t="shared" ref="Z16:Z31" si="2">(R16+34*10)*(1-50/(100+50))</f>
-        <v>643.33333333333337</v>
+        <v>246.66666666666669</v>
       </c>
       <c r="AA16" s="10">
         <f>(R16+38*10)*(1-50/(100+50))</f>
-        <v>670.00000000000011</v>
-      </c>
-      <c r="AB16" s="63">
+        <v>273.33333333333337</v>
+      </c>
+      <c r="AB16" s="1">
         <f>(R16+42*10)*(1-55/(100+55))</f>
-        <v>674.19354838709671</v>
+        <v>290.32258064516128</v>
       </c>
       <c r="AC16" s="11">
         <f>(R16+45*10)*(1-60/(100+60))</f>
-        <v>671.875</v>
-      </c>
-      <c r="AD16" s="75">
+        <v>300</v>
+      </c>
+      <c r="AD16" s="66">
         <f>(R16+22*10)*(1-80/(100+80))</f>
-        <v>469.44444444444446</v>
-      </c>
-      <c r="AE16" s="76">
+        <v>138.88888888888889</v>
+      </c>
+      <c r="AE16" s="67">
         <f>(R16+34*10)*(1-80/(100+80))</f>
-        <v>536.11111111111109</v>
-      </c>
-      <c r="AF16" s="75">
+        <v>205.55555555555557</v>
+      </c>
+      <c r="AF16" s="66">
         <f>(R16+46*10)*(1-80/(100+80))</f>
-        <v>602.77777777777783</v>
+        <v>272.22222222222223</v>
       </c>
     </row>
     <row r="17" spans="7:32" ht="15" thickBot="1">
       <c r="G17" s="43">
         <v>3</v>
       </c>
-      <c r="H17" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="I17" s="59"/>
-      <c r="J17" s="56"/>
+      <c r="H17" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="I17" s="74"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="43" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L17" s="47">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="N17" s="55">
+        <v>289</v>
+      </c>
+      <c r="N17" s="70">
         <v>35</v>
       </c>
-      <c r="O17" s="56"/>
+      <c r="O17" s="71"/>
       <c r="P17" s="1">
         <v>1</v>
       </c>
@@ -8768,61 +9046,59 @@
         <v>2</v>
       </c>
       <c r="R17" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S17" s="1">
         <f t="shared" si="0"/>
-        <v>875</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-      <c r="T17" s="64"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="63"/>
+        <v>350</v>
+      </c>
+      <c r="T17" s="56"/>
+      <c r="U17" s="57"/>
       <c r="W17" s="11"/>
       <c r="X17" s="10"/>
-      <c r="Y17" s="63"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="10"/>
-      <c r="AB17" s="65">
+      <c r="AB17" s="51">
         <f t="shared" ref="AB17:AB35" si="3">(R17+42*10)*(1-55/(100+55))</f>
-        <v>835.48387096774195</v>
-      </c>
-      <c r="AC17" s="68">
+        <v>296.77419354838707</v>
+      </c>
+      <c r="AC17" s="59">
         <f t="shared" ref="AC17:AC35" si="4">(R17+45*10)*(1-60/(100+60))</f>
-        <v>828.125</v>
-      </c>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75">
+        <v>306.25</v>
+      </c>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66">
         <f t="shared" ref="AE17:AE35" si="5">(R17+34*10)*(1-80/(100+80))</f>
-        <v>675</v>
-      </c>
-      <c r="AF17" s="75">
+        <v>211.11111111111111</v>
+      </c>
+      <c r="AF17" s="66">
         <f t="shared" ref="AF17:AF35" si="6">(R17+46*10)*(1-80/(100+80))</f>
-        <v>741.66666666666674</v>
+        <v>277.77777777777777</v>
       </c>
     </row>
     <row r="18" spans="7:32" ht="15" thickBot="1">
       <c r="G18" s="43">
         <v>4</v>
       </c>
-      <c r="H18" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="I18" s="59"/>
-      <c r="J18" s="56"/>
+      <c r="H18" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="I18" s="74"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="43" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L18" s="47">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M18" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="N18" s="55">
+        <v>289</v>
+      </c>
+      <c r="N18" s="70">
         <v>45</v>
       </c>
-      <c r="O18" s="56"/>
+      <c r="O18" s="71"/>
       <c r="P18" s="1">
         <v>1</v>
       </c>
@@ -8830,61 +9106,59 @@
         <v>2</v>
       </c>
       <c r="R18" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S18" s="1">
         <f t="shared" si="0"/>
-        <v>1575</v>
-      </c>
-      <c r="S18" s="1">
-        <f t="shared" si="1"/>
-        <v>3150</v>
-      </c>
-      <c r="T18" s="64"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="63"/>
+        <v>450</v>
+      </c>
+      <c r="T18" s="56"/>
+      <c r="U18" s="57"/>
       <c r="W18" s="11"/>
       <c r="X18" s="10"/>
-      <c r="Y18" s="63"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="10"/>
-      <c r="AB18" s="63">
+      <c r="AB18" s="1">
         <f t="shared" si="3"/>
-        <v>1287.0967741935483</v>
-      </c>
-      <c r="AC18" s="68">
+        <v>303.22580645161287</v>
+      </c>
+      <c r="AC18" s="59">
         <f t="shared" si="4"/>
-        <v>1265.625</v>
-      </c>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="75">
+        <v>312.5</v>
+      </c>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="66">
         <f t="shared" si="5"/>
-        <v>1063.8888888888889</v>
-      </c>
-      <c r="AF18" s="75">
+        <v>216.66666666666669</v>
+      </c>
+      <c r="AF18" s="66">
         <f t="shared" si="6"/>
-        <v>1130.5555555555557</v>
+        <v>283.33333333333337</v>
       </c>
     </row>
     <row r="19" spans="7:32" ht="15" thickBot="1">
       <c r="G19" s="43">
         <v>5</v>
       </c>
-      <c r="H19" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="I19" s="59"/>
-      <c r="J19" s="56"/>
+      <c r="H19" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="I19" s="74"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="43" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L19" s="47">
+        <v>5</v>
+      </c>
+      <c r="M19" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="N19" s="70">
         <v>35</v>
       </c>
-      <c r="M19" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="N19" s="55">
-        <v>35</v>
-      </c>
-      <c r="O19" s="56"/>
+      <c r="O19" s="71"/>
       <c r="P19" s="1">
         <v>1</v>
       </c>
@@ -8892,61 +9166,59 @@
         <v>2</v>
       </c>
       <c r="R19" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S19" s="1">
         <f t="shared" si="0"/>
-        <v>1225</v>
-      </c>
-      <c r="S19" s="1">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-      <c r="T19" s="64"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="63"/>
+        <v>350</v>
+      </c>
+      <c r="T19" s="56"/>
+      <c r="U19" s="57"/>
       <c r="W19" s="11"/>
       <c r="X19" s="10"/>
-      <c r="Y19" s="63"/>
       <c r="Z19" s="11"/>
       <c r="AA19" s="10"/>
-      <c r="AB19" s="65">
+      <c r="AB19" s="51">
         <f t="shared" si="3"/>
-        <v>1061.2903225806451</v>
-      </c>
-      <c r="AC19" s="68">
+        <v>296.77419354838707</v>
+      </c>
+      <c r="AC19" s="59">
         <f t="shared" si="4"/>
-        <v>1046.875</v>
-      </c>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="75">
+        <v>306.25</v>
+      </c>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66">
         <f t="shared" si="5"/>
-        <v>869.44444444444446</v>
-      </c>
-      <c r="AF19" s="75">
+        <v>211.11111111111111</v>
+      </c>
+      <c r="AF19" s="66">
         <f t="shared" si="6"/>
-        <v>936.1111111111112</v>
+        <v>277.77777777777777</v>
       </c>
     </row>
     <row r="20" spans="7:32" ht="15" thickBot="1">
       <c r="G20" s="43">
         <v>6</v>
       </c>
-      <c r="H20" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="I20" s="59"/>
-      <c r="J20" s="56"/>
+      <c r="H20" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I20" s="74"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="43" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L20" s="47">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M20" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="N20" s="55">
+        <v>294</v>
+      </c>
+      <c r="N20" s="70">
         <v>20</v>
       </c>
-      <c r="O20" s="56"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="1">
         <v>1</v>
       </c>
@@ -8954,76 +9226,75 @@
         <v>2</v>
       </c>
       <c r="R20" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S20" s="1">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="T20" s="64"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="63"/>
+        <v>200</v>
+      </c>
+      <c r="T20" s="56"/>
+      <c r="U20" s="57"/>
       <c r="W20" s="11">
         <f t="shared" ref="W20:W30" si="7">(R20+22*10)*(1-40/(100+40))</f>
-        <v>514.28571428571433</v>
-      </c>
-      <c r="X20" s="67">
+        <v>175</v>
+      </c>
+      <c r="X20" s="58">
         <f t="shared" ref="X20:X30" si="8">(R20+26*10)*(1-40/(100+40))</f>
-        <v>542.85714285714289</v>
-      </c>
-      <c r="Y20" s="65">
+        <v>203.57142857142858</v>
+      </c>
+      <c r="Y20" s="51">
         <f t="shared" ref="Y20:Y31" si="9">(R20+30*10)*(1-45/(100+45))</f>
-        <v>551.72413793103453</v>
+        <v>224.13793103448276</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="2"/>
-        <v>560.00000000000011</v>
+        <v>243.33333333333337</v>
       </c>
       <c r="AA20" s="10">
         <f t="shared" ref="AA20:AA33" si="10">(R20+38*10)*(1-50/(100+50))</f>
-        <v>586.66666666666674</v>
-      </c>
-      <c r="AB20" s="63">
+        <v>270.00000000000006</v>
+      </c>
+      <c r="AB20" s="1">
         <f t="shared" si="3"/>
-        <v>593.54838709677415</v>
+        <v>287.09677419354836</v>
       </c>
       <c r="AC20" s="11">
         <f t="shared" si="4"/>
-        <v>593.75</v>
-      </c>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75">
+        <v>296.875</v>
+      </c>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66">
         <f t="shared" si="5"/>
-        <v>466.66666666666669</v>
-      </c>
-      <c r="AF20" s="75">
+        <v>202.7777777777778</v>
+      </c>
+      <c r="AF20" s="66">
         <f t="shared" si="6"/>
-        <v>533.33333333333337</v>
+        <v>269.44444444444446</v>
       </c>
     </row>
     <row r="21" spans="7:32" ht="15" thickBot="1">
       <c r="G21" s="43">
         <v>7</v>
       </c>
-      <c r="H21" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="56"/>
+      <c r="H21" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="I21" s="74"/>
+      <c r="J21" s="71"/>
       <c r="K21" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="L21" s="47">
+        <v>5</v>
+      </c>
+      <c r="M21" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="L21" s="47">
-        <v>25</v>
-      </c>
-      <c r="M21" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="N21" s="55">
+      <c r="N21" s="70">
         <v>20</v>
       </c>
-      <c r="O21" s="56"/>
+      <c r="O21" s="71"/>
       <c r="P21" s="1">
         <v>1</v>
       </c>
@@ -9031,76 +9302,75 @@
         <v>2</v>
       </c>
       <c r="R21" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S21" s="1">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="T21" s="64"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="63"/>
+        <v>200</v>
+      </c>
+      <c r="T21" s="56"/>
+      <c r="U21" s="57"/>
       <c r="W21" s="11">
         <f t="shared" si="7"/>
-        <v>514.28571428571433</v>
-      </c>
-      <c r="X21" s="67">
+        <v>175</v>
+      </c>
+      <c r="X21" s="58">
         <f t="shared" si="8"/>
-        <v>542.85714285714289</v>
-      </c>
-      <c r="Y21" s="65">
+        <v>203.57142857142858</v>
+      </c>
+      <c r="Y21" s="51">
         <f t="shared" si="9"/>
-        <v>551.72413793103453</v>
+        <v>224.13793103448276</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="2"/>
-        <v>560.00000000000011</v>
+        <v>243.33333333333337</v>
       </c>
       <c r="AA21" s="10">
         <f t="shared" si="10"/>
-        <v>586.66666666666674</v>
-      </c>
-      <c r="AB21" s="63">
+        <v>270.00000000000006</v>
+      </c>
+      <c r="AB21" s="1">
         <f t="shared" si="3"/>
-        <v>593.54838709677415</v>
+        <v>287.09677419354836</v>
       </c>
       <c r="AC21" s="11">
         <f t="shared" si="4"/>
-        <v>593.75</v>
-      </c>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="75">
+        <v>296.875</v>
+      </c>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66">
         <f t="shared" si="5"/>
-        <v>466.66666666666669</v>
-      </c>
-      <c r="AF21" s="75">
+        <v>202.7777777777778</v>
+      </c>
+      <c r="AF21" s="66">
         <f t="shared" si="6"/>
-        <v>533.33333333333337</v>
+        <v>269.44444444444446</v>
       </c>
     </row>
     <row r="22" spans="7:32" ht="15" thickBot="1">
       <c r="G22" s="43">
         <v>8</v>
       </c>
-      <c r="H22" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="56"/>
+      <c r="H22" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="I22" s="74"/>
+      <c r="J22" s="71"/>
       <c r="K22" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="L22" s="47">
+        <v>5</v>
+      </c>
+      <c r="M22" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="L22" s="47">
-        <v>15</v>
-      </c>
-      <c r="M22" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="N22" s="55">
+      <c r="N22" s="70">
         <v>5</v>
       </c>
-      <c r="O22" s="56"/>
+      <c r="O22" s="71"/>
       <c r="P22" s="1">
         <v>1</v>
       </c>
@@ -9108,76 +9378,75 @@
         <v>2</v>
       </c>
       <c r="R22" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S22" s="1">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="T22" s="67">
+        <v>50</v>
+      </c>
+      <c r="T22" s="58">
         <f>14*10+R22*(1-30/(100+30))</f>
-        <v>197.69230769230768</v>
-      </c>
-      <c r="U22" s="66">
+        <v>147.69230769230768</v>
+      </c>
+      <c r="U22" s="57">
         <f t="shared" ref="U22:U28" si="11">18*10+R22*(1-30/(100+30))</f>
-        <v>237.69230769230768</v>
-      </c>
-      <c r="V22" s="63">
+        <v>187.69230769230768</v>
+      </c>
+      <c r="V22" s="1">
         <f t="shared" ref="V22:V28" si="12">(R22+22*10)*(1-35/(100+35))</f>
-        <v>218.5185185185185</v>
+        <v>170.37037037037035</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="7"/>
-        <v>210.71428571428572</v>
+        <v>164.28571428571428</v>
       </c>
       <c r="X22" s="10">
         <f t="shared" si="8"/>
-        <v>239.28571428571428</v>
-      </c>
-      <c r="Y22" s="63">
+        <v>192.85714285714286</v>
+      </c>
+      <c r="Y22" s="1">
         <f t="shared" si="9"/>
-        <v>258.62068965517244</v>
+        <v>213.79310344827587</v>
       </c>
       <c r="Z22" s="11"/>
       <c r="AA22" s="10"/>
-      <c r="AB22" s="63"/>
       <c r="AC22" s="11">
         <f t="shared" si="4"/>
-        <v>328.125</v>
-      </c>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="75">
+        <v>287.5</v>
+      </c>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66">
         <f t="shared" si="5"/>
-        <v>230.55555555555557</v>
-      </c>
-      <c r="AF22" s="75">
+        <v>194.44444444444446</v>
+      </c>
+      <c r="AF22" s="66">
         <f t="shared" si="6"/>
-        <v>297.22222222222223</v>
+        <v>261.11111111111114</v>
       </c>
     </row>
     <row r="23" spans="7:32" ht="15" thickBot="1">
       <c r="G23" s="43">
         <v>9</v>
       </c>
-      <c r="H23" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="I23" s="59"/>
-      <c r="J23" s="56"/>
+      <c r="H23" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="I23" s="74"/>
+      <c r="J23" s="71"/>
       <c r="K23" s="43" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L23" s="47">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M23" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="N23" s="55">
+        <v>286</v>
+      </c>
+      <c r="N23" s="70">
         <v>20</v>
       </c>
-      <c r="O23" s="56"/>
+      <c r="O23" s="71"/>
       <c r="P23" s="1">
         <v>1</v>
       </c>
@@ -9185,79 +9454,78 @@
         <v>2</v>
       </c>
       <c r="R23" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S23" s="1">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="T23" s="64"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="63"/>
+        <v>200</v>
+      </c>
+      <c r="T23" s="56"/>
+      <c r="U23" s="57"/>
       <c r="W23" s="11">
         <f t="shared" si="7"/>
-        <v>514.28571428571433</v>
-      </c>
-      <c r="X23" s="67">
+        <v>175</v>
+      </c>
+      <c r="X23" s="58">
         <f t="shared" si="8"/>
-        <v>542.85714285714289</v>
-      </c>
-      <c r="Y23" s="65">
+        <v>203.57142857142858</v>
+      </c>
+      <c r="Y23" s="51">
         <f t="shared" si="9"/>
-        <v>551.72413793103453</v>
+        <v>224.13793103448276</v>
       </c>
       <c r="Z23" s="11">
         <f t="shared" si="2"/>
-        <v>560.00000000000011</v>
+        <v>243.33333333333337</v>
       </c>
       <c r="AA23" s="10">
         <f t="shared" si="10"/>
-        <v>586.66666666666674</v>
-      </c>
-      <c r="AB23" s="63">
+        <v>270.00000000000006</v>
+      </c>
+      <c r="AB23" s="1">
         <f t="shared" si="3"/>
-        <v>593.54838709677415</v>
+        <v>287.09677419354836</v>
       </c>
       <c r="AC23" s="11">
         <f t="shared" si="4"/>
-        <v>593.75</v>
-      </c>
-      <c r="AD23" s="75">
-        <f t="shared" ref="AD17:AD35" si="13">(R23+22*10)*(1-80/(100+80))</f>
-        <v>400</v>
-      </c>
-      <c r="AE23" s="75">
+        <v>296.875</v>
+      </c>
+      <c r="AD23" s="66">
+        <f t="shared" ref="AD23:AD33" si="13">(R23+22*10)*(1-80/(100+80))</f>
+        <v>136.11111111111111</v>
+      </c>
+      <c r="AE23" s="66">
         <f t="shared" si="5"/>
-        <v>466.66666666666669</v>
-      </c>
-      <c r="AF23" s="75">
+        <v>202.7777777777778</v>
+      </c>
+      <c r="AF23" s="66">
         <f t="shared" si="6"/>
-        <v>533.33333333333337</v>
+        <v>269.44444444444446</v>
       </c>
     </row>
     <row r="24" spans="7:32" ht="15" thickBot="1">
       <c r="G24" s="43">
         <v>10</v>
       </c>
-      <c r="H24" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="56"/>
+      <c r="H24" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="I24" s="74"/>
+      <c r="J24" s="71"/>
       <c r="K24" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="L24" s="47">
+        <v>5</v>
+      </c>
+      <c r="M24" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="L24" s="47">
-        <v>35</v>
-      </c>
-      <c r="M24" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="N24" s="55">
+      <c r="N24" s="70">
         <v>70</v>
       </c>
-      <c r="O24" s="56"/>
+      <c r="O24" s="71"/>
       <c r="P24" s="1">
         <v>1</v>
       </c>
@@ -9265,58 +9533,55 @@
         <v>2</v>
       </c>
       <c r="R24" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="S24" s="1">
         <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" si="1"/>
-        <v>4900</v>
-      </c>
-      <c r="T24" s="64"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="63"/>
+        <v>700</v>
+      </c>
+      <c r="T24" s="56"/>
+      <c r="U24" s="57"/>
       <c r="W24" s="11"/>
       <c r="X24" s="10"/>
-      <c r="Y24" s="63"/>
       <c r="Z24" s="11"/>
       <c r="AA24" s="10"/>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="68">
+      <c r="AC24" s="59">
         <f t="shared" si="4"/>
-        <v>1812.5</v>
-      </c>
-      <c r="AD24" s="75"/>
-      <c r="AE24" s="75">
+        <v>328.125</v>
+      </c>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66">
         <f t="shared" si="5"/>
-        <v>1550</v>
-      </c>
-      <c r="AF24" s="75">
+        <v>230.55555555555557</v>
+      </c>
+      <c r="AF24" s="66">
         <f t="shared" si="6"/>
-        <v>1616.6666666666667</v>
+        <v>297.22222222222223</v>
       </c>
     </row>
     <row r="25" spans="7:32" ht="15" thickBot="1">
       <c r="G25" s="43">
         <v>11</v>
       </c>
-      <c r="H25" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="56"/>
+      <c r="H25" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="I25" s="74"/>
+      <c r="J25" s="71"/>
       <c r="K25" s="43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L25" s="47">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M25" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="N25" s="55">
+        <v>302</v>
+      </c>
+      <c r="N25" s="70">
         <v>50</v>
       </c>
-      <c r="O25" s="56"/>
+      <c r="O25" s="71"/>
       <c r="P25" s="1">
         <v>1</v>
       </c>
@@ -9324,58 +9589,55 @@
         <v>2</v>
       </c>
       <c r="R25" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="S25" s="1">
         <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-      <c r="S25" s="1">
-        <f t="shared" si="1"/>
-        <v>3500</v>
-      </c>
-      <c r="T25" s="64"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="63"/>
+        <v>500</v>
+      </c>
+      <c r="T25" s="56"/>
+      <c r="U25" s="57"/>
       <c r="W25" s="11"/>
       <c r="X25" s="10"/>
-      <c r="Y25" s="63"/>
       <c r="Z25" s="11"/>
       <c r="AA25" s="10"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="68">
+      <c r="AC25" s="59">
         <f t="shared" si="4"/>
-        <v>1375</v>
-      </c>
-      <c r="AD25" s="75"/>
-      <c r="AE25" s="75">
+        <v>315.625</v>
+      </c>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66">
         <f t="shared" si="5"/>
-        <v>1161.1111111111111</v>
-      </c>
-      <c r="AF25" s="75">
+        <v>219.44444444444446</v>
+      </c>
+      <c r="AF25" s="66">
         <f t="shared" si="6"/>
-        <v>1227.7777777777778</v>
+        <v>286.11111111111114</v>
       </c>
     </row>
     <row r="26" spans="7:32" ht="15" thickBot="1">
       <c r="G26" s="43">
         <v>13</v>
       </c>
-      <c r="H26" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="56"/>
+      <c r="H26" s="70" t="s">
+        <v>303</v>
+      </c>
+      <c r="I26" s="74"/>
+      <c r="J26" s="71"/>
       <c r="K26" s="43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L26" s="47">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M26" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="N26" s="55">
+        <v>302</v>
+      </c>
+      <c r="N26" s="70">
         <v>40</v>
       </c>
-      <c r="O26" s="56"/>
+      <c r="O26" s="71"/>
       <c r="P26" s="1">
         <v>1</v>
       </c>
@@ -9383,58 +9645,55 @@
         <v>2</v>
       </c>
       <c r="R26" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="S26" s="1">
         <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="S26" s="1">
-        <f t="shared" si="1"/>
-        <v>2800</v>
-      </c>
-      <c r="T26" s="64"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="63"/>
+        <v>400</v>
+      </c>
+      <c r="T26" s="56"/>
+      <c r="U26" s="57"/>
       <c r="W26" s="11"/>
       <c r="X26" s="10"/>
-      <c r="Y26" s="63"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="10"/>
-      <c r="AB26" s="63"/>
-      <c r="AC26" s="68">
+      <c r="AC26" s="59">
         <f t="shared" si="4"/>
-        <v>1156.25</v>
-      </c>
-      <c r="AD26" s="75"/>
-      <c r="AE26" s="75">
+        <v>309.375</v>
+      </c>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="66">
         <f t="shared" si="5"/>
-        <v>966.66666666666674</v>
-      </c>
-      <c r="AF26" s="76">
+        <v>213.88888888888889</v>
+      </c>
+      <c r="AF26" s="67">
         <f t="shared" si="6"/>
-        <v>1033.3333333333335</v>
+        <v>280.55555555555554</v>
       </c>
     </row>
     <row r="27" spans="7:32" ht="15" thickBot="1">
       <c r="G27" s="43">
         <v>14</v>
       </c>
-      <c r="H27" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="56"/>
+      <c r="H27" s="70" t="s">
+        <v>304</v>
+      </c>
+      <c r="I27" s="74"/>
+      <c r="J27" s="71"/>
       <c r="K27" s="43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L27" s="47">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M27" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="N27" s="55">
+        <v>302</v>
+      </c>
+      <c r="N27" s="70">
         <v>10</v>
       </c>
-      <c r="O27" s="56"/>
+      <c r="O27" s="71"/>
       <c r="P27" s="1">
         <v>1</v>
       </c>
@@ -9442,79 +9701,78 @@
         <v>2</v>
       </c>
       <c r="R27" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S27" s="1">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="S27" s="1">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="T27" s="64">
+        <v>100</v>
+      </c>
+      <c r="T27" s="56">
         <f>14*10+R27*(1-30/(100+30))</f>
-        <v>255.38461538461536</v>
-      </c>
-      <c r="U27" s="65">
+        <v>151.53846153846155</v>
+      </c>
+      <c r="U27" s="51">
         <f t="shared" si="11"/>
-        <v>295.38461538461536</v>
-      </c>
-      <c r="V27" s="63">
+        <v>191.53846153846155</v>
+      </c>
+      <c r="V27" s="1">
         <f t="shared" si="12"/>
-        <v>274.07407407407408</v>
+        <v>174.07407407407408</v>
       </c>
       <c r="W27" s="11">
         <f t="shared" si="7"/>
-        <v>264.28571428571428</v>
+        <v>167.85714285714286</v>
       </c>
       <c r="X27" s="10">
         <f t="shared" si="8"/>
-        <v>292.85714285714289</v>
-      </c>
-      <c r="Y27" s="63">
+        <v>196.42857142857144</v>
+      </c>
+      <c r="Y27" s="1">
         <f t="shared" si="9"/>
-        <v>310.34482758620692</v>
+        <v>217.24137931034485</v>
       </c>
       <c r="Z27" s="11"/>
       <c r="AA27" s="10"/>
-      <c r="AB27" s="63"/>
       <c r="AC27" s="11">
         <f t="shared" si="4"/>
-        <v>375</v>
-      </c>
-      <c r="AD27" s="75">
+        <v>290.625</v>
+      </c>
+      <c r="AD27" s="66">
         <f t="shared" si="13"/>
-        <v>205.55555555555557</v>
-      </c>
-      <c r="AE27" s="75">
+        <v>130.55555555555557</v>
+      </c>
+      <c r="AE27" s="66">
         <f t="shared" si="5"/>
-        <v>272.22222222222223</v>
-      </c>
-      <c r="AF27" s="75">
+        <v>197.22222222222223</v>
+      </c>
+      <c r="AF27" s="66">
         <f t="shared" si="6"/>
-        <v>338.88888888888891</v>
+        <v>263.88888888888891</v>
       </c>
     </row>
     <row r="28" spans="7:32" ht="15" thickBot="1">
       <c r="G28" s="43">
         <v>15</v>
       </c>
-      <c r="H28" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="I28" s="59"/>
-      <c r="J28" s="56"/>
+      <c r="H28" s="70" t="s">
+        <v>305</v>
+      </c>
+      <c r="I28" s="74"/>
+      <c r="J28" s="71"/>
       <c r="K28" s="43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L28" s="47">
+        <v>5</v>
+      </c>
+      <c r="M28" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="N28" s="70">
         <v>15</v>
       </c>
-      <c r="M28" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="N28" s="55">
-        <v>15</v>
-      </c>
-      <c r="O28" s="56"/>
+      <c r="O28" s="71"/>
       <c r="P28" s="1">
         <v>1</v>
       </c>
@@ -9522,79 +9780,78 @@
         <v>2</v>
       </c>
       <c r="R28" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S28" s="1">
         <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="S28" s="1">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="T28" s="64">
+        <v>150</v>
+      </c>
+      <c r="T28" s="56">
         <f>14*10+R28*(1-30/(100+30))</f>
-        <v>313.07692307692309</v>
-      </c>
-      <c r="U28" s="66">
+        <v>155.38461538461539</v>
+      </c>
+      <c r="U28" s="57">
         <f t="shared" si="11"/>
-        <v>353.07692307692309</v>
-      </c>
-      <c r="V28" s="65">
+        <v>195.38461538461539</v>
+      </c>
+      <c r="V28" s="51">
         <f t="shared" si="12"/>
-        <v>329.62962962962962</v>
-      </c>
-      <c r="W28" s="68">
+        <v>177.77777777777777</v>
+      </c>
+      <c r="W28" s="59">
         <f t="shared" si="7"/>
-        <v>317.85714285714289</v>
+        <v>171.42857142857144</v>
       </c>
       <c r="X28" s="10">
         <f t="shared" si="8"/>
-        <v>346.42857142857144</v>
-      </c>
-      <c r="Y28" s="63">
+        <v>200</v>
+      </c>
+      <c r="Y28" s="1">
         <f t="shared" si="9"/>
-        <v>362.06896551724139</v>
+        <v>220.68965517241381</v>
       </c>
       <c r="Z28" s="11"/>
       <c r="AA28" s="10"/>
-      <c r="AB28" s="63"/>
       <c r="AC28" s="11">
         <f t="shared" si="4"/>
-        <v>421.875</v>
-      </c>
-      <c r="AD28" s="76">
+        <v>293.75</v>
+      </c>
+      <c r="AD28" s="67">
         <f t="shared" si="13"/>
-        <v>247.22222222222223</v>
-      </c>
-      <c r="AE28" s="75">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AE28" s="66">
         <f t="shared" si="5"/>
-        <v>313.88888888888891</v>
-      </c>
-      <c r="AF28" s="75">
+        <v>200</v>
+      </c>
+      <c r="AF28" s="66">
         <f t="shared" si="6"/>
-        <v>380.5555555555556</v>
+        <v>266.66666666666669</v>
       </c>
     </row>
     <row r="29" spans="7:32" ht="15" thickBot="1">
       <c r="G29" s="43">
         <v>16</v>
       </c>
-      <c r="H29" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="I29" s="59"/>
-      <c r="J29" s="56"/>
+      <c r="H29" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="I29" s="74"/>
+      <c r="J29" s="71"/>
       <c r="K29" s="43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L29" s="47">
+        <v>5</v>
+      </c>
+      <c r="M29" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="N29" s="70">
         <v>35</v>
       </c>
-      <c r="M29" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="N29" s="55">
-        <v>35</v>
-      </c>
-      <c r="O29" s="56"/>
+      <c r="O29" s="71"/>
       <c r="P29" s="1">
         <v>1</v>
       </c>
@@ -9602,64 +9859,62 @@
         <v>2</v>
       </c>
       <c r="R29" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S29" s="1">
         <f t="shared" si="0"/>
-        <v>1225</v>
-      </c>
-      <c r="S29" s="1">
-        <f t="shared" si="1"/>
-        <v>2450</v>
-      </c>
-      <c r="T29" s="64"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="63"/>
+        <v>350</v>
+      </c>
+      <c r="T29" s="56"/>
+      <c r="U29" s="57"/>
       <c r="W29" s="11"/>
       <c r="X29" s="10"/>
-      <c r="Y29" s="63"/>
       <c r="Z29" s="11"/>
       <c r="AA29" s="10"/>
-      <c r="AB29" s="65">
+      <c r="AB29" s="51">
         <f t="shared" si="3"/>
-        <v>1061.2903225806451</v>
-      </c>
-      <c r="AC29" s="68">
+        <v>296.77419354838707</v>
+      </c>
+      <c r="AC29" s="59">
         <f t="shared" si="4"/>
-        <v>1046.875</v>
-      </c>
-      <c r="AD29" s="75">
+        <v>306.25</v>
+      </c>
+      <c r="AD29" s="66">
         <f t="shared" si="13"/>
-        <v>802.77777777777783</v>
-      </c>
-      <c r="AE29" s="75">
+        <v>144.44444444444446</v>
+      </c>
+      <c r="AE29" s="66">
         <f t="shared" si="5"/>
-        <v>869.44444444444446</v>
-      </c>
-      <c r="AF29" s="75">
+        <v>211.11111111111111</v>
+      </c>
+      <c r="AF29" s="66">
         <f t="shared" si="6"/>
-        <v>936.1111111111112</v>
+        <v>277.77777777777777</v>
       </c>
     </row>
     <row r="30" spans="7:32" ht="15" thickBot="1">
       <c r="G30" s="43">
         <v>17</v>
       </c>
-      <c r="H30" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="I30" s="59"/>
-      <c r="J30" s="56"/>
+      <c r="H30" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="I30" s="74"/>
+      <c r="J30" s="71"/>
       <c r="K30" s="43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L30" s="47">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M30" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="N30" s="55">
+        <v>308</v>
+      </c>
+      <c r="N30" s="70">
         <v>20</v>
       </c>
-      <c r="O30" s="56"/>
+      <c r="O30" s="71"/>
       <c r="P30" s="1">
         <v>1</v>
       </c>
@@ -9667,79 +9922,78 @@
         <v>2</v>
       </c>
       <c r="R30" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="S30" s="1">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="S30" s="1">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="T30" s="64"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="63"/>
+        <v>200</v>
+      </c>
+      <c r="T30" s="56"/>
+      <c r="U30" s="57"/>
       <c r="W30" s="11">
         <f t="shared" si="7"/>
-        <v>371.42857142857144</v>
-      </c>
-      <c r="X30" s="67">
+        <v>175</v>
+      </c>
+      <c r="X30" s="58">
         <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="Y30" s="65">
+        <v>203.57142857142858</v>
+      </c>
+      <c r="Y30" s="51">
         <f t="shared" si="9"/>
-        <v>413.79310344827587</v>
+        <v>224.13793103448276</v>
       </c>
       <c r="Z30" s="11">
         <f t="shared" si="2"/>
-        <v>426.66666666666674</v>
+        <v>243.33333333333337</v>
       </c>
       <c r="AA30" s="10">
         <f t="shared" si="10"/>
-        <v>453.33333333333337</v>
-      </c>
-      <c r="AB30" s="63">
+        <v>270.00000000000006</v>
+      </c>
+      <c r="AB30" s="1">
         <f t="shared" si="3"/>
-        <v>464.51612903225805</v>
+        <v>287.09677419354836</v>
       </c>
       <c r="AC30" s="11">
         <f t="shared" si="4"/>
-        <v>468.75</v>
-      </c>
-      <c r="AD30" s="75">
+        <v>296.875</v>
+      </c>
+      <c r="AD30" s="66">
         <f t="shared" si="13"/>
-        <v>288.88888888888891</v>
-      </c>
-      <c r="AE30" s="75">
+        <v>136.11111111111111</v>
+      </c>
+      <c r="AE30" s="66">
         <f t="shared" si="5"/>
-        <v>355.55555555555554</v>
-      </c>
-      <c r="AF30" s="75">
+        <v>202.7777777777778</v>
+      </c>
+      <c r="AF30" s="66">
         <f t="shared" si="6"/>
-        <v>422.22222222222223</v>
+        <v>269.44444444444446</v>
       </c>
     </row>
     <row r="31" spans="7:32" ht="15" thickBot="1">
       <c r="G31" s="43">
         <v>18</v>
       </c>
-      <c r="H31" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="56"/>
+      <c r="H31" s="70" t="s">
+        <v>310</v>
+      </c>
+      <c r="I31" s="74"/>
+      <c r="J31" s="71"/>
       <c r="K31" s="43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L31" s="47">
+        <v>5</v>
+      </c>
+      <c r="M31" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="N31" s="70">
         <v>25</v>
       </c>
-      <c r="M31" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="N31" s="55">
-        <v>25</v>
-      </c>
-      <c r="O31" s="56"/>
+      <c r="O31" s="71"/>
       <c r="P31" s="1">
         <v>1</v>
       </c>
@@ -9747,73 +10001,72 @@
         <v>2</v>
       </c>
       <c r="R31" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="S31" s="1">
         <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-      <c r="S31" s="1">
-        <f t="shared" si="1"/>
-        <v>1250</v>
-      </c>
-      <c r="T31" s="64"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="63"/>
+        <v>250</v>
+      </c>
+      <c r="T31" s="56"/>
+      <c r="U31" s="57"/>
       <c r="W31" s="11"/>
       <c r="X31" s="10"/>
-      <c r="Y31" s="65">
+      <c r="Y31" s="51">
         <f t="shared" si="9"/>
-        <v>637.93103448275872</v>
-      </c>
-      <c r="Z31" s="68">
+        <v>227.58620689655174</v>
+      </c>
+      <c r="Z31" s="59">
         <f t="shared" si="2"/>
-        <v>643.33333333333337</v>
+        <v>246.66666666666669</v>
       </c>
       <c r="AA31" s="10">
         <f t="shared" si="10"/>
-        <v>670.00000000000011</v>
-      </c>
-      <c r="AB31" s="63">
+        <v>273.33333333333337</v>
+      </c>
+      <c r="AB31" s="1">
         <f t="shared" si="3"/>
-        <v>674.19354838709671</v>
+        <v>290.32258064516128</v>
       </c>
       <c r="AC31" s="11">
         <f t="shared" si="4"/>
-        <v>671.875</v>
-      </c>
-      <c r="AD31" s="75">
+        <v>300</v>
+      </c>
+      <c r="AD31" s="66">
         <f t="shared" si="13"/>
-        <v>469.44444444444446</v>
-      </c>
-      <c r="AE31" s="75">
+        <v>138.88888888888889</v>
+      </c>
+      <c r="AE31" s="66">
         <f t="shared" si="5"/>
-        <v>536.11111111111109</v>
-      </c>
-      <c r="AF31" s="75">
+        <v>205.55555555555557</v>
+      </c>
+      <c r="AF31" s="66">
         <f t="shared" si="6"/>
-        <v>602.77777777777783</v>
+        <v>272.22222222222223</v>
       </c>
     </row>
     <row r="32" spans="7:32" ht="15" thickBot="1">
       <c r="G32" s="43">
         <v>19</v>
       </c>
-      <c r="H32" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="I32" s="59"/>
-      <c r="J32" s="56"/>
+      <c r="H32" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="I32" s="74"/>
+      <c r="J32" s="71"/>
       <c r="K32" s="43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L32" s="47">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M32" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="N32" s="55">
+        <v>306</v>
+      </c>
+      <c r="N32" s="70">
         <v>40</v>
       </c>
-      <c r="O32" s="56"/>
+      <c r="O32" s="71"/>
       <c r="P32" s="1">
         <v>1</v>
       </c>
@@ -9821,61 +10074,58 @@
         <v>2</v>
       </c>
       <c r="R32" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="S32" s="1">
         <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="S32" s="1">
-        <f t="shared" si="1"/>
-        <v>2800</v>
-      </c>
-      <c r="T32" s="64"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="63"/>
+        <v>400</v>
+      </c>
+      <c r="T32" s="56"/>
+      <c r="U32" s="57"/>
       <c r="W32" s="11"/>
       <c r="X32" s="10"/>
-      <c r="Y32" s="63"/>
       <c r="Z32" s="11"/>
       <c r="AA32" s="10"/>
-      <c r="AB32" s="63"/>
-      <c r="AC32" s="68">
+      <c r="AC32" s="59">
         <f t="shared" si="4"/>
-        <v>1156.25</v>
-      </c>
-      <c r="AD32" s="75">
+        <v>309.375</v>
+      </c>
+      <c r="AD32" s="66">
         <f t="shared" si="13"/>
-        <v>900</v>
-      </c>
-      <c r="AE32" s="75">
+        <v>147.22222222222223</v>
+      </c>
+      <c r="AE32" s="66">
         <f t="shared" si="5"/>
-        <v>966.66666666666674</v>
-      </c>
-      <c r="AF32" s="76">
+        <v>213.88888888888889</v>
+      </c>
+      <c r="AF32" s="67">
         <f t="shared" si="6"/>
-        <v>1033.3333333333335</v>
+        <v>280.55555555555554</v>
       </c>
     </row>
     <row r="33" spans="7:32" ht="15" thickBot="1">
       <c r="G33" s="43">
         <v>20</v>
       </c>
-      <c r="H33" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="I33" s="59"/>
-      <c r="J33" s="56"/>
+      <c r="H33" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="I33" s="74"/>
+      <c r="J33" s="71"/>
       <c r="K33" s="43" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L33" s="47">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M33" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="N33" s="55">
+        <v>308</v>
+      </c>
+      <c r="N33" s="70">
         <v>30</v>
       </c>
-      <c r="O33" s="56"/>
+      <c r="O33" s="71"/>
       <c r="P33" s="1">
         <v>1</v>
       </c>
@@ -9883,67 +10133,65 @@
         <v>2</v>
       </c>
       <c r="R33" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="S33" s="1">
         <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="S33" s="1">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="T33" s="64"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="63"/>
+        <v>300</v>
+      </c>
+      <c r="T33" s="56"/>
+      <c r="U33" s="57"/>
       <c r="W33" s="11"/>
       <c r="X33" s="10"/>
-      <c r="Y33" s="63"/>
       <c r="Z33" s="11"/>
-      <c r="AA33" s="67">
+      <c r="AA33" s="58">
         <f t="shared" si="10"/>
-        <v>753.33333333333337</v>
-      </c>
-      <c r="AB33" s="65">
+        <v>276.66666666666669</v>
+      </c>
+      <c r="AB33" s="51">
         <f t="shared" si="3"/>
-        <v>754.83870967741939</v>
+        <v>293.54838709677421</v>
       </c>
       <c r="AC33" s="11">
         <f t="shared" si="4"/>
-        <v>750</v>
-      </c>
-      <c r="AD33" s="75">
+        <v>303.125</v>
+      </c>
+      <c r="AD33" s="66">
         <f t="shared" si="13"/>
-        <v>538.88888888888891</v>
-      </c>
-      <c r="AE33" s="75">
+        <v>141.66666666666669</v>
+      </c>
+      <c r="AE33" s="66">
         <f t="shared" si="5"/>
-        <v>605.55555555555554</v>
-      </c>
-      <c r="AF33" s="75">
+        <v>208.33333333333334</v>
+      </c>
+      <c r="AF33" s="66">
         <f t="shared" si="6"/>
-        <v>672.22222222222229</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="7:32" ht="15" thickBot="1">
       <c r="G34" s="43">
         <v>21</v>
       </c>
-      <c r="H34" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="I34" s="59"/>
-      <c r="J34" s="56"/>
+      <c r="H34" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="I34" s="74"/>
+      <c r="J34" s="71"/>
       <c r="K34" s="43" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L34" s="47">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M34" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="N34" s="55">
+        <v>296</v>
+      </c>
+      <c r="N34" s="70">
         <v>40</v>
       </c>
-      <c r="O34" s="56"/>
+      <c r="O34" s="71"/>
       <c r="P34" s="1">
         <v>1</v>
       </c>
@@ -9951,58 +10199,55 @@
         <v>2</v>
       </c>
       <c r="R34" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="S34" s="1">
         <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="S34" s="1">
-        <f t="shared" si="1"/>
-        <v>2800</v>
-      </c>
-      <c r="T34" s="64"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="63"/>
+        <v>400</v>
+      </c>
+      <c r="T34" s="56"/>
+      <c r="U34" s="57"/>
       <c r="W34" s="11"/>
       <c r="X34" s="10"/>
-      <c r="Y34" s="63"/>
       <c r="Z34" s="11"/>
       <c r="AA34" s="10"/>
-      <c r="AB34" s="63"/>
-      <c r="AC34" s="68">
+      <c r="AC34" s="59">
         <f t="shared" si="4"/>
-        <v>1156.25</v>
-      </c>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="75">
+        <v>309.375</v>
+      </c>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66">
         <f t="shared" si="5"/>
-        <v>966.66666666666674</v>
-      </c>
-      <c r="AF34" s="75">
+        <v>213.88888888888889</v>
+      </c>
+      <c r="AF34" s="66">
         <f t="shared" si="6"/>
-        <v>1033.3333333333335</v>
+        <v>280.55555555555554</v>
       </c>
     </row>
     <row r="35" spans="7:32" ht="15" thickBot="1">
       <c r="G35" s="43">
         <v>22</v>
       </c>
-      <c r="H35" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="I35" s="59"/>
-      <c r="J35" s="56"/>
+      <c r="H35" s="70" t="s">
+        <v>315</v>
+      </c>
+      <c r="I35" s="74"/>
+      <c r="J35" s="71"/>
       <c r="K35" s="43" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L35" s="47">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M35" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="N35" s="55">
+        <v>294</v>
+      </c>
+      <c r="N35" s="70">
         <v>35</v>
       </c>
-      <c r="O35" s="56"/>
+      <c r="O35" s="71"/>
       <c r="P35" s="1">
         <v>1</v>
       </c>
@@ -10010,46 +10255,46 @@
         <v>2</v>
       </c>
       <c r="R35" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S35" s="1">
         <f t="shared" si="0"/>
-        <v>875</v>
-      </c>
-      <c r="S35" s="1">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-      <c r="T35" s="69"/>
-      <c r="U35" s="70"/>
+        <v>350</v>
+      </c>
+      <c r="T35" s="60"/>
+      <c r="U35" s="61"/>
       <c r="V35" s="13"/>
       <c r="W35" s="14"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="13"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="12"/>
-      <c r="AB35" s="71">
+      <c r="AB35" s="62">
         <f t="shared" si="3"/>
-        <v>835.48387096774195</v>
-      </c>
-      <c r="AC35" s="72">
+        <v>296.77419354838707</v>
+      </c>
+      <c r="AC35" s="63">
         <f t="shared" si="4"/>
-        <v>828.125</v>
-      </c>
-      <c r="AD35" s="77"/>
-      <c r="AE35" s="77">
+        <v>306.25</v>
+      </c>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="68">
         <f t="shared" si="5"/>
-        <v>675</v>
-      </c>
-      <c r="AF35" s="77">
+        <v>211.11111111111111</v>
+      </c>
+      <c r="AF35" s="68">
         <f t="shared" si="6"/>
-        <v>741.66666666666674</v>
+        <v>277.77777777777777</v>
       </c>
     </row>
     <row r="36" spans="7:32" ht="15" thickBot="1">
       <c r="G36" s="43">
         <v>23</v>
       </c>
-      <c r="H36" s="55"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="56"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="71"/>
       <c r="K36" s="43"/>
       <c r="L36" s="47"/>
       <c r="M36" s="43"/>
@@ -10058,149 +10303,149 @@
       <c r="G37" s="43">
         <v>24</v>
       </c>
-      <c r="H37" s="55"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="56"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="71"/>
       <c r="K37" s="43"/>
       <c r="L37" s="47"/>
       <c r="M37" s="43"/>
       <c r="S37" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="T37" s="1">
         <f>MAX(T15:T35)</f>
-        <v>313.07692307692309</v>
+        <v>155.38461538461539</v>
       </c>
       <c r="V37" s="1">
         <f t="shared" ref="V37:Z37" si="14">MAX(V15:V35)</f>
-        <v>329.62962962962962</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="W37" s="1">
         <f t="shared" si="14"/>
-        <v>514.28571428571433</v>
+        <v>175</v>
       </c>
       <c r="X37" s="1">
         <f t="shared" si="14"/>
-        <v>542.85714285714289</v>
+        <v>203.57142857142858</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="14"/>
-        <v>637.93103448275872</v>
+        <v>227.58620689655174</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" si="14"/>
-        <v>643.33333333333337</v>
+        <v>246.66666666666669</v>
       </c>
     </row>
     <row r="38" spans="7:32" ht="15" thickBot="1">
       <c r="G38" s="43">
         <v>25</v>
       </c>
-      <c r="H38" s="55"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="56"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="71"/>
       <c r="K38" s="43"/>
       <c r="L38" s="47"/>
       <c r="M38" s="43"/>
       <c r="S38" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T38" s="1">
         <f>MIN(T15:T35)</f>
-        <v>197.69230769230768</v>
+        <v>147.69230769230768</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" ref="V38:Z38" si="15">MIN(V15:V35)</f>
-        <v>218.5185185185185</v>
+        <v>170.37037037037035</v>
       </c>
       <c r="W38" s="1">
         <f t="shared" si="15"/>
-        <v>210.71428571428572</v>
+        <v>164.28571428571428</v>
       </c>
       <c r="X38" s="1">
         <f t="shared" si="15"/>
-        <v>239.28571428571428</v>
+        <v>192.85714285714286</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" si="15"/>
-        <v>258.62068965517244</v>
+        <v>213.79310344827587</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" si="15"/>
-        <v>426.66666666666674</v>
+        <v>243.33333333333337</v>
       </c>
     </row>
     <row r="39" spans="7:32" ht="15" thickBot="1">
       <c r="G39" s="43">
         <v>26</v>
       </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="56"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="71"/>
       <c r="K39" s="43"/>
       <c r="L39" s="47"/>
       <c r="M39" s="43"/>
       <c r="S39" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="T39" s="1">
         <f>AVERAGE(T15:T35)</f>
-        <v>255.38461538461536</v>
+        <v>151.53846153846155</v>
       </c>
       <c r="V39" s="1">
         <f t="shared" ref="V39:Z39" si="16">AVERAGE(V15:V35)</f>
-        <v>274.07407407407408</v>
+        <v>174.07407407407408</v>
       </c>
       <c r="W39" s="1">
         <f t="shared" si="16"/>
-        <v>371.42857142857144</v>
+        <v>171.42857142857144</v>
       </c>
       <c r="X39" s="1">
         <f t="shared" si="16"/>
-        <v>400</v>
+        <v>200.00000000000003</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="16"/>
-        <v>458.62068965517244</v>
+        <v>222.06896551724139</v>
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="16"/>
-        <v>565.55555555555554</v>
+        <v>244.44444444444449</v>
       </c>
     </row>
     <row r="40" spans="7:32" ht="15" thickBot="1">
       <c r="G40" s="43">
         <v>27</v>
       </c>
-      <c r="H40" s="55"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="56"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="71"/>
       <c r="K40" s="43"/>
       <c r="L40" s="47"/>
       <c r="M40" s="43"/>
     </row>
-    <row r="41" spans="7:32">
+    <row r="41" spans="7:32" ht="15" thickBot="1">
       <c r="G41" s="43">
         <v>28</v>
       </c>
-      <c r="H41" s="55" t="s">
-        <v>319</v>
-      </c>
-      <c r="I41" s="59"/>
-      <c r="J41" s="56"/>
+      <c r="H41" s="70" t="s">
+        <v>316</v>
+      </c>
+      <c r="I41" s="74"/>
+      <c r="J41" s="71"/>
       <c r="K41" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="L41" s="47">
+        <v>5</v>
+      </c>
+      <c r="M41" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="L41" s="48">
-        <v>15</v>
-      </c>
-      <c r="M41" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="N41" s="55">
+      <c r="N41" s="70">
         <v>5</v>
       </c>
-      <c r="O41" s="56"/>
+      <c r="O41" s="71"/>
       <c r="P41" s="1">
         <v>1</v>
       </c>
@@ -10209,111 +10454,111 @@
       </c>
       <c r="R41" s="1">
         <f>N41*L41*P41</f>
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="S41" s="1">
         <f>N41*Q41*L41</f>
-        <v>150</v>
-      </c>
-      <c r="T41" s="73">
+        <v>50</v>
+      </c>
+      <c r="T41" s="64">
         <f>14*10+R41*(1-30/(100+30))</f>
-        <v>197.69230769230768</v>
-      </c>
-      <c r="U41" s="52"/>
+        <v>159.23076923076923</v>
+      </c>
+      <c r="U41" s="51"/>
       <c r="V41" s="1">
         <f>14*10+R41*(1-30/(100+30))</f>
-        <v>197.69230769230768</v>
+        <v>159.23076923076923</v>
       </c>
       <c r="W41" s="1">
         <f>(R15+22*10)*(1-40/(100+40))</f>
-        <v>264.28571428571428</v>
+        <v>167.85714285714286</v>
       </c>
     </row>
     <row r="46" spans="7:32">
-      <c r="H46" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
-      <c r="Q46" s="58"/>
+      <c r="H46" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
     </row>
     <row r="47" spans="7:32">
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
-      <c r="Q47" s="58"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
     </row>
     <row r="48" spans="7:32">
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
     </row>
     <row r="49" spans="4:17">
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
     </row>
     <row r="50" spans="4:17">
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
     </row>
     <row r="55" spans="4:17" ht="21">
       <c r="D55" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="4:17" ht="17.399999999999999">
       <c r="E61" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F61" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="G61" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="H61" s="51" t="s">
-        <v>333</v>
+      <c r="G61" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="H61" s="50" t="s">
+        <v>330</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J61" s="51" t="s">
-        <v>364</v>
+        <v>334</v>
+      </c>
+      <c r="J61" s="50" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="4:17" ht="17.399999999999999">
@@ -10326,14 +10571,14 @@
       <c r="G62" s="41">
         <v>4</v>
       </c>
-      <c r="H62" s="50">
+      <c r="H62" s="49">
         <f t="shared" ref="H62:H75" si="17">E62+G62</f>
         <v>14</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J62" s="53">
+        <v>333</v>
+      </c>
+      <c r="J62" s="52">
         <v>5</v>
       </c>
     </row>
@@ -10347,14 +10592,14 @@
       <c r="G63" s="41">
         <v>4</v>
       </c>
-      <c r="H63" s="50">
+      <c r="H63" s="49">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J63" s="53">
+        <v>333</v>
+      </c>
+      <c r="J63" s="52">
         <v>10</v>
       </c>
     </row>
@@ -10368,14 +10613,14 @@
       <c r="G64" s="41">
         <v>8</v>
       </c>
-      <c r="H64" s="50">
+      <c r="H64" s="49">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J64" s="53">
+        <v>333</v>
+      </c>
+      <c r="J64" s="52">
         <v>10</v>
       </c>
     </row>
@@ -10389,14 +10634,14 @@
       <c r="G65" s="41">
         <v>12</v>
       </c>
-      <c r="H65" s="50">
+      <c r="H65" s="49">
         <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J65" s="50">
+        <v>333</v>
+      </c>
+      <c r="J65" s="49">
         <v>15</v>
       </c>
     </row>
@@ -10410,14 +10655,14 @@
       <c r="G66" s="41">
         <v>12</v>
       </c>
-      <c r="H66" s="50">
+      <c r="H66" s="49">
         <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="J66" s="50">
+        <v>337</v>
+      </c>
+      <c r="J66" s="49">
         <v>15</v>
       </c>
     </row>
@@ -10431,14 +10676,14 @@
       <c r="G67" s="41">
         <v>16</v>
       </c>
-      <c r="H67" s="50">
+      <c r="H67" s="49">
         <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="J67" s="50">
+        <v>337</v>
+      </c>
+      <c r="J67" s="49">
         <v>20</v>
       </c>
     </row>
@@ -10452,14 +10697,14 @@
       <c r="G68" s="41">
         <v>20</v>
       </c>
-      <c r="H68" s="50">
+      <c r="H68" s="49">
         <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J68" s="50">
+        <v>335</v>
+      </c>
+      <c r="J68" s="49">
         <v>20</v>
       </c>
     </row>
@@ -10473,14 +10718,14 @@
       <c r="G69" s="41">
         <v>20</v>
       </c>
-      <c r="H69" s="50">
+      <c r="H69" s="49">
         <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J69" s="50">
+        <v>335</v>
+      </c>
+      <c r="J69" s="49">
         <v>25</v>
       </c>
     </row>
@@ -10494,14 +10739,14 @@
       <c r="G70" s="41">
         <v>24</v>
       </c>
-      <c r="H70" s="50">
+      <c r="H70" s="49">
         <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J70" s="50">
+        <v>335</v>
+      </c>
+      <c r="J70" s="49">
         <v>25</v>
       </c>
     </row>
@@ -10515,14 +10760,14 @@
       <c r="G71" s="41">
         <v>28</v>
       </c>
-      <c r="H71" s="50">
+      <c r="H71" s="49">
         <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J71" s="50">
+        <v>338</v>
+      </c>
+      <c r="J71" s="49">
         <v>30</v>
       </c>
     </row>
@@ -10536,14 +10781,14 @@
       <c r="G72" s="41">
         <v>28</v>
       </c>
-      <c r="H72" s="50">
+      <c r="H72" s="49">
         <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J72" s="50">
+        <v>338</v>
+      </c>
+      <c r="J72" s="49">
         <v>30</v>
       </c>
     </row>
@@ -10557,14 +10802,14 @@
       <c r="G73" s="41">
         <v>32</v>
       </c>
-      <c r="H73" s="50">
+      <c r="H73" s="49">
         <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J73" s="50">
+        <v>336</v>
+      </c>
+      <c r="J73" s="49">
         <v>35</v>
       </c>
     </row>
@@ -10578,14 +10823,14 @@
       <c r="G74" s="41">
         <v>36</v>
       </c>
-      <c r="H74" s="50">
+      <c r="H74" s="49">
         <f t="shared" si="17"/>
         <v>46</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J74" s="50">
+        <v>336</v>
+      </c>
+      <c r="J74" s="49">
         <v>35</v>
       </c>
     </row>
@@ -10599,14 +10844,14 @@
       <c r="G75" s="41">
         <v>36</v>
       </c>
-      <c r="H75" s="50">
+      <c r="H75" s="49">
         <f t="shared" si="17"/>
         <v>46</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J75" s="50">
+        <v>336</v>
+      </c>
+      <c r="J75" s="49">
         <v>40</v>
       </c>
     </row>
@@ -10615,12 +10860,12 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="F79" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="5:6">
@@ -10628,27 +10873,27 @@
         <v>2</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="5:6">
       <c r="F82" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="5:6">
       <c r="F83" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="5:6">
       <c r="F84" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="5:6">
       <c r="F85" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="5:6">
@@ -10656,22 +10901,22 @@
         <v>3</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="5:6">
       <c r="F88" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="5:6">
       <c r="F89" s="27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="5:6">
       <c r="F90" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="5:6">
@@ -10679,12 +10924,12 @@
         <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="5:6">
       <c r="F93" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/Disign/Monster .xlsx
+++ b/Disign/Monster .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a3997\Documents\GitHub\Hyo_swEngineering10\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3383AB1-36D3-4A8D-AF31-84441F1FECEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7611A5B-CE10-4D33-B7A8-B2A3474C2ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VerControl" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="421">
   <si>
     <t>일반 몬스터에 비해 지능과 공격력, 보상이 좀 더 좋고, 체력또한 10배이며, 6)와 같은 상태이상을 플레이어에게 건다.
 일정 확률에 따라 엘리트 몬스터가 한마리씩 나온다.
@@ -597,9 +597,6 @@
 (탄환 발사)</t>
   </si>
   <si>
-    <t>PropertyType</t>
-  </si>
-  <si>
     <t>자가 치유 모션[자힐]</t>
   </si>
   <si>
@@ -1433,6 +1430,30 @@
   </si>
   <si>
     <t>공격 대기 시간</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goast</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bat</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knight</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Octopus </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farmer</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1981,22 +2002,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5264,14 +5285,14 @@
     <row r="2" spans="1:8" ht="23.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="H2" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5279,19 +5300,19 @@
         <v>80</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>46</v>
@@ -5299,13 +5320,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>45</v>
@@ -5348,8 +5369,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
@@ -5385,10 +5406,10 @@
         <v>43</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>44</v>
@@ -5396,10 +5417,10 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>65</v>
@@ -5416,7 +5437,7 @@
         <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -5449,7 +5470,7 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>67</v>
@@ -5471,7 +5492,7 @@
         <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D12" s="11">
         <v>4</v>
@@ -5489,7 +5510,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13" s="11">
         <v>5</v>
@@ -5525,7 +5546,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15" s="14">
         <v>7</v>
@@ -5540,19 +5561,19 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D16" s="1">
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K16" s="3"/>
     </row>
@@ -5570,7 +5591,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -5579,13 +5600,13 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="15" t="s">
-        <v>176</v>
+        <v>415</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>26</v>
@@ -5594,10 +5615,10 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>65</v>
@@ -5614,7 +5635,7 @@
         <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24" s="11">
         <v>1</v>
@@ -5631,7 +5652,7 @@
         <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
@@ -5645,10 +5666,10 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" s="11">
         <v>3</v>
@@ -5682,7 +5703,7 @@
         <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -5699,7 +5720,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -5707,10 +5728,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>33</v>
@@ -5718,10 +5739,10 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>65</v>
@@ -5738,7 +5759,7 @@
         <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D36" s="11">
         <v>1</v>
@@ -5772,7 +5793,7 @@
         <v>85</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D38" s="14">
         <v>3</v>
@@ -5789,7 +5810,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -5797,10 +5818,10 @@
         <v>36</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>34</v>
@@ -5808,10 +5829,10 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>65</v>
@@ -5837,21 +5858,21 @@
         <v>74</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D48" s="11">
         <v>2</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>35</v>
@@ -5859,7 +5880,7 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>38</v>
@@ -5868,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>161</v>
@@ -5876,16 +5897,16 @@
     </row>
     <row r="50" spans="2:7" ht="28.8">
       <c r="B50" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D50" s="14">
         <v>4</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>10</v>
@@ -5904,7 +5925,7 @@
         <v>41</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>33</v>
@@ -5912,7 +5933,7 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>65</v>
@@ -5979,10 +6000,10 @@
         <v>129</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>172</v>
@@ -5990,10 +6011,10 @@
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>65</v>
@@ -6010,7 +6031,7 @@
         <v>101</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
@@ -6061,7 +6082,7 @@
         <v>110</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="11">
         <v>4</v>
@@ -6070,12 +6091,12 @@
         <v>110</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>130</v>
@@ -6084,10 +6105,10 @@
         <v>5</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="2:7">
@@ -6134,13 +6155,13 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>95</v>
@@ -6178,7 +6199,7 @@
     </row>
     <row r="10" spans="2:6" ht="252.6" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>127</v>
@@ -6189,7 +6210,7 @@
     </row>
     <row r="11" spans="2:6" ht="136.80000000000001" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>48</v>
@@ -6200,7 +6221,7 @@
     </row>
     <row r="12" spans="2:6" ht="170.4" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>128</v>
@@ -6211,7 +6232,7 @@
     </row>
     <row r="13" spans="2:6" ht="187.8" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>25</v>
@@ -6222,7 +6243,7 @@
     </row>
     <row r="14" spans="2:6" ht="156.6" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
@@ -6233,7 +6254,7 @@
     </row>
     <row r="15" spans="2:6" ht="183" customHeight="1">
       <c r="B15" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24" t="s">
@@ -6243,7 +6264,7 @@
         <v>111</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="192" customHeight="1">
@@ -6275,10 +6296,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:K74"/>
+  <dimension ref="A2:K74"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="94" zoomScaleNormal="94" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="94" zoomScaleNormal="94" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
@@ -6306,13 +6327,13 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>112</v>
@@ -6321,10 +6342,10 @@
         <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>114</v>
@@ -6338,7 +6359,7 @@
         <v>133</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
@@ -6350,7 +6371,7 @@
         <v>135</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>104</v>
@@ -6361,7 +6382,7 @@
         <v>136</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
@@ -6370,10 +6391,10 @@
         <v>84</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>104</v>
@@ -6384,7 +6405,7 @@
         <v>139</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>70</v>
@@ -6396,7 +6417,7 @@
         <v>175</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>137</v>
@@ -6407,7 +6428,7 @@
     </row>
     <row r="9" spans="2:11" ht="61.8" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>91</v>
@@ -6422,7 +6443,7 @@
         <v>135</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>104</v>
@@ -6430,7 +6451,7 @@
     </row>
     <row r="10" spans="2:11" ht="58.8" customHeight="1">
       <c r="B10" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24" t="s">
@@ -6446,7 +6467,7 @@
         <v>175</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24" t="s">
@@ -6474,21 +6495,21 @@
     <row r="16" spans="2:11" ht="58.8" customHeight="1">
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="2:10" ht="58.8" customHeight="1">
+    <row r="17" spans="1:10" ht="58.8" customHeight="1">
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="2:10" ht="58.8" customHeight="1">
+    <row r="18" spans="1:10" ht="58.8" customHeight="1">
       <c r="G18" s="23"/>
     </row>
-    <row r="19" spans="2:10" ht="58.8" customHeight="1">
+    <row r="19" spans="1:10" ht="58.8" customHeight="1">
       <c r="G19" s="23"/>
     </row>
-    <row r="20" spans="2:10" ht="58.8" customHeight="1">
+    <row r="20" spans="1:10" ht="58.8" customHeight="1">
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="2:10" ht="62.4" customHeight="1">
+    <row r="21" spans="1:10" ht="62.4" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>91</v>
@@ -6503,15 +6524,15 @@
         <v>175</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="67.2" customHeight="1">
+    <row r="22" spans="1:10" ht="67.2" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>91</v>
@@ -6523,15 +6544,15 @@
         <v>84</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="69.599999999999994" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="69.599999999999994" customHeight="1">
       <c r="B23" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>91</v>
@@ -6546,12 +6567,12 @@
         <v>135</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="76.2" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="76.2" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>91</v>
@@ -6566,12 +6587,12 @@
         <v>135</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="75" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="75" customHeight="1">
       <c r="B25" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>91</v>
@@ -6586,12 +6607,12 @@
         <v>135</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="80.400000000000006" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="80.400000000000006" customHeight="1">
       <c r="B26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>91</v>
@@ -6603,19 +6624,22 @@
         <v>84</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="89.4" customHeight="1"/>
-    <row r="28" spans="2:10" ht="87" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="89.4" customHeight="1"/>
+    <row r="28" spans="1:10" ht="87" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>71</v>
@@ -6627,18 +6651,21 @@
         <v>135</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="106.2" customHeight="1">
+    <row r="29" spans="1:10" ht="106.2" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>71</v>
@@ -6650,18 +6677,21 @@
         <v>175</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="96.6" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="96.6" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>86</v>
@@ -6670,18 +6700,21 @@
         <v>84</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="95.4" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="95.4" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>71</v>
@@ -6690,18 +6723,21 @@
         <v>85</v>
       </c>
       <c r="G31" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="105" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="105" customHeight="1">
-      <c r="B32" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>70</v>
@@ -6710,10 +6746,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -6723,13 +6759,13 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>112</v>
@@ -6738,13 +6774,13 @@
         <v>72</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>114</v>
@@ -6772,7 +6808,7 @@
     </row>
     <row r="40" spans="2:10" ht="70.8" customHeight="1">
       <c r="B40" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>142</v>
@@ -6785,13 +6821,13 @@
     </row>
     <row r="42" spans="2:10" ht="77.400000000000006" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="111.6" customHeight="1">
@@ -6813,7 +6849,7 @@
         <v>103</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="68.400000000000006" customHeight="1">
@@ -6824,12 +6860,12 @@
         <v>117</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="67.2" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>105</v>
@@ -6838,7 +6874,7 @@
         <v>74</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="69.599999999999994" customHeight="1">
@@ -6860,12 +6896,12 @@
         <v>118</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="79.8" customHeight="1">
       <c r="B52" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="79.2" customHeight="1">
@@ -6884,7 +6920,7 @@
         <v>150</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>88</v>
@@ -6895,7 +6931,7 @@
     </row>
     <row r="55" spans="2:10" ht="69.599999999999994" customHeight="1">
       <c r="G55" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I55" s="23" t="s">
         <v>50</v>
@@ -6914,7 +6950,7 @@
     </row>
     <row r="57" spans="2:10" ht="81.599999999999994" customHeight="1">
       <c r="B57" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G57" s="23"/>
       <c r="I57" s="1" t="s">
@@ -6942,10 +6978,10 @@
     </row>
     <row r="60" spans="2:10" ht="114" customHeight="1">
       <c r="G60" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="97.8" customHeight="1"/>
@@ -6964,7 +7000,7 @@
         <v>84</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H64" s="28" t="s">
         <v>93</v>
@@ -6973,12 +7009,12 @@
         <v>141</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="7:10" ht="98.4" customHeight="1">
       <c r="G65" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H65" s="28" t="s">
         <v>93</v>
@@ -6994,29 +7030,29 @@
     </row>
     <row r="67" spans="7:10" ht="101.4" customHeight="1">
       <c r="H67" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="I67" s="26" t="s">
         <v>404</v>
-      </c>
-      <c r="I67" s="26" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="68" spans="7:10" ht="101.4" customHeight="1">
       <c r="I68" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="7:10" ht="238.8" customHeight="1">
       <c r="G69" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I69" s="26" t="s">
         <v>21</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="7:10" ht="155.4" customHeight="1">
@@ -7024,10 +7060,10 @@
         <v>106</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="7:10" ht="153.6" customHeight="1">
@@ -7035,10 +7071,10 @@
         <v>92</v>
       </c>
       <c r="H71" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="I71" s="26" t="s">
         <v>401</v>
-      </c>
-      <c r="I71" s="26" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="72" spans="7:10" ht="154.19999999999999" customHeight="1">
@@ -7046,23 +7082,23 @@
         <v>108</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" spans="7:10" ht="109.8" customHeight="1">
       <c r="H73" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="I73" s="26" t="s">
         <v>407</v>
-      </c>
-      <c r="I73" s="26" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="74" spans="7:10" ht="114" customHeight="1">
       <c r="I74" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -7091,7 +7127,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="21">
       <c r="B2" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -7106,12 +7142,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -7175,11 +7211,11 @@
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -7208,10 +7244,10 @@
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -7364,7 +7400,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" s="34">
         <v>0.2</v>
@@ -7394,7 +7430,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -7433,18 +7469,18 @@
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:19">
       <c r="J6" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="14.4">
@@ -7467,16 +7503,16 @@
         <v>76</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>124</v>
@@ -7494,10 +7530,10 @@
         <v>73</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="14.4">
@@ -7783,15 +7819,15 @@
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="2:19">
       <c r="S21" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="14.4">
@@ -7814,19 +7850,19 @@
         <v>76</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M22" s="15" t="s">
         <v>124</v>
@@ -7844,10 +7880,10 @@
         <v>73</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="14.4">
@@ -7880,7 +7916,7 @@
         <v>22</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N23" s="13">
         <v>19</v>
@@ -8021,7 +8057,7 @@
         <v>30</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="14.4">
@@ -8084,7 +8120,7 @@
         <v>34</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="2:19">
@@ -8128,18 +8164,18 @@
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="2:21">
       <c r="R36" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="2:21" ht="14.4">
@@ -8162,16 +8198,16 @@
         <v>76</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M37" s="15" t="s">
         <v>124</v>
@@ -8186,19 +8222,19 @@
         <v>99</v>
       </c>
       <c r="Q37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="R37" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="S37" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T37" s="17" t="s">
         <v>123</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="14.4">
@@ -8231,7 +8267,7 @@
         <v>38</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N38" s="1">
         <v>27</v>
@@ -8285,7 +8321,7 @@
         <v>38</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N39" s="1">
         <v>30</v>
@@ -8306,7 +8342,7 @@
         <v>10000</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="14.4">
@@ -8339,7 +8375,7 @@
         <v>42</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N40" s="13">
         <v>32</v>
@@ -8567,46 +8603,46 @@
   <sheetData>
     <row r="5" spans="3:32" ht="21">
       <c r="D5" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="3:32" ht="21">
       <c r="D6" s="9"/>
       <c r="T6" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="3:32" ht="21">
       <c r="D7" s="9"/>
       <c r="G7" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="3:32" ht="21">
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="3:32" ht="17.399999999999999">
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69" t="s">
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72" t="s">
         <v>343</v>
       </c>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
     </row>
     <row r="10" spans="3:32" ht="17.399999999999999">
       <c r="G10" s="40">
@@ -8646,43 +8682,43 @@
         <v>35</v>
       </c>
       <c r="T10" s="53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U10" s="54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V10" s="54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W10" s="55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="X10" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y10" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z10" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA10" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="Y10" s="54" t="s">
+      <c r="AB10" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="Z10" s="55" t="s">
+      <c r="AC10" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="AA10" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="AB10" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC10" s="55" t="s">
-        <v>338</v>
-      </c>
       <c r="AD10" s="65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AE10" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF10" s="65" t="s">
         <v>389</v>
-      </c>
-      <c r="AF10" s="65" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="11" spans="3:32" ht="17.399999999999999">
@@ -8699,162 +8735,162 @@
       <c r="Q11" s="48"/>
       <c r="R11" s="48"/>
       <c r="T11" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AC11" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD11" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="AD11" s="66" t="s">
-        <v>356</v>
-      </c>
       <c r="AE11" s="66" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF11" s="66" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="3:32">
       <c r="T12" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="V12" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AD12" s="66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AE12" s="66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF12" s="66" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="3:32">
       <c r="T13" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AB13" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC13" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="AC13" s="11" t="s">
-        <v>384</v>
-      </c>
       <c r="AD13" s="66" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE13" s="66" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF13" s="66" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1">
       <c r="C14" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="I14" s="74"/>
+      <c r="H14" s="69" t="s">
+        <v>280</v>
+      </c>
+      <c r="I14" s="70"/>
       <c r="J14" s="71"/>
       <c r="K14" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="M14" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="L14" s="45" t="s">
+      <c r="N14" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="M14" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="N14" s="46" t="s">
+      <c r="P14" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="T14" s="12"/>
       <c r="U14" s="13"/>
@@ -8872,26 +8908,26 @@
     </row>
     <row r="15" spans="3:32" ht="15" thickBot="1">
       <c r="C15" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G15" s="43">
         <v>1</v>
       </c>
-      <c r="H15" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I15" s="74"/>
+      <c r="H15" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="I15" s="70"/>
       <c r="J15" s="71"/>
       <c r="K15" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L15" s="47">
         <v>5</v>
       </c>
       <c r="M15" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="N15" s="70">
+        <v>285</v>
+      </c>
+      <c r="N15" s="69">
         <v>10</v>
       </c>
       <c r="O15" s="71"/>
@@ -8943,26 +8979,26 @@
     </row>
     <row r="16" spans="3:32" ht="15" thickBot="1">
       <c r="C16" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G16" s="43">
         <v>2</v>
       </c>
-      <c r="H16" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="I16" s="74"/>
+      <c r="H16" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="I16" s="70"/>
       <c r="J16" s="71"/>
       <c r="K16" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L16" s="47">
         <v>5</v>
       </c>
       <c r="M16" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="N16" s="70">
+        <v>285</v>
+      </c>
+      <c r="N16" s="69">
         <v>25</v>
       </c>
       <c r="O16" s="71"/>
@@ -9021,21 +9057,21 @@
       <c r="G17" s="43">
         <v>3</v>
       </c>
-      <c r="H17" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="I17" s="74"/>
+      <c r="H17" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="I17" s="70"/>
       <c r="J17" s="71"/>
       <c r="K17" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L17" s="47">
         <v>5</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="N17" s="70">
+        <v>288</v>
+      </c>
+      <c r="N17" s="69">
         <v>35</v>
       </c>
       <c r="O17" s="71"/>
@@ -9081,21 +9117,21 @@
       <c r="G18" s="43">
         <v>4</v>
       </c>
-      <c r="H18" s="70" t="s">
-        <v>290</v>
-      </c>
-      <c r="I18" s="74"/>
+      <c r="H18" s="69" t="s">
+        <v>289</v>
+      </c>
+      <c r="I18" s="70"/>
       <c r="J18" s="71"/>
       <c r="K18" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L18" s="47">
         <v>5</v>
       </c>
       <c r="M18" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="N18" s="70">
+        <v>288</v>
+      </c>
+      <c r="N18" s="69">
         <v>45</v>
       </c>
       <c r="O18" s="71"/>
@@ -9141,21 +9177,21 @@
       <c r="G19" s="43">
         <v>5</v>
       </c>
-      <c r="H19" s="70" t="s">
-        <v>291</v>
-      </c>
-      <c r="I19" s="74"/>
+      <c r="H19" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="I19" s="70"/>
       <c r="J19" s="71"/>
       <c r="K19" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L19" s="47">
         <v>5</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="N19" s="70">
+        <v>285</v>
+      </c>
+      <c r="N19" s="69">
         <v>35</v>
       </c>
       <c r="O19" s="71"/>
@@ -9201,21 +9237,21 @@
       <c r="G20" s="43">
         <v>6</v>
       </c>
-      <c r="H20" s="70" t="s">
-        <v>292</v>
-      </c>
-      <c r="I20" s="74"/>
+      <c r="H20" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="I20" s="70"/>
       <c r="J20" s="71"/>
       <c r="K20" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L20" s="47">
         <v>5</v>
       </c>
       <c r="M20" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="N20" s="70">
+        <v>293</v>
+      </c>
+      <c r="N20" s="69">
         <v>20</v>
       </c>
       <c r="O20" s="71"/>
@@ -9277,21 +9313,21 @@
       <c r="G21" s="43">
         <v>7</v>
       </c>
-      <c r="H21" s="70" t="s">
-        <v>295</v>
-      </c>
-      <c r="I21" s="74"/>
+      <c r="H21" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="I21" s="70"/>
       <c r="J21" s="71"/>
       <c r="K21" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L21" s="47">
         <v>5</v>
       </c>
       <c r="M21" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="N21" s="70">
+        <v>295</v>
+      </c>
+      <c r="N21" s="69">
         <v>20</v>
       </c>
       <c r="O21" s="71"/>
@@ -9353,21 +9389,21 @@
       <c r="G22" s="43">
         <v>8</v>
       </c>
-      <c r="H22" s="70" t="s">
-        <v>297</v>
-      </c>
-      <c r="I22" s="74"/>
+      <c r="H22" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="70"/>
       <c r="J22" s="71"/>
       <c r="K22" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L22" s="47">
         <v>5</v>
       </c>
       <c r="M22" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="N22" s="70">
+        <v>295</v>
+      </c>
+      <c r="N22" s="69">
         <v>5</v>
       </c>
       <c r="O22" s="71"/>
@@ -9429,21 +9465,21 @@
       <c r="G23" s="43">
         <v>9</v>
       </c>
-      <c r="H23" s="70" t="s">
-        <v>298</v>
-      </c>
-      <c r="I23" s="74"/>
+      <c r="H23" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="I23" s="70"/>
       <c r="J23" s="71"/>
       <c r="K23" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L23" s="47">
         <v>5</v>
       </c>
       <c r="M23" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="N23" s="70">
+        <v>285</v>
+      </c>
+      <c r="N23" s="69">
         <v>20</v>
       </c>
       <c r="O23" s="71"/>
@@ -9508,21 +9544,21 @@
       <c r="G24" s="43">
         <v>10</v>
       </c>
-      <c r="H24" s="70" t="s">
-        <v>299</v>
-      </c>
-      <c r="I24" s="74"/>
+      <c r="H24" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="I24" s="70"/>
       <c r="J24" s="71"/>
       <c r="K24" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L24" s="47">
         <v>5</v>
       </c>
       <c r="M24" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="N24" s="70">
+        <v>295</v>
+      </c>
+      <c r="N24" s="69">
         <v>70</v>
       </c>
       <c r="O24" s="71"/>
@@ -9564,21 +9600,21 @@
       <c r="G25" s="43">
         <v>11</v>
       </c>
-      <c r="H25" s="70" t="s">
-        <v>300</v>
-      </c>
-      <c r="I25" s="74"/>
+      <c r="H25" s="69" t="s">
+        <v>299</v>
+      </c>
+      <c r="I25" s="70"/>
       <c r="J25" s="71"/>
       <c r="K25" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L25" s="47">
         <v>5</v>
       </c>
       <c r="M25" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="N25" s="70">
+        <v>301</v>
+      </c>
+      <c r="N25" s="69">
         <v>50</v>
       </c>
       <c r="O25" s="71"/>
@@ -9620,21 +9656,21 @@
       <c r="G26" s="43">
         <v>13</v>
       </c>
-      <c r="H26" s="70" t="s">
-        <v>303</v>
-      </c>
-      <c r="I26" s="74"/>
+      <c r="H26" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="I26" s="70"/>
       <c r="J26" s="71"/>
       <c r="K26" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L26" s="47">
         <v>5</v>
       </c>
       <c r="M26" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="N26" s="70">
+        <v>301</v>
+      </c>
+      <c r="N26" s="69">
         <v>40</v>
       </c>
       <c r="O26" s="71"/>
@@ -9676,21 +9712,21 @@
       <c r="G27" s="43">
         <v>14</v>
       </c>
-      <c r="H27" s="70" t="s">
-        <v>304</v>
-      </c>
-      <c r="I27" s="74"/>
+      <c r="H27" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="I27" s="70"/>
       <c r="J27" s="71"/>
       <c r="K27" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L27" s="47">
         <v>5</v>
       </c>
       <c r="M27" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="N27" s="70">
+        <v>301</v>
+      </c>
+      <c r="N27" s="69">
         <v>10</v>
       </c>
       <c r="O27" s="71"/>
@@ -9755,21 +9791,21 @@
       <c r="G28" s="43">
         <v>15</v>
       </c>
-      <c r="H28" s="70" t="s">
-        <v>305</v>
-      </c>
-      <c r="I28" s="74"/>
+      <c r="H28" s="69" t="s">
+        <v>304</v>
+      </c>
+      <c r="I28" s="70"/>
       <c r="J28" s="71"/>
       <c r="K28" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L28" s="47">
         <v>5</v>
       </c>
       <c r="M28" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="N28" s="70">
+        <v>305</v>
+      </c>
+      <c r="N28" s="69">
         <v>15</v>
       </c>
       <c r="O28" s="71"/>
@@ -9834,21 +9870,21 @@
       <c r="G29" s="43">
         <v>16</v>
       </c>
-      <c r="H29" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="I29" s="74"/>
+      <c r="H29" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="I29" s="70"/>
       <c r="J29" s="71"/>
       <c r="K29" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L29" s="47">
         <v>5</v>
       </c>
       <c r="M29" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="N29" s="70">
+        <v>307</v>
+      </c>
+      <c r="N29" s="69">
         <v>35</v>
       </c>
       <c r="O29" s="71"/>
@@ -9897,21 +9933,21 @@
       <c r="G30" s="43">
         <v>17</v>
       </c>
-      <c r="H30" s="70" t="s">
-        <v>309</v>
-      </c>
-      <c r="I30" s="74"/>
+      <c r="H30" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="I30" s="70"/>
       <c r="J30" s="71"/>
       <c r="K30" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L30" s="47">
         <v>5</v>
       </c>
       <c r="M30" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="N30" s="70">
+        <v>307</v>
+      </c>
+      <c r="N30" s="69">
         <v>20</v>
       </c>
       <c r="O30" s="71"/>
@@ -9976,21 +10012,21 @@
       <c r="G31" s="43">
         <v>18</v>
       </c>
-      <c r="H31" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="I31" s="74"/>
+      <c r="H31" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="I31" s="70"/>
       <c r="J31" s="71"/>
       <c r="K31" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L31" s="47">
         <v>5</v>
       </c>
       <c r="M31" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="N31" s="70">
+        <v>305</v>
+      </c>
+      <c r="N31" s="69">
         <v>25</v>
       </c>
       <c r="O31" s="71"/>
@@ -10049,21 +10085,21 @@
       <c r="G32" s="43">
         <v>19</v>
       </c>
-      <c r="H32" s="70" t="s">
-        <v>311</v>
-      </c>
-      <c r="I32" s="74"/>
+      <c r="H32" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="I32" s="70"/>
       <c r="J32" s="71"/>
       <c r="K32" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L32" s="47">
         <v>5</v>
       </c>
       <c r="M32" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="N32" s="70">
+        <v>305</v>
+      </c>
+      <c r="N32" s="69">
         <v>40</v>
       </c>
       <c r="O32" s="71"/>
@@ -10108,21 +10144,21 @@
       <c r="G33" s="43">
         <v>20</v>
       </c>
-      <c r="H33" s="70" t="s">
-        <v>312</v>
-      </c>
-      <c r="I33" s="74"/>
+      <c r="H33" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="I33" s="70"/>
       <c r="J33" s="71"/>
       <c r="K33" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L33" s="47">
         <v>5</v>
       </c>
       <c r="M33" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="N33" s="70">
+        <v>307</v>
+      </c>
+      <c r="N33" s="69">
         <v>30</v>
       </c>
       <c r="O33" s="71"/>
@@ -10174,21 +10210,21 @@
       <c r="G34" s="43">
         <v>21</v>
       </c>
-      <c r="H34" s="70" t="s">
-        <v>314</v>
-      </c>
-      <c r="I34" s="74"/>
+      <c r="H34" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="I34" s="70"/>
       <c r="J34" s="71"/>
       <c r="K34" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L34" s="47">
         <v>5</v>
       </c>
       <c r="M34" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="N34" s="70">
+        <v>295</v>
+      </c>
+      <c r="N34" s="69">
         <v>40</v>
       </c>
       <c r="O34" s="71"/>
@@ -10230,21 +10266,21 @@
       <c r="G35" s="43">
         <v>22</v>
       </c>
-      <c r="H35" s="70" t="s">
-        <v>315</v>
-      </c>
-      <c r="I35" s="74"/>
+      <c r="H35" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="I35" s="70"/>
       <c r="J35" s="71"/>
       <c r="K35" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L35" s="47">
         <v>5</v>
       </c>
       <c r="M35" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="N35" s="70">
+        <v>293</v>
+      </c>
+      <c r="N35" s="69">
         <v>35</v>
       </c>
       <c r="O35" s="71"/>
@@ -10292,8 +10328,8 @@
       <c r="G36" s="43">
         <v>23</v>
       </c>
-      <c r="H36" s="70"/>
-      <c r="I36" s="74"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="70"/>
       <c r="J36" s="71"/>
       <c r="K36" s="43"/>
       <c r="L36" s="47"/>
@@ -10303,14 +10339,14 @@
       <c r="G37" s="43">
         <v>24</v>
       </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="74"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="70"/>
       <c r="J37" s="71"/>
       <c r="K37" s="43"/>
       <c r="L37" s="47"/>
       <c r="M37" s="43"/>
       <c r="S37" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T37" s="1">
         <f>MAX(T15:T35)</f>
@@ -10341,14 +10377,14 @@
       <c r="G38" s="43">
         <v>25</v>
       </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="74"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="70"/>
       <c r="J38" s="71"/>
       <c r="K38" s="43"/>
       <c r="L38" s="47"/>
       <c r="M38" s="43"/>
       <c r="S38" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T38" s="1">
         <f>MIN(T15:T35)</f>
@@ -10379,14 +10415,14 @@
       <c r="G39" s="43">
         <v>26</v>
       </c>
-      <c r="H39" s="70"/>
-      <c r="I39" s="74"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="70"/>
       <c r="J39" s="71"/>
       <c r="K39" s="43"/>
       <c r="L39" s="47"/>
       <c r="M39" s="43"/>
       <c r="S39" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T39" s="1">
         <f>AVERAGE(T15:T35)</f>
@@ -10417,8 +10453,8 @@
       <c r="G40" s="43">
         <v>27</v>
       </c>
-      <c r="H40" s="70"/>
-      <c r="I40" s="74"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="70"/>
       <c r="J40" s="71"/>
       <c r="K40" s="43"/>
       <c r="L40" s="47"/>
@@ -10428,21 +10464,21 @@
       <c r="G41" s="43">
         <v>28</v>
       </c>
-      <c r="H41" s="70" t="s">
-        <v>316</v>
-      </c>
-      <c r="I41" s="74"/>
+      <c r="H41" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="I41" s="70"/>
       <c r="J41" s="71"/>
       <c r="K41" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L41" s="47">
         <v>5</v>
       </c>
       <c r="M41" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="N41" s="70">
+        <v>295</v>
+      </c>
+      <c r="N41" s="69">
         <v>5</v>
       </c>
       <c r="O41" s="71"/>
@@ -10475,90 +10511,90 @@
       </c>
     </row>
     <row r="46" spans="7:32">
-      <c r="H46" s="72" t="s">
-        <v>326</v>
-      </c>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
+      <c r="H46" s="73" t="s">
+        <v>325</v>
+      </c>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="74"/>
     </row>
     <row r="47" spans="7:32">
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
     </row>
     <row r="48" spans="7:32">
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
     </row>
     <row r="49" spans="4:17">
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
     </row>
     <row r="50" spans="4:17">
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="73"/>
-      <c r="O50" s="73"/>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="73"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
     </row>
     <row r="55" spans="4:17" ht="21">
       <c r="D55" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="4:17" ht="17.399999999999999">
       <c r="E61" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F61" s="40" t="s">
         <v>68</v>
       </c>
       <c r="G61" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="H61" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="H61" s="50" t="s">
-        <v>330</v>
-      </c>
       <c r="I61" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J61" s="50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="4:17" ht="17.399999999999999">
@@ -10576,7 +10612,7 @@
         <v>14</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J62" s="52">
         <v>5</v>
@@ -10597,7 +10633,7 @@
         <v>14</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J63" s="52">
         <v>10</v>
@@ -10618,7 +10654,7 @@
         <v>18</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J64" s="52">
         <v>10</v>
@@ -10639,7 +10675,7 @@
         <v>22</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J65" s="49">
         <v>15</v>
@@ -10660,7 +10696,7 @@
         <v>22</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J66" s="49">
         <v>15</v>
@@ -10681,7 +10717,7 @@
         <v>26</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J67" s="49">
         <v>20</v>
@@ -10702,7 +10738,7 @@
         <v>30</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J68" s="49">
         <v>20</v>
@@ -10723,7 +10759,7 @@
         <v>30</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J69" s="49">
         <v>25</v>
@@ -10744,7 +10780,7 @@
         <v>34</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J70" s="49">
         <v>25</v>
@@ -10765,7 +10801,7 @@
         <v>38</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J71" s="49">
         <v>30</v>
@@ -10786,7 +10822,7 @@
         <v>38</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J72" s="49">
         <v>30</v>
@@ -10807,7 +10843,7 @@
         <v>42</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J73" s="49">
         <v>35</v>
@@ -10828,7 +10864,7 @@
         <v>46</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J74" s="49">
         <v>35</v>
@@ -10849,7 +10885,7 @@
         <v>46</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J75" s="49">
         <v>40</v>
@@ -10860,12 +10896,12 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="F79" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="5:6">
@@ -10873,27 +10909,27 @@
         <v>2</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="5:6">
       <c r="F82" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="5:6">
       <c r="F83" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="5:6">
       <c r="F84" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="5:6">
       <c r="F85" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="5:6">
@@ -10901,22 +10937,22 @@
         <v>3</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="5:6">
       <c r="F88" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="5:6">
       <c r="F89" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="5:6">
       <c r="F90" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="5:6">
@@ -10924,27 +10960,43 @@
         <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="5:6">
       <c r="F93" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="H46:Q50"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="H41:J41"/>
@@ -10961,33 +11013,17 @@
     <mergeCell ref="H36:J36"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="H46:Q50"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
